--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C419F57B-A2A5-4550-B07F-C566CCB1DDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8119413-C32A-4251-9DA3-A9C6C4750AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36262B2B-AF2C-47F3-A80A-85C23E3CA2D6}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8119413-C32A-4251-9DA3-A9C6C4750AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F7462-4EA5-431D-B2FB-B4700EF682CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="HeroLevel" sheetId="2" r:id="rId2"/>
+    <sheet name="PowerHeroLevel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>索引</t>
   </si>
@@ -191,6 +192,89 @@
   </si>
   <si>
     <t>兵力上限1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15001,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001,999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需声望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedFavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好道具类型
+1-酒
+2-武器装备
+3-书籍
+4-宝物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +395,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,17 +723,21 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="7" customWidth="1"/>
-    <col min="6" max="7" width="17.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="50.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="58.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="23.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="42.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="52" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="7" customWidth="1"/>
+    <col min="15" max="16" width="15" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -674,8 +774,20 @@
       <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -712,8 +824,20 @@
       <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -750,8 +874,20 @@
       <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -787,6 +923,18 @@
       </c>
       <c r="L4" s="7">
         <v>1000</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="7">
+        <v>60</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36262B2B-AF2C-47F3-A80A-85C23E3CA2D6}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -1448,4 +1596,124 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985A156-4714-42C9-B473-A622406C6C84}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F7462-4EA5-431D-B2FB-B4700EF682CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A4CD9-42DF-4714-9FB8-5F5BC7D5DEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>索引</t>
   </si>
@@ -179,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestHero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所需声望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,23 +246,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PowerRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiuBei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuanYu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvBu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhouCang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiaoHua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:22000,stone:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:2000,metal:30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:20000,food:50000,qing_long_yan_yu_dao:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10000,wood:10000,chi_tu_ma:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10000,shuang_gu_jian:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>喜好道具类型
-1-酒
-2-武器装备
-3-书籍
-4-宝物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望范围</t>
+1、酒
+ 2、名画 
+3、书籍 
+4、宝物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,7 +788,7 @@
     <col min="10" max="10" width="42.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="52" style="7" customWidth="1"/>
     <col min="12" max="12" width="16.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="59.75" style="7" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="7" customWidth="1"/>
     <col min="15" max="16" width="15" style="7" customWidth="1"/>
   </cols>
@@ -775,16 +831,16 @@
         <v>29</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -825,16 +881,16 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -892,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -904,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7">
         <v>5</v>
@@ -925,7 +981,7 @@
         <v>1000</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
         <v>1000</v>
@@ -935,6 +991,206 @@
       </c>
       <c r="P4" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="7">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="7">
+        <v>40</v>
+      </c>
+      <c r="P6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="7">
+        <v>80</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="7">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1602,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985A156-4714-42C9-B473-A622406C6C84}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
@@ -1629,21 +1885,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1651,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1662,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -1673,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -1684,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -1695,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -1706,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="7">
         <v>25</v>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A4CD9-42DF-4714-9FB8-5F5BC7D5DEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93D3CE-8C47-4BDE-9D5C-69467F527603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="HeroLevel" sheetId="2" r:id="rId2"/>
     <sheet name="PowerHeroLevel" sheetId="3" r:id="rId3"/>
+    <sheet name="HeroPool" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="202">
   <si>
     <t>索引</t>
   </si>
@@ -331,6 +332,465 @@
  2、名画 
 3、书籍 
 4、宝物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,50,80,95,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualtyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,40,70,85,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30,60,85,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20,50,75,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10001</t>
+  </si>
+  <si>
+    <t>gold:10002</t>
+  </si>
+  <si>
+    <t>gold:10003</t>
+  </si>
+  <si>
+    <t>gold:10004</t>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太史慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马岱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐庶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛辅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10005</t>
+  </si>
+  <si>
+    <t>gold:10006</t>
+  </si>
+  <si>
+    <t>gold:10007</t>
+  </si>
+  <si>
+    <t>gold:10008</t>
+  </si>
+  <si>
+    <t>gold:10009</t>
+  </si>
+  <si>
+    <t>gold:10010</t>
+  </si>
+  <si>
+    <t>gold:10011</t>
+  </si>
+  <si>
+    <t>gold:10012</t>
+  </si>
+  <si>
+    <t>gold:10013</t>
+  </si>
+  <si>
+    <t>gold:10014</t>
+  </si>
+  <si>
+    <t>gold:10015</t>
+  </si>
+  <si>
+    <t>gold:10016</t>
+  </si>
+  <si>
+    <t>gold:10017</t>
+  </si>
+  <si>
+    <t>gold:10018</t>
+  </si>
+  <si>
+    <t>gold:10019</t>
+  </si>
+  <si>
+    <t>gold:10020</t>
+  </si>
+  <si>
+    <t>gold:10021</t>
+  </si>
+  <si>
+    <t>gold:10022</t>
+  </si>
+  <si>
+    <t>gold:10023</t>
+  </si>
+  <si>
+    <t>gold:10024</t>
+  </si>
+  <si>
+    <t>gold:10025</t>
+  </si>
+  <si>
+    <t>gold:10026</t>
+  </si>
+  <si>
+    <t>gold:10027</t>
+  </si>
+  <si>
+    <t>gold:10028</t>
+  </si>
+  <si>
+    <t>gold:10029</t>
+  </si>
+  <si>
+    <t>gold:10030</t>
+  </si>
+  <si>
+    <t>gold:10031</t>
+  </si>
+  <si>
+    <t>gold:10032</t>
+  </si>
+  <si>
+    <t>gold:10033</t>
+  </si>
+  <si>
+    <t>gold:10034</t>
+  </si>
+  <si>
+    <t>gold:10035</t>
+  </si>
+  <si>
+    <t>gold:10036</t>
+  </si>
+  <si>
+    <t>gold:10037</t>
+  </si>
+  <si>
+    <t>gold:10038</t>
+  </si>
+  <si>
+    <t>gold:10039</t>
+  </si>
+  <si>
+    <t>gold:10040</t>
+  </si>
+  <si>
+    <t>gold:10041</t>
+  </si>
+  <si>
+    <t>gold:10042</t>
+  </si>
+  <si>
+    <t>gold:10043</t>
+  </si>
+  <si>
+    <t>gold:10044</t>
+  </si>
+  <si>
+    <t>gold:10045</t>
+  </si>
+  <si>
+    <t>gold:10046</t>
+  </si>
+  <si>
+    <t>gold:10047</t>
+  </si>
+  <si>
+    <t>gold:10048</t>
+  </si>
+  <si>
+    <t>gold:10049</t>
+  </si>
+  <si>
+    <t>gold:10050</t>
+  </si>
+  <si>
+    <t>gold:10051</t>
+  </si>
+  <si>
+    <t>gold:10052</t>
+  </si>
+  <si>
+    <t>gold:10053</t>
+  </si>
+  <si>
+    <t>gold:10054</t>
+  </si>
+  <si>
+    <t>gold:10055</t>
+  </si>
+  <si>
+    <t>gold:10056</t>
+  </si>
+  <si>
+    <t>gold:10057</t>
+  </si>
+  <si>
+    <t>邓茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许攸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭汜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左慈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,7 +1494,7 @@
         <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O5" s="7">
         <v>50</v>
@@ -1084,7 +1544,7 @@
         <v>67</v>
       </c>
       <c r="N6" s="7">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="O6" s="7">
         <v>40</v>
@@ -1134,7 +1594,7 @@
         <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="O7" s="7">
         <v>80</v>
@@ -1154,7 +1614,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -1163,13 +1623,13 @@
         <v>55</v>
       </c>
       <c r="G8" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" s="7">
         <v>1.2</v>
       </c>
       <c r="I8" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>18</v>
@@ -1184,13 +1644,3263 @@
         <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="O8" s="7">
         <v>100</v>
       </c>
       <c r="P8" s="7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="O9" s="7">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1006</v>
+      </c>
+      <c r="O10" s="7">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1007</v>
+      </c>
+      <c r="O11" s="7">
+        <v>12</v>
+      </c>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>18</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1008</v>
+      </c>
+      <c r="O12" s="7">
+        <v>13</v>
+      </c>
+      <c r="P12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1009</v>
+      </c>
+      <c r="O13" s="7">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1010</v>
+      </c>
+      <c r="O14" s="7">
+        <v>15</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>19</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1011</v>
+      </c>
+      <c r="O15" s="7">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1012</v>
+      </c>
+      <c r="O16" s="7">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>14</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="O17" s="7">
+        <v>18</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1014</v>
+      </c>
+      <c r="O18" s="7">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1015</v>
+      </c>
+      <c r="O19" s="7">
+        <v>20</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>17</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="O20" s="7">
+        <v>21</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1017</v>
+      </c>
+      <c r="O21" s="7">
+        <v>22</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>14</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1018</v>
+      </c>
+      <c r="O22" s="7">
+        <v>23</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>14</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="O23" s="7">
+        <v>24</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>15</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1020</v>
+      </c>
+      <c r="O24" s="7">
+        <v>25</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="7">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1021</v>
+      </c>
+      <c r="O25" s="7">
+        <v>26</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>17</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1022</v>
+      </c>
+      <c r="O26" s="7">
+        <v>27</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>18</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1023</v>
+      </c>
+      <c r="O27" s="7">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="7">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>19</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1024</v>
+      </c>
+      <c r="O28" s="7">
+        <v>29</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>19</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1025</v>
+      </c>
+      <c r="O29" s="7">
+        <v>30</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1026</v>
+      </c>
+      <c r="O30" s="7">
+        <v>31</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>19</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1027</v>
+      </c>
+      <c r="O31" s="7">
+        <v>32</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>14</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1028</v>
+      </c>
+      <c r="O32" s="7">
+        <v>33</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>11</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1029</v>
+      </c>
+      <c r="O33" s="7">
+        <v>34</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1030</v>
+      </c>
+      <c r="O34" s="7">
+        <v>35</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="7">
+        <v>10</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1031</v>
+      </c>
+      <c r="O35" s="7">
+        <v>36</v>
+      </c>
+      <c r="P35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3</v>
+      </c>
+      <c r="I36" s="7">
+        <v>14</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1032</v>
+      </c>
+      <c r="O36" s="7">
+        <v>37</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="7">
+        <v>12</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="7">
+        <v>15</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1033</v>
+      </c>
+      <c r="O37" s="7">
+        <v>38</v>
+      </c>
+      <c r="P37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>35</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="7">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="7">
+        <v>16</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1034</v>
+      </c>
+      <c r="O38" s="7">
+        <v>39</v>
+      </c>
+      <c r="P38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>17</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1035</v>
+      </c>
+      <c r="O39" s="7">
+        <v>40</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>37</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="7">
+        <v>3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>18</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1036</v>
+      </c>
+      <c r="O40" s="7">
+        <v>41</v>
+      </c>
+      <c r="P40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>19</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1037</v>
+      </c>
+      <c r="O41" s="7">
+        <v>42</v>
+      </c>
+      <c r="P41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="7">
+        <v>3</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>19</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1038</v>
+      </c>
+      <c r="O42" s="7">
+        <v>43</v>
+      </c>
+      <c r="P42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="7">
+        <v>5</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I43" s="7">
+        <v>19</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1039</v>
+      </c>
+      <c r="O43" s="7">
+        <v>44</v>
+      </c>
+      <c r="P43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>4</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="7">
+        <v>10</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I44" s="7">
+        <v>19</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" s="7">
+        <v>1040</v>
+      </c>
+      <c r="O44" s="7">
+        <v>45</v>
+      </c>
+      <c r="P44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>42</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>14</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1041</v>
+      </c>
+      <c r="O45" s="7">
+        <v>46</v>
+      </c>
+      <c r="P45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>43</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="7">
+        <v>12</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I46" s="7">
+        <v>15</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1042</v>
+      </c>
+      <c r="O46" s="7">
+        <v>47</v>
+      </c>
+      <c r="P46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>44</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="7">
+        <v>16</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="7">
+        <v>16</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1043</v>
+      </c>
+      <c r="O47" s="7">
+        <v>48</v>
+      </c>
+      <c r="P47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>45</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
+      <c r="E48" s="7">
+        <v>4</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="7">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I48" s="7">
+        <v>17</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1044</v>
+      </c>
+      <c r="O48" s="7">
+        <v>49</v>
+      </c>
+      <c r="P48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>46</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="7">
+        <v>3</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>13</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1045</v>
+      </c>
+      <c r="O49" s="7">
+        <v>50</v>
+      </c>
+      <c r="P49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>47</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>4</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3</v>
+      </c>
+      <c r="I50" s="7">
+        <v>14</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1046</v>
+      </c>
+      <c r="O50" s="7">
+        <v>51</v>
+      </c>
+      <c r="P50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>48</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="7">
+        <v>3</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>14</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1047</v>
+      </c>
+      <c r="O51" s="7">
+        <v>52</v>
+      </c>
+      <c r="P51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>49</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="7">
+        <v>5</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7">
+        <v>15</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1048</v>
+      </c>
+      <c r="O52" s="7">
+        <v>53</v>
+      </c>
+      <c r="P52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>3</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="7">
+        <v>10</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>16</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1049</v>
+      </c>
+      <c r="O53" s="7">
+        <v>54</v>
+      </c>
+      <c r="P53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>51</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
+        <v>4</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="7">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I54" s="7">
+        <v>17</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1050</v>
+      </c>
+      <c r="O54" s="7">
+        <v>55</v>
+      </c>
+      <c r="P54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>5</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="7">
+        <v>12</v>
+      </c>
+      <c r="H55" s="7">
+        <v>2</v>
+      </c>
+      <c r="I55" s="7">
+        <v>19</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1051</v>
+      </c>
+      <c r="O55" s="7">
+        <v>56</v>
+      </c>
+      <c r="P55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <v>4</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="7">
+        <v>16</v>
+      </c>
+      <c r="H56" s="7">
+        <v>3</v>
+      </c>
+      <c r="I56" s="7">
+        <v>19</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1052</v>
+      </c>
+      <c r="O56" s="7">
+        <v>57</v>
+      </c>
+      <c r="P56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>54</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>19</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1053</v>
+      </c>
+      <c r="O57" s="7">
+        <v>58</v>
+      </c>
+      <c r="P57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>55</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="7">
+        <v>3</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2</v>
+      </c>
+      <c r="I58" s="7">
+        <v>14</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1054</v>
+      </c>
+      <c r="O58" s="7">
+        <v>59</v>
+      </c>
+      <c r="P58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>56</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="7">
+        <v>5</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I59" s="7">
+        <v>15</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N59" s="7">
+        <v>1055</v>
+      </c>
+      <c r="O59" s="7">
+        <v>60</v>
+      </c>
+      <c r="P59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
+        <v>57</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7">
+        <v>4</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="7">
+        <v>10</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>16</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1056</v>
+      </c>
+      <c r="O60" s="7">
+        <v>61</v>
+      </c>
+      <c r="P60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>58</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>5</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>17</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1057</v>
+      </c>
+      <c r="O61" s="7">
+        <v>62</v>
+      </c>
+      <c r="P61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
+        <v>59</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>4</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="7">
+        <v>12</v>
+      </c>
+      <c r="H62" s="7">
+        <v>3</v>
+      </c>
+      <c r="I62" s="7">
+        <v>18</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1058</v>
+      </c>
+      <c r="O62" s="7">
+        <v>63</v>
+      </c>
+      <c r="P62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
+        <v>60</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="7">
+        <v>16</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>19</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1059</v>
+      </c>
+      <c r="O63" s="7">
+        <v>64</v>
+      </c>
+      <c r="P63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
+        <v>61</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="7">
+        <v>5</v>
+      </c>
+      <c r="H64" s="7">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7">
+        <v>19</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1060</v>
+      </c>
+      <c r="O64" s="7">
+        <v>65</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>62</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7">
+        <v>3</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="7">
+        <v>10</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <v>19</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1061</v>
+      </c>
+      <c r="O65" s="7">
+        <v>66</v>
+      </c>
+      <c r="P65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
+        <v>63</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="7">
+        <v>3</v>
+      </c>
+      <c r="I66" s="7">
+        <v>19</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O66" s="7">
+        <v>67</v>
+      </c>
+      <c r="P66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>64</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="7">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="7">
+        <v>12</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>14</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O67" s="7">
+        <v>67</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>65</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
+        <v>3</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="7">
+        <v>16</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2</v>
+      </c>
+      <c r="I68" s="7">
+        <v>11</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N68" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O68" s="7">
+        <v>67</v>
+      </c>
+      <c r="P68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>66</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7">
+        <v>4</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
+        <v>12</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O69" s="7">
+        <v>67</v>
+      </c>
+      <c r="P69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>67</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="7">
+        <v>5</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="7">
+        <v>3</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I70" s="7">
+        <v>13</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N70" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O70" s="7">
+        <v>67</v>
+      </c>
+      <c r="P70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>68</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="7">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7">
+        <v>2</v>
+      </c>
+      <c r="I71" s="7">
+        <v>14</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N71" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O71" s="7">
+        <v>67</v>
+      </c>
+      <c r="P71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>69</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="7">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7">
+        <v>2</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="7">
+        <v>10</v>
+      </c>
+      <c r="H72" s="7">
+        <v>3</v>
+      </c>
+      <c r="I72" s="7">
+        <v>15</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N72" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O72" s="7">
+        <v>67</v>
+      </c>
+      <c r="P72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>70</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7">
+        <v>3</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="7">
+        <v>10</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>16</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1062</v>
+      </c>
+      <c r="O73" s="7">
+        <v>67</v>
+      </c>
+      <c r="P73" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +5569,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1972,4 +5682,79 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ECBBE6-478A-4176-95DD-5AD01387A96A}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93D3CE-8C47-4BDE-9D5C-69467F527603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDA042-9804-4369-81BC-EA4838F2DBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="HeroLevel" sheetId="2" r:id="rId2"/>
-    <sheet name="PowerHeroLevel" sheetId="3" r:id="rId3"/>
+    <sheet name="HeroStar" sheetId="3" r:id="rId3"/>
     <sheet name="HeroPool" sheetId="4" r:id="rId4"/>
+    <sheet name="FavorLevel" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="230">
   <si>
     <t>索引</t>
   </si>
@@ -57,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Career</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,46 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行军速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack:20,Defense:10,AtkSpeed:1,Burst:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性每级成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttributeGrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:1.2,Defense:0.5,AtkSpeed:0.05,Burst:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +95,6 @@
   </si>
   <si>
     <t>BloodMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,13 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职业
-1-骑兵
-2-弓兵
-3-步兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兵力上限1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -195,30 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001,15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15001,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,999999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,27 +149,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所需好感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedFavor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,6 +685,231 @@
   </si>
   <si>
     <t>左慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FavorRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401,999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-999999,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;誓不两立&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ffffff&gt;形同陌路&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#8D8D8D&gt;一见如故&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#907965&gt;腹心之友&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#96AEBA&gt;情同手足&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#F9DE79&gt;肝胆相照&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#EAC128&gt;八拜之交&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需好感度
+FaovrLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业评价,下标 骑兵、弓兵、步兵
+1-B
+2-A
+3-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始所属
+-1-我方
+0-在野
+&gt;0对应NPC城市ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FavorLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素克制系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseDemage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowDemage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动和普通攻击范围基数
+NxN格子
+根据等级系数相乘 四舍五入取整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1042,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,71 +1364,58 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="42.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="52" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="59.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="7" customWidth="1"/>
-    <col min="15" max="16" width="15" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="59.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="7" customWidth="1"/>
+    <col min="11" max="13" width="15" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
+        <v>197</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1311,49 +1423,40 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>2</v>
@@ -1373,3534 +1476,2895 @@
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7">
+      <c r="C6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1002</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="K7" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="7">
-        <v>60</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1001</v>
-      </c>
-      <c r="O5" s="7">
-        <v>50</v>
-      </c>
-      <c r="P5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1002</v>
-      </c>
-      <c r="O6" s="7">
-        <v>40</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1003</v>
-      </c>
-      <c r="O7" s="7">
-        <v>80</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
       </c>
       <c r="L8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1004</v>
-      </c>
-      <c r="O8" s="7">
-        <v>100</v>
-      </c>
-      <c r="P8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>15</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3</v>
       </c>
       <c r="L9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1005</v>
-      </c>
-      <c r="O9" s="7">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1006</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4</v>
       </c>
       <c r="L10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1006</v>
-      </c>
-      <c r="O10" s="7">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1007</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5</v>
       </c>
       <c r="L11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1007</v>
-      </c>
-      <c r="O11" s="7">
-        <v>12</v>
-      </c>
-      <c r="P11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1008</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
       </c>
       <c r="L12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1008</v>
-      </c>
-      <c r="O12" s="7">
-        <v>13</v>
-      </c>
-      <c r="P12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1009</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
       </c>
       <c r="L13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1009</v>
-      </c>
-      <c r="O13" s="7">
-        <v>14</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1010</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4</v>
       </c>
       <c r="L14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1010</v>
-      </c>
-      <c r="O14" s="7">
-        <v>15</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1011</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5</v>
       </c>
       <c r="L15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1011</v>
-      </c>
-      <c r="O15" s="7">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E16" s="7">
         <v>4</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1012</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
       </c>
       <c r="L16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1012</v>
-      </c>
-      <c r="O16" s="7">
-        <v>17</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
       </c>
       <c r="L17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="O17" s="7">
-        <v>18</v>
-      </c>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E18" s="7">
         <v>4</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1014</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4</v>
       </c>
       <c r="L18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1014</v>
-      </c>
-      <c r="O18" s="7">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E19" s="7">
         <v>4</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1015</v>
+      </c>
+      <c r="K19" s="7">
+        <v>5</v>
       </c>
       <c r="L19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1015</v>
-      </c>
-      <c r="O19" s="7">
-        <v>20</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7">
         <v>3</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>17</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
       </c>
       <c r="L20" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="O20" s="7">
-        <v>21</v>
-      </c>
-      <c r="P20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>13</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1017</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3</v>
       </c>
       <c r="L21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1017</v>
-      </c>
-      <c r="O21" s="7">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G22" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1018</v>
+      </c>
+      <c r="K22" s="7">
+        <v>4</v>
       </c>
       <c r="L22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1018</v>
-      </c>
-      <c r="O22" s="7">
-        <v>23</v>
-      </c>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E23" s="7">
         <v>4</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7">
         <v>6</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>14</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5</v>
       </c>
       <c r="L23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="O23" s="7">
-        <v>24</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E24" s="7">
         <v>5</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G24" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>15</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1020</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2</v>
       </c>
       <c r="L24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1020</v>
-      </c>
-      <c r="O24" s="7">
-        <v>25</v>
-      </c>
-      <c r="P24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E25" s="7">
         <v>4</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>16</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1021</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3</v>
       </c>
       <c r="L25" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1021</v>
-      </c>
-      <c r="O25" s="7">
-        <v>26</v>
-      </c>
-      <c r="P25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E26" s="7">
         <v>4</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G26" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1022</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4</v>
       </c>
       <c r="L26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1022</v>
-      </c>
-      <c r="O26" s="7">
-        <v>27</v>
-      </c>
-      <c r="P26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E27" s="7">
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>18</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1023</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5</v>
       </c>
       <c r="L27" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1023</v>
-      </c>
-      <c r="O27" s="7">
-        <v>28</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H28" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>19</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1024</v>
+      </c>
+      <c r="K28" s="7">
+        <v>2</v>
       </c>
       <c r="L28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1024</v>
-      </c>
-      <c r="O28" s="7">
-        <v>29</v>
-      </c>
-      <c r="P28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>19</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1025</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3</v>
       </c>
       <c r="L29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1025</v>
-      </c>
-      <c r="O29" s="7">
-        <v>30</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E30" s="7">
         <v>3</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G30" s="7">
         <v>4</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1026</v>
+      </c>
+      <c r="K30" s="7">
+        <v>4</v>
       </c>
       <c r="L30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1026</v>
-      </c>
-      <c r="O30" s="7">
-        <v>31</v>
-      </c>
-      <c r="P30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E31" s="7">
         <v>4</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>19</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1027</v>
+      </c>
+      <c r="K31" s="7">
+        <v>5</v>
       </c>
       <c r="L31" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1027</v>
-      </c>
-      <c r="O31" s="7">
-        <v>32</v>
-      </c>
-      <c r="P31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G32" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>14</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1028</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2</v>
       </c>
       <c r="L32" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1028</v>
-      </c>
-      <c r="O32" s="7">
-        <v>33</v>
-      </c>
-      <c r="P32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <v>11</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1029</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5</v>
       </c>
       <c r="L33" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1029</v>
-      </c>
-      <c r="O33" s="7">
-        <v>34</v>
-      </c>
-      <c r="P33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G34" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I34" s="7">
-        <v>12</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1030</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2</v>
       </c>
       <c r="L34" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1030</v>
-      </c>
-      <c r="O34" s="7">
-        <v>35</v>
-      </c>
-      <c r="P34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E35" s="7">
         <v>3</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G35" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7">
-        <v>13</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1031</v>
+      </c>
+      <c r="K35" s="7">
+        <v>3</v>
       </c>
       <c r="L35" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1031</v>
-      </c>
-      <c r="O35" s="7">
-        <v>36</v>
-      </c>
-      <c r="P35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E36" s="7">
         <v>4</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G36" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="7">
-        <v>3</v>
-      </c>
-      <c r="I36" s="7">
-        <v>14</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1032</v>
+      </c>
+      <c r="K36" s="7">
+        <v>4</v>
       </c>
       <c r="L36" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1032</v>
-      </c>
-      <c r="O36" s="7">
-        <v>37</v>
-      </c>
-      <c r="P36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E37" s="7">
         <v>5</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G37" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H37" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>15</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1033</v>
+      </c>
+      <c r="K37" s="7">
+        <v>5</v>
       </c>
       <c r="L37" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1033</v>
-      </c>
-      <c r="O37" s="7">
-        <v>38</v>
-      </c>
-      <c r="P37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E38" s="7">
         <v>4</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G38" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>16</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1034</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
       </c>
       <c r="L38" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1034</v>
-      </c>
-      <c r="O38" s="7">
-        <v>39</v>
-      </c>
-      <c r="P38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G39" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I39" s="7">
-        <v>17</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1035</v>
+      </c>
+      <c r="K39" s="7">
+        <v>3</v>
       </c>
       <c r="L39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="N39" s="7">
-        <v>1035</v>
-      </c>
-      <c r="O39" s="7">
-        <v>40</v>
-      </c>
-      <c r="P39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E40" s="7">
         <v>2</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G40" s="7">
         <v>3</v>
       </c>
       <c r="H40" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I40" s="7">
-        <v>18</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1036</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4</v>
       </c>
       <c r="L40" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="N40" s="7">
-        <v>1036</v>
-      </c>
-      <c r="O40" s="7">
-        <v>41</v>
-      </c>
-      <c r="P40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E41" s="7">
         <v>3</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G41" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I41" s="7">
-        <v>19</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1037</v>
+      </c>
+      <c r="K41" s="7">
+        <v>5</v>
       </c>
       <c r="L41" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1037</v>
-      </c>
-      <c r="O41" s="7">
-        <v>42</v>
-      </c>
-      <c r="P41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E42" s="7">
         <v>4</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I42" s="7">
-        <v>19</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1038</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2</v>
       </c>
       <c r="L42" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1038</v>
-      </c>
-      <c r="O42" s="7">
-        <v>43</v>
-      </c>
-      <c r="P42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E43" s="7">
         <v>5</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G43" s="7">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1039</v>
+      </c>
+      <c r="K43" s="7">
         <v>5</v>
       </c>
-      <c r="H43" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I43" s="7">
-        <v>19</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="L43" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="N43" s="7">
-        <v>1039</v>
-      </c>
-      <c r="O43" s="7">
-        <v>44</v>
-      </c>
-      <c r="P43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E44" s="7">
         <v>4</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G44" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H44" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I44" s="7">
-        <v>19</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1040</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2</v>
       </c>
       <c r="L44" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1040</v>
-      </c>
-      <c r="O44" s="7">
-        <v>45</v>
-      </c>
-      <c r="P44" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G45" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I45" s="7">
-        <v>14</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1041</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3</v>
       </c>
       <c r="L45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1041</v>
-      </c>
-      <c r="O45" s="7">
-        <v>46</v>
-      </c>
-      <c r="P45" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E46" s="7">
         <v>2</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G46" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I46" s="7">
-        <v>15</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1042</v>
+      </c>
+      <c r="K46" s="7">
+        <v>4</v>
       </c>
       <c r="L46" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1042</v>
-      </c>
-      <c r="O46" s="7">
-        <v>47</v>
-      </c>
-      <c r="P46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E47" s="7">
         <v>3</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G47" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H47" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I47" s="7">
-        <v>16</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1043</v>
+      </c>
+      <c r="K47" s="7">
+        <v>5</v>
       </c>
       <c r="L47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1043</v>
-      </c>
-      <c r="O47" s="7">
-        <v>48</v>
-      </c>
-      <c r="P47" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H48" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I48" s="7">
-        <v>17</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1044</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2</v>
       </c>
       <c r="L48" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1044</v>
-      </c>
-      <c r="O48" s="7">
-        <v>49</v>
-      </c>
-      <c r="P48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E49" s="7">
         <v>5</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G49" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H49" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I49" s="7">
-        <v>13</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1045</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3</v>
       </c>
       <c r="L49" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="N49" s="7">
-        <v>1045</v>
-      </c>
-      <c r="O49" s="7">
-        <v>50</v>
-      </c>
-      <c r="P49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E50" s="7">
         <v>4</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G50" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
-        <v>3</v>
-      </c>
-      <c r="I50" s="7">
-        <v>14</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1046</v>
+      </c>
+      <c r="K50" s="7">
+        <v>4</v>
       </c>
       <c r="L50" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="N50" s="7">
-        <v>1046</v>
-      </c>
-      <c r="O50" s="7">
-        <v>51</v>
-      </c>
-      <c r="P50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E51" s="7">
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="7">
-        <v>14</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1047</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5</v>
       </c>
       <c r="L51" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="N51" s="7">
-        <v>1047</v>
-      </c>
-      <c r="O51" s="7">
-        <v>52</v>
-      </c>
-      <c r="P51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E52" s="7">
         <v>2</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G52" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" s="7">
-        <v>2</v>
-      </c>
-      <c r="I52" s="7">
-        <v>15</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1048</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2</v>
       </c>
       <c r="L52" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M52" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="N52" s="7">
-        <v>1048</v>
-      </c>
-      <c r="O52" s="7">
-        <v>53</v>
-      </c>
-      <c r="P52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G53" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7">
-        <v>16</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1049</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5</v>
       </c>
       <c r="L53" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="N53" s="7">
-        <v>1049</v>
-      </c>
-      <c r="O53" s="7">
-        <v>54</v>
-      </c>
-      <c r="P53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E54" s="7">
         <v>4</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G54" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I54" s="7">
-        <v>17</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1050</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2</v>
       </c>
       <c r="L54" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1050</v>
-      </c>
-      <c r="O54" s="7">
-        <v>55</v>
-      </c>
-      <c r="P54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E55" s="7">
         <v>5</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G55" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H55" s="7">
-        <v>2</v>
-      </c>
-      <c r="I55" s="7">
-        <v>19</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1051</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3</v>
       </c>
       <c r="L55" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="N55" s="7">
-        <v>1051</v>
-      </c>
-      <c r="O55" s="7">
-        <v>56</v>
-      </c>
-      <c r="P55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E56" s="7">
         <v>4</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G56" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H56" s="7">
-        <v>3</v>
-      </c>
-      <c r="I56" s="7">
-        <v>19</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1052</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4</v>
       </c>
       <c r="L56" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1052</v>
-      </c>
-      <c r="O56" s="7">
-        <v>57</v>
-      </c>
-      <c r="P56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>19</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1053</v>
+      </c>
+      <c r="K57" s="7">
+        <v>5</v>
       </c>
       <c r="L57" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1053</v>
-      </c>
-      <c r="O57" s="7">
-        <v>58</v>
-      </c>
-      <c r="P57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E58" s="7">
         <v>2</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G58" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H58" s="7">
-        <v>2</v>
-      </c>
-      <c r="I58" s="7">
-        <v>14</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1054</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2</v>
       </c>
       <c r="L58" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M58" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N58" s="7">
-        <v>1054</v>
-      </c>
-      <c r="O58" s="7">
-        <v>59</v>
-      </c>
-      <c r="P58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E59" s="7">
         <v>3</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G59" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I59" s="7">
-        <v>15</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1055</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3</v>
       </c>
       <c r="L59" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N59" s="7">
-        <v>1055</v>
-      </c>
-      <c r="O59" s="7">
-        <v>60</v>
-      </c>
-      <c r="P59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>57</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E60" s="7">
         <v>4</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G60" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I60" s="7">
-        <v>16</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1056</v>
+      </c>
+      <c r="K60" s="7">
+        <v>4</v>
       </c>
       <c r="L60" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="N60" s="7">
-        <v>1056</v>
-      </c>
-      <c r="O60" s="7">
-        <v>61</v>
-      </c>
-      <c r="P60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E61" s="7">
         <v>5</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G61" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H61" s="7">
-        <v>2</v>
-      </c>
-      <c r="I61" s="7">
-        <v>17</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1057</v>
+      </c>
+      <c r="K61" s="7">
+        <v>5</v>
       </c>
       <c r="L61" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="N61" s="7">
-        <v>1057</v>
-      </c>
-      <c r="O61" s="7">
-        <v>62</v>
-      </c>
-      <c r="P61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>59</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E62" s="7">
         <v>4</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G62" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H62" s="7">
-        <v>3</v>
-      </c>
-      <c r="I62" s="7">
-        <v>18</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1058</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2</v>
       </c>
       <c r="L62" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M62" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="N62" s="7">
-        <v>1058</v>
-      </c>
-      <c r="O62" s="7">
-        <v>63</v>
-      </c>
-      <c r="P62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>60</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G63" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
-      </c>
-      <c r="I63" s="7">
-        <v>19</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" s="7">
+        <v>1059</v>
+      </c>
+      <c r="K63" s="7">
+        <v>5</v>
       </c>
       <c r="L63" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="N63" s="7">
-        <v>1059</v>
-      </c>
-      <c r="O63" s="7">
-        <v>64</v>
-      </c>
-      <c r="P63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>61</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E64" s="7">
         <v>2</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G64" s="7">
         <v>5</v>
       </c>
       <c r="H64" s="7">
-        <v>2</v>
-      </c>
-      <c r="I64" s="7">
-        <v>19</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1060</v>
+      </c>
+      <c r="K64" s="7">
+        <v>2</v>
       </c>
       <c r="L64" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M64" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="N64" s="7">
-        <v>1060</v>
-      </c>
-      <c r="O64" s="7">
-        <v>65</v>
-      </c>
-      <c r="P64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>62</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E65" s="7">
         <v>3</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G65" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H65" s="7">
-        <v>1</v>
-      </c>
-      <c r="I65" s="7">
-        <v>19</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1061</v>
+      </c>
+      <c r="K65" s="7">
+        <v>3</v>
       </c>
       <c r="L65" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="N65" s="7">
-        <v>1061</v>
-      </c>
-      <c r="O65" s="7">
-        <v>66</v>
-      </c>
-      <c r="P65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>63</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G66" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7">
-        <v>3</v>
-      </c>
-      <c r="I66" s="7">
-        <v>19</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K66" s="7">
+        <v>4</v>
       </c>
       <c r="L66" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M66" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N66" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O66" s="7">
-        <v>67</v>
-      </c>
-      <c r="P66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>64</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E67" s="7">
         <v>2</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G67" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
-        <v>1</v>
-      </c>
-      <c r="I67" s="7">
-        <v>14</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K67" s="7">
+        <v>5</v>
       </c>
       <c r="L67" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O67" s="7">
-        <v>67</v>
-      </c>
-      <c r="P67" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>65</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E68" s="7">
         <v>3</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G68" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H68" s="7">
-        <v>2</v>
-      </c>
-      <c r="I68" s="7">
-        <v>11</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2</v>
       </c>
       <c r="L68" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N68" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O68" s="7">
-        <v>67</v>
-      </c>
-      <c r="P68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="7">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E69" s="7">
         <v>4</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G69" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
-      </c>
-      <c r="I69" s="7">
-        <v>12</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3</v>
       </c>
       <c r="L69" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N69" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O69" s="7">
-        <v>67</v>
-      </c>
-      <c r="P69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <v>67</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E70" s="7">
         <v>5</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G70" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I70" s="7">
-        <v>13</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K70" s="7">
+        <v>4</v>
       </c>
       <c r="L70" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N70" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O70" s="7">
-        <v>67</v>
-      </c>
-      <c r="P70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <v>68</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="7">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G71" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H71" s="7">
-        <v>2</v>
-      </c>
-      <c r="I71" s="7">
-        <v>14</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5</v>
       </c>
       <c r="L71" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N71" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O71" s="7">
-        <v>67</v>
-      </c>
-      <c r="P71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>69</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E72" s="7">
         <v>2</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G72" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H72" s="7">
-        <v>3</v>
-      </c>
-      <c r="I72" s="7">
-        <v>15</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2</v>
       </c>
       <c r="L72" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N72" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O72" s="7">
-        <v>67</v>
-      </c>
-      <c r="P72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>70</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E73" s="7">
         <v>3</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G73" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H73" s="7">
-        <v>1</v>
-      </c>
-      <c r="I73" s="7">
-        <v>16</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>21</v>
+        <v>1000</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1062</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3</v>
       </c>
       <c r="L73" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N73" s="7">
-        <v>1062</v>
-      </c>
-      <c r="O73" s="7">
-        <v>67</v>
-      </c>
-      <c r="P73" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4912,42 +4376,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36262B2B-AF2C-47F3-A80A-85C23E3CA2D6}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="20.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="38.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -4957,8 +4427,11 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -4969,8 +4442,11 @@
       <c r="C4" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4981,8 +4457,11 @@
       <c r="C5" s="13">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D5" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -4993,8 +4472,11 @@
       <c r="C6" s="13">
         <v>1900</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5005,8 +4487,11 @@
       <c r="C7" s="13">
         <v>2400</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D7" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5017,8 +4502,11 @@
       <c r="C8" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5029,8 +4517,11 @@
       <c r="C9" s="13">
         <v>8500</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D9" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5041,8 +4532,11 @@
       <c r="C10" s="13">
         <v>11000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5053,8 +4547,11 @@
       <c r="C11" s="13">
         <v>12000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5065,8 +4562,11 @@
       <c r="C12" s="13">
         <v>14000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D12" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5077,8 +4577,11 @@
       <c r="C13" s="13">
         <v>17000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D13" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5089,8 +4592,11 @@
       <c r="C14" s="13">
         <v>20000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D14" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5101,8 +4607,11 @@
       <c r="C15" s="13">
         <v>24500</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D15" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5113,8 +4622,11 @@
       <c r="C16" s="13">
         <v>27500</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D16" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5125,8 +4637,11 @@
       <c r="C17" s="13">
         <v>30000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D17" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5137,8 +4652,11 @@
       <c r="C18" s="13">
         <v>31000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D18" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5149,8 +4667,11 @@
       <c r="C19" s="13">
         <v>31500</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D19" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5161,8 +4682,11 @@
       <c r="C20" s="13">
         <v>32000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D20" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5173,8 +4697,11 @@
       <c r="C21" s="13">
         <v>33000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D21" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5185,8 +4712,11 @@
       <c r="C22" s="13">
         <v>38350</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D22" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5197,8 +4727,11 @@
       <c r="C23" s="13">
         <v>43350</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5209,8 +4742,11 @@
       <c r="C24" s="13">
         <v>50000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -5221,8 +4757,11 @@
       <c r="C25" s="13">
         <v>64000</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -5233,8 +4772,11 @@
       <c r="C26" s="13">
         <v>75000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -5245,8 +4787,11 @@
       <c r="C27" s="13">
         <v>90000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -5257,8 +4802,11 @@
       <c r="C28" s="13">
         <v>99900</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -5269,8 +4817,11 @@
       <c r="C29" s="13">
         <v>110000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -5281,8 +4832,11 @@
       <c r="C30" s="13">
         <v>120000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -5293,8 +4847,11 @@
       <c r="C31" s="13">
         <v>140000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -5305,8 +4862,11 @@
       <c r="C32" s="13">
         <v>160000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -5317,8 +4877,11 @@
       <c r="C33" s="13">
         <v>190000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -5329,8 +4892,11 @@
       <c r="C34" s="13">
         <v>230000</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D34" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -5341,8 +4907,11 @@
       <c r="C35" s="13">
         <v>275000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>33</v>
       </c>
@@ -5353,8 +4922,11 @@
       <c r="C36" s="13">
         <v>310000</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D36" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>34</v>
       </c>
@@ -5365,8 +4937,11 @@
       <c r="C37" s="13">
         <v>350000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D37" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>35</v>
       </c>
@@ -5377,8 +4952,11 @@
       <c r="C38" s="13">
         <v>390000</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>36</v>
       </c>
@@ -5389,8 +4967,11 @@
       <c r="C39" s="13">
         <v>420000</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -5401,8 +4982,11 @@
       <c r="C40" s="13">
         <v>450000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D40" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -5413,8 +4997,11 @@
       <c r="C41" s="13">
         <v>540000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D41" s="13">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -5425,8 +5012,11 @@
       <c r="C42" s="13">
         <v>700000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D42" s="13">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -5437,8 +5027,11 @@
       <c r="C43" s="13">
         <v>900000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D43" s="13">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -5449,8 +5042,11 @@
       <c r="C44" s="13">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D44" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -5461,8 +5057,11 @@
       <c r="C45" s="13">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D45" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -5473,8 +5072,11 @@
       <c r="C46" s="13">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D46" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -5485,8 +5087,11 @@
       <c r="C47" s="13">
         <v>2250000</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D47" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -5497,8 +5102,11 @@
       <c r="C48" s="13">
         <v>2600000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D48" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -5509,8 +5117,11 @@
       <c r="C49" s="13">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D49" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -5521,8 +5132,11 @@
       <c r="C50" s="13">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D50" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -5533,8 +5147,11 @@
       <c r="C51" s="13">
         <v>4600000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D51" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -5545,8 +5162,11 @@
       <c r="C52" s="13">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D52" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>50</v>
       </c>
@@ -5556,6 +5176,9 @@
       </c>
       <c r="C53" s="13">
         <v>6500000</v>
+      </c>
+      <c r="D53" s="13">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -5566,116 +5189,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985A156-4714-42C9-B473-A622406C6C84}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="5" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5702,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5710,15 +5371,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5726,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5734,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5742,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5750,7 +5411,137 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3DFAE-A023-4019-BBDE-6EE80474E7AF}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="57.75" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDA042-9804-4369-81BC-EA4838F2DBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B77ED-49A1-45FF-B60F-7F12FB12A700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="4980" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="234">
   <si>
     <t>索引</t>
   </si>
@@ -781,13 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职业评价,下标 骑兵、弓兵、步兵
-1-B
-2-A
-3-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵力上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,6 +903,30 @@
     <t>移动和普通攻击范围基数
 NxN格子
 根据等级系数相乘 四舍五入取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业评价,下标 骑兵、弓兵、步兵
+1-C
+2-B
+3-A
+4-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalkAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>17</v>
@@ -1394,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
@@ -1412,7 +1429,7 @@
         <v>46</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1435,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>198</v>
@@ -1447,13 +1464,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1508,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1631,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
@@ -1795,7 +1812,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1918,7 +1935,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -2000,7 +2017,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="E16" s="7">
         <v>4</v>
@@ -2123,7 +2140,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="E19" s="7">
         <v>4</v>
@@ -2287,7 +2304,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="E23" s="7">
         <v>4</v>
@@ -2451,7 +2468,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="E27" s="7">
         <v>4</v>
@@ -2492,7 +2509,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -2574,7 +2591,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="E30" s="7">
         <v>3</v>
@@ -2615,7 +2632,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="E31" s="7">
         <v>4</v>
@@ -2779,7 +2796,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="E35" s="7">
         <v>3</v>
@@ -2902,7 +2919,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="E38" s="7">
         <v>4</v>
@@ -3025,7 +3042,7 @@
         <v>54</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="E41" s="7">
         <v>3</v>
@@ -3148,7 +3165,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="E44" s="7">
         <v>4</v>
@@ -3312,7 +3329,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
@@ -3476,7 +3493,7 @@
         <v>54</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E52" s="7">
         <v>2</v>
@@ -3845,7 +3862,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E61" s="7">
         <v>5</v>
@@ -4050,7 +4067,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -4255,7 +4272,7 @@
         <v>54</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -4397,10 +4414,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4414,7 +4431,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5205,19 +5222,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>210</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5225,16 +5242,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5259,16 +5276,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5276,16 +5293,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5293,16 +5310,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5310,16 +5327,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5327,16 +5344,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5422,19 +5439,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3DFAE-A023-4019-BBDE-6EE80474E7AF}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="57.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5444,8 +5462,11 @@
       <c r="C1" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5455,8 +5476,11 @@
       <c r="C2" s="15" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -5466,8 +5490,11 @@
       <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>-1</v>
       </c>
@@ -5477,8 +5504,11 @@
       <c r="C4" s="17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>0</v>
       </c>
@@ -5488,8 +5518,11 @@
       <c r="C5" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -5499,8 +5532,11 @@
       <c r="C6" s="17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -5510,8 +5546,11 @@
       <c r="C7" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -5521,8 +5560,11 @@
       <c r="C8" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -5532,8 +5574,11 @@
       <c r="C9" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -5542,6 +5587,9 @@
       </c>
       <c r="C10" s="17" t="s">
         <v>185</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B77ED-49A1-45FF-B60F-7F12FB12A700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A35B6-E117-4DAF-BEEB-5DD7D8E5EBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="4980" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5441,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3DFAE-A023-4019-BBDE-6EE80474E7AF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5505,7 +5505,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5519,7 +5519,7 @@
         <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5533,7 +5533,7 @@
         <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5547,7 +5547,7 @@
         <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5561,7 +5561,7 @@
         <v>183</v>
       </c>
       <c r="D8" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5575,7 +5575,7 @@
         <v>184</v>
       </c>
       <c r="D9" s="7">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5589,7 +5589,7 @@
         <v>185</v>
       </c>
       <c r="D10" s="7">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A35B6-E117-4DAF-BEEB-5DD7D8E5EBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A2CC0-4E40-4B67-8C0B-E5D9610C8C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="229">
   <si>
     <t>索引</t>
   </si>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LiuBei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,22 +178,6 @@
   </si>
   <si>
     <t>廖化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuanYu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvBu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZhouCang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiaoHua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,6 +903,10 @@
   </si>
   <si>
     <t>TalkAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akaliusi_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1353,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C4" sqref="C4:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1402,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>17</v>
@@ -1411,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
@@ -1423,13 +1403,13 @@
         <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1443,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -1452,10 +1432,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
@@ -1464,13 +1444,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1519,13 +1499,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1540,7 +1520,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7">
         <v>1000</v>
@@ -1560,13 +1540,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1581,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="7">
         <v>1001</v>
@@ -1601,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -1622,7 +1602,7 @@
         <v>1000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J6" s="7">
         <v>1002</v>
@@ -1642,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
@@ -1663,7 +1643,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J7" s="7">
         <v>1003</v>
@@ -1686,10 +1666,10 @@
         <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -1704,7 +1684,7 @@
         <v>1000</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J8" s="7">
         <v>1004</v>
@@ -1724,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1745,7 +1725,7 @@
         <v>1000</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J9" s="7">
         <v>1005</v>
@@ -1765,13 +1745,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -1786,7 +1766,7 @@
         <v>1000</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J10" s="7">
         <v>1006</v>
@@ -1806,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1827,7 +1807,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J11" s="7">
         <v>1007</v>
@@ -1847,13 +1827,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
@@ -1868,7 +1848,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J12" s="7">
         <v>1008</v>
@@ -1888,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -1909,7 +1889,7 @@
         <v>1000</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J13" s="7">
         <v>1009</v>
@@ -1929,13 +1909,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -1950,7 +1930,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J14" s="7">
         <v>1010</v>
@@ -1970,13 +1950,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
@@ -1991,7 +1971,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J15" s="7">
         <v>1011</v>
@@ -2011,13 +1991,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E16" s="7">
         <v>4</v>
@@ -2032,7 +2012,7 @@
         <v>1000</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J16" s="7">
         <v>1012</v>
@@ -2052,13 +2032,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
@@ -2073,7 +2053,7 @@
         <v>1000</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J17" s="7">
         <v>1013</v>
@@ -2093,13 +2073,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E18" s="7">
         <v>4</v>
@@ -2114,7 +2094,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J18" s="7">
         <v>1014</v>
@@ -2134,13 +2114,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E19" s="7">
         <v>4</v>
@@ -2155,7 +2135,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J19" s="7">
         <v>1015</v>
@@ -2175,13 +2155,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -2196,7 +2176,7 @@
         <v>1000</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J20" s="7">
         <v>1016</v>
@@ -2216,13 +2196,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -2237,7 +2217,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J21" s="7">
         <v>1017</v>
@@ -2257,13 +2237,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -2278,7 +2258,7 @@
         <v>1000</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J22" s="7">
         <v>1018</v>
@@ -2298,13 +2278,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E23" s="7">
         <v>4</v>
@@ -2319,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J23" s="7">
         <v>1019</v>
@@ -2339,13 +2319,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E24" s="7">
         <v>5</v>
@@ -2360,7 +2340,7 @@
         <v>1000</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J24" s="7">
         <v>1020</v>
@@ -2380,13 +2360,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E25" s="7">
         <v>4</v>
@@ -2401,7 +2381,7 @@
         <v>1000</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J25" s="7">
         <v>1021</v>
@@ -2421,13 +2401,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E26" s="7">
         <v>4</v>
@@ -2442,7 +2422,7 @@
         <v>1000</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J26" s="7">
         <v>1022</v>
@@ -2462,13 +2442,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E27" s="7">
         <v>4</v>
@@ -2483,7 +2463,7 @@
         <v>1000</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J27" s="7">
         <v>1023</v>
@@ -2503,13 +2483,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -2524,7 +2504,7 @@
         <v>1000</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J28" s="7">
         <v>1024</v>
@@ -2544,13 +2524,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -2565,7 +2545,7 @@
         <v>1000</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J29" s="7">
         <v>1025</v>
@@ -2585,13 +2565,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E30" s="7">
         <v>3</v>
@@ -2606,7 +2586,7 @@
         <v>1000</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J30" s="7">
         <v>1026</v>
@@ -2626,13 +2606,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E31" s="7">
         <v>4</v>
@@ -2647,7 +2627,7 @@
         <v>1000</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J31" s="7">
         <v>1027</v>
@@ -2667,13 +2647,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2688,7 +2668,7 @@
         <v>1000</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J32" s="7">
         <v>1028</v>
@@ -2708,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
@@ -2729,7 +2709,7 @@
         <v>1000</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J33" s="7">
         <v>1029</v>
@@ -2749,13 +2729,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
@@ -2770,7 +2750,7 @@
         <v>1000</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J34" s="7">
         <v>1030</v>
@@ -2790,13 +2770,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E35" s="7">
         <v>3</v>
@@ -2811,7 +2791,7 @@
         <v>1000</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J35" s="7">
         <v>1031</v>
@@ -2831,13 +2811,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E36" s="7">
         <v>4</v>
@@ -2852,7 +2832,7 @@
         <v>1000</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J36" s="7">
         <v>1032</v>
@@ -2872,13 +2852,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E37" s="7">
         <v>5</v>
@@ -2893,7 +2873,7 @@
         <v>1000</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J37" s="7">
         <v>1033</v>
@@ -2913,13 +2893,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E38" s="7">
         <v>4</v>
@@ -2934,7 +2914,7 @@
         <v>1000</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J38" s="7">
         <v>1034</v>
@@ -2954,13 +2934,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
@@ -2975,7 +2955,7 @@
         <v>1000</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J39" s="7">
         <v>1035</v>
@@ -2995,13 +2975,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E40" s="7">
         <v>2</v>
@@ -3016,7 +2996,7 @@
         <v>1000</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J40" s="7">
         <v>1036</v>
@@ -3036,13 +3016,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E41" s="7">
         <v>3</v>
@@ -3057,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J41" s="7">
         <v>1037</v>
@@ -3077,13 +3057,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E42" s="7">
         <v>4</v>
@@ -3098,7 +3078,7 @@
         <v>1000</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J42" s="7">
         <v>1038</v>
@@ -3118,13 +3098,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E43" s="7">
         <v>5</v>
@@ -3139,7 +3119,7 @@
         <v>1000</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J43" s="7">
         <v>1039</v>
@@ -3159,13 +3139,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E44" s="7">
         <v>4</v>
@@ -3180,7 +3160,7 @@
         <v>1000</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J44" s="7">
         <v>1040</v>
@@ -3200,13 +3180,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
@@ -3221,7 +3201,7 @@
         <v>1000</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J45" s="7">
         <v>1041</v>
@@ -3241,13 +3221,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E46" s="7">
         <v>2</v>
@@ -3262,7 +3242,7 @@
         <v>1000</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J46" s="7">
         <v>1042</v>
@@ -3282,13 +3262,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E47" s="7">
         <v>3</v>
@@ -3303,7 +3283,7 @@
         <v>1000</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J47" s="7">
         <v>1043</v>
@@ -3323,13 +3303,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
@@ -3344,7 +3324,7 @@
         <v>1000</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J48" s="7">
         <v>1044</v>
@@ -3364,13 +3344,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E49" s="7">
         <v>5</v>
@@ -3385,7 +3365,7 @@
         <v>1000</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J49" s="7">
         <v>1045</v>
@@ -3405,13 +3385,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E50" s="7">
         <v>4</v>
@@ -3426,7 +3406,7 @@
         <v>1000</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J50" s="7">
         <v>1046</v>
@@ -3446,13 +3426,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E51" s="7">
         <v>1</v>
@@ -3467,7 +3447,7 @@
         <v>1000</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J51" s="7">
         <v>1047</v>
@@ -3487,13 +3467,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E52" s="7">
         <v>2</v>
@@ -3508,7 +3488,7 @@
         <v>1000</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J52" s="7">
         <v>1048</v>
@@ -3528,13 +3508,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
@@ -3549,7 +3529,7 @@
         <v>1000</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J53" s="7">
         <v>1049</v>
@@ -3569,13 +3549,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E54" s="7">
         <v>4</v>
@@ -3590,7 +3570,7 @@
         <v>1000</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J54" s="7">
         <v>1050</v>
@@ -3610,13 +3590,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E55" s="7">
         <v>5</v>
@@ -3631,7 +3611,7 @@
         <v>1000</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J55" s="7">
         <v>1051</v>
@@ -3651,13 +3631,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E56" s="7">
         <v>4</v>
@@ -3672,7 +3652,7 @@
         <v>1000</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J56" s="7">
         <v>1052</v>
@@ -3692,13 +3672,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
@@ -3713,7 +3693,7 @@
         <v>1000</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J57" s="7">
         <v>1053</v>
@@ -3733,13 +3713,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E58" s="7">
         <v>2</v>
@@ -3754,7 +3734,7 @@
         <v>1000</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J58" s="7">
         <v>1054</v>
@@ -3774,13 +3754,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E59" s="7">
         <v>3</v>
@@ -3795,7 +3775,7 @@
         <v>1000</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J59" s="7">
         <v>1055</v>
@@ -3815,13 +3795,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E60" s="7">
         <v>4</v>
@@ -3836,7 +3816,7 @@
         <v>1000</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J60" s="7">
         <v>1056</v>
@@ -3856,13 +3836,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E61" s="7">
         <v>5</v>
@@ -3877,7 +3857,7 @@
         <v>1000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J61" s="7">
         <v>1057</v>
@@ -3897,13 +3877,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E62" s="7">
         <v>4</v>
@@ -3918,7 +3898,7 @@
         <v>1000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J62" s="7">
         <v>1058</v>
@@ -3938,13 +3918,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -3959,7 +3939,7 @@
         <v>1000</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J63" s="7">
         <v>1059</v>
@@ -3979,13 +3959,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E64" s="7">
         <v>2</v>
@@ -4000,7 +3980,7 @@
         <v>1000</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J64" s="7">
         <v>1060</v>
@@ -4020,13 +4000,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E65" s="7">
         <v>3</v>
@@ -4041,7 +4021,7 @@
         <v>1000</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J65" s="7">
         <v>1061</v>
@@ -4061,13 +4041,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -4082,7 +4062,7 @@
         <v>1000</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J66" s="7">
         <v>1062</v>
@@ -4102,13 +4082,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E67" s="7">
         <v>2</v>
@@ -4123,7 +4103,7 @@
         <v>1000</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J67" s="7">
         <v>1062</v>
@@ -4143,13 +4123,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E68" s="7">
         <v>3</v>
@@ -4164,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J68" s="7">
         <v>1062</v>
@@ -4184,13 +4164,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="E69" s="7">
         <v>4</v>
@@ -4205,7 +4185,7 @@
         <v>1000</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J69" s="7">
         <v>1062</v>
@@ -4225,13 +4205,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="E70" s="7">
         <v>5</v>
@@ -4246,7 +4226,7 @@
         <v>1000</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J70" s="7">
         <v>1062</v>
@@ -4266,13 +4246,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -4287,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J71" s="7">
         <v>1062</v>
@@ -4307,13 +4287,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E72" s="7">
         <v>2</v>
@@ -4328,7 +4308,7 @@
         <v>1000</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J72" s="7">
         <v>1062</v>
@@ -4348,13 +4328,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E73" s="7">
         <v>3</v>
@@ -4369,7 +4349,7 @@
         <v>1000</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J73" s="7">
         <v>1062</v>
@@ -4414,10 +4394,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4431,7 +4411,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5209,7 +5189,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5222,19 +5202,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5242,16 +5222,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5276,16 +5256,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5293,16 +5273,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5310,16 +5290,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5327,16 +5307,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5344,16 +5324,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5380,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5388,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5404,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5412,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5420,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5428,7 +5408,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5457,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -5474,10 +5454,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5499,10 +5479,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4" s="7">
         <v>20</v>
@@ -5513,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
         <v>30</v>
@@ -5527,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
         <v>40</v>
@@ -5541,10 +5521,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
         <v>50</v>
@@ -5555,10 +5535,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8" s="7">
         <v>60</v>
@@ -5569,10 +5549,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9" s="7">
         <v>70</v>
@@ -5583,10 +5563,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10" s="7">
         <v>80</v>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A2CC0-4E40-4B67-8C0B-E5D9610C8C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C9D7A-66A7-43EF-9EE9-0B90545C56C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="232">
   <si>
     <t>索引</t>
   </si>
@@ -909,12 +909,24 @@
     <t>akaliusi_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>移动攻击范围系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +955,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -985,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1066,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,15 +1387,15 @@
     <col min="3" max="3" width="21.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="26.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="59.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="7" customWidth="1"/>
-    <col min="11" max="13" width="15" style="7" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="59.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="7" customWidth="1"/>
+    <col min="12" max="14" width="15" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1390,29 +1414,32 @@
       <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1432,28 +1459,31 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1473,17 +1503,17 @@
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>2</v>
-      </c>
       <c r="K3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1493,8 +1523,11 @@
       <c r="M3" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1513,29 +1546,32 @@
       <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="7">
-        <v>1000</v>
-      </c>
       <c r="K4" s="7">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1554,29 +1590,32 @@
       <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="12">
         <v>2</v>
       </c>
       <c r="H5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>1001</v>
       </c>
-      <c r="K5" s="7">
-        <v>3</v>
-      </c>
       <c r="L5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1595,29 +1634,32 @@
       <c r="F6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="12">
         <v>3</v>
       </c>
       <c r="H6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>1002</v>
       </c>
-      <c r="K6" s="7">
-        <v>4</v>
-      </c>
       <c r="L6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1636,29 +1678,32 @@
       <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="12">
         <v>4</v>
       </c>
       <c r="H7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>1003</v>
       </c>
-      <c r="K7" s="7">
-        <v>5</v>
-      </c>
       <c r="L7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1677,29 +1722,32 @@
       <c r="F8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>5</v>
       </c>
       <c r="H8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>1004</v>
       </c>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
       <c r="L8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1718,29 +1766,32 @@
       <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="12">
         <v>6</v>
       </c>
       <c r="H9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>1005</v>
       </c>
-      <c r="K9" s="7">
-        <v>3</v>
-      </c>
       <c r="L9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1759,29 +1810,32 @@
       <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
+      <c r="G10" s="12">
+        <v>7</v>
       </c>
       <c r="H10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>1006</v>
       </c>
-      <c r="K10" s="7">
-        <v>4</v>
-      </c>
       <c r="L10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1800,29 +1854,32 @@
       <c r="F11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="12">
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>1007</v>
       </c>
-      <c r="K11" s="7">
-        <v>5</v>
-      </c>
       <c r="L11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1841,29 +1898,32 @@
       <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="12">
         <v>3</v>
       </c>
       <c r="H12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>1008</v>
       </c>
-      <c r="K12" s="7">
-        <v>2</v>
-      </c>
       <c r="L12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1882,29 +1942,32 @@
       <c r="F13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
+      <c r="G13" s="12">
+        <v>4</v>
       </c>
       <c r="H13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>1009</v>
       </c>
-      <c r="K13" s="7">
-        <v>3</v>
-      </c>
       <c r="L13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1923,29 +1986,32 @@
       <c r="F14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="7">
-        <v>2</v>
+      <c r="G14" s="12">
+        <v>5</v>
       </c>
       <c r="H14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>1010</v>
       </c>
-      <c r="K14" s="7">
-        <v>4</v>
-      </c>
       <c r="L14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1964,29 +2030,32 @@
       <c r="F15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="12">
         <v>3</v>
       </c>
       <c r="H15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>1011</v>
       </c>
-      <c r="K15" s="7">
-        <v>5</v>
-      </c>
       <c r="L15" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2005,29 +2074,32 @@
       <c r="F16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <v>4</v>
       </c>
       <c r="H16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>1012</v>
       </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
       <c r="L16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2046,29 +2118,32 @@
       <c r="F17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="12">
         <v>5</v>
       </c>
       <c r="H17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>1013</v>
       </c>
-      <c r="K17" s="7">
-        <v>3</v>
-      </c>
       <c r="L17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -2087,29 +2162,32 @@
       <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
+      <c r="G18" s="12">
+        <v>6</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>1014</v>
       </c>
-      <c r="K18" s="7">
-        <v>4</v>
-      </c>
       <c r="L18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -2128,29 +2206,32 @@
       <c r="F19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="7">
-        <v>2</v>
+      <c r="G19" s="12">
+        <v>7</v>
       </c>
       <c r="H19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>1015</v>
       </c>
-      <c r="K19" s="7">
-        <v>5</v>
-      </c>
       <c r="L19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -2169,29 +2250,32 @@
       <c r="F20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7">
-        <v>3</v>
+      <c r="G20" s="12">
+        <v>8</v>
       </c>
       <c r="H20" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>1016</v>
       </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
       <c r="L20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -2210,29 +2294,32 @@
       <c r="F21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="20">
         <v>4</v>
       </c>
       <c r="H21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>1017</v>
       </c>
-      <c r="K21" s="7">
-        <v>3</v>
-      </c>
       <c r="L21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -2251,29 +2338,32 @@
       <c r="F22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="20">
         <v>5</v>
       </c>
       <c r="H22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>1018</v>
       </c>
-      <c r="K22" s="7">
-        <v>4</v>
-      </c>
       <c r="L22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -2292,29 +2382,32 @@
       <c r="F23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="20">
         <v>6</v>
       </c>
       <c r="H23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>1019</v>
       </c>
-      <c r="K23" s="7">
-        <v>5</v>
-      </c>
       <c r="L23" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -2333,29 +2426,32 @@
       <c r="F24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="7">
-        <v>1</v>
+      <c r="G24" s="20">
+        <v>7</v>
       </c>
       <c r="H24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>1020</v>
       </c>
-      <c r="K24" s="7">
-        <v>2</v>
-      </c>
       <c r="L24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -2374,29 +2470,32 @@
       <c r="F25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="7">
-        <v>2</v>
+      <c r="G25" s="12">
+        <v>5</v>
       </c>
       <c r="H25" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>1021</v>
       </c>
-      <c r="K25" s="7">
-        <v>3</v>
-      </c>
       <c r="L25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -2415,29 +2514,32 @@
       <c r="F26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="7">
-        <v>3</v>
+      <c r="G26" s="12">
+        <v>6</v>
       </c>
       <c r="H26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>1022</v>
       </c>
-      <c r="K26" s="7">
-        <v>4</v>
-      </c>
       <c r="L26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -2456,29 +2558,32 @@
       <c r="F27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
+      <c r="G27" s="12">
+        <v>7</v>
       </c>
       <c r="H27" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>1023</v>
       </c>
-      <c r="K27" s="7">
-        <v>5</v>
-      </c>
       <c r="L27" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -2497,29 +2602,32 @@
       <c r="F28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="12">
         <v>2</v>
       </c>
       <c r="H28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>1024</v>
       </c>
-      <c r="K28" s="7">
-        <v>2</v>
-      </c>
       <c r="L28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -2538,29 +2646,32 @@
       <c r="F29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="12">
         <v>3</v>
       </c>
       <c r="H29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>1025</v>
       </c>
-      <c r="K29" s="7">
-        <v>3</v>
-      </c>
       <c r="L29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -2579,29 +2690,32 @@
       <c r="F30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="12">
         <v>4</v>
       </c>
       <c r="H30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>1026</v>
       </c>
-      <c r="K30" s="7">
-        <v>4</v>
-      </c>
       <c r="L30" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -2620,29 +2734,32 @@
       <c r="F31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="12">
         <v>5</v>
       </c>
       <c r="H31" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>1027</v>
       </c>
-      <c r="K31" s="7">
-        <v>5</v>
-      </c>
       <c r="L31" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -2661,29 +2778,32 @@
       <c r="F32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="12">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7">
         <v>6</v>
       </c>
-      <c r="H32" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>1028</v>
       </c>
-      <c r="K32" s="7">
-        <v>2</v>
-      </c>
       <c r="L32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -2702,29 +2822,32 @@
       <c r="F33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
+      <c r="G33" s="12">
+        <v>4</v>
       </c>
       <c r="H33" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>1029</v>
       </c>
-      <c r="K33" s="7">
-        <v>5</v>
-      </c>
       <c r="L33" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M33" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -2743,29 +2866,32 @@
       <c r="F34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="7">
-        <v>3</v>
+      <c r="G34" s="12">
+        <v>5</v>
       </c>
       <c r="H34" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>1030</v>
       </c>
-      <c r="K34" s="7">
-        <v>2</v>
-      </c>
       <c r="L34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -2784,29 +2910,32 @@
       <c r="F35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="7">
-        <v>4</v>
+      <c r="G35" s="12">
+        <v>6</v>
       </c>
       <c r="H35" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="7">
         <v>1031</v>
       </c>
-      <c r="K35" s="7">
-        <v>3</v>
-      </c>
       <c r="L35" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -2825,29 +2954,32 @@
       <c r="F36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="7">
-        <v>5</v>
+      <c r="G36" s="12">
+        <v>7</v>
       </c>
       <c r="H36" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="7">
+      <c r="K36" s="7">
         <v>1032</v>
       </c>
-      <c r="K36" s="7">
-        <v>4</v>
-      </c>
       <c r="L36" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -2866,29 +2998,32 @@
       <c r="F37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="12">
+        <v>8</v>
+      </c>
+      <c r="H37" s="7">
         <v>6</v>
       </c>
-      <c r="H37" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J37" s="7">
+      <c r="K37" s="7">
         <v>1033</v>
       </c>
-      <c r="K37" s="7">
-        <v>5</v>
-      </c>
       <c r="L37" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -2907,29 +3042,32 @@
       <c r="F38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="7">
-        <v>1</v>
+      <c r="G38" s="20">
+        <v>4</v>
       </c>
       <c r="H38" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J38" s="7">
+      <c r="K38" s="7">
         <v>1034</v>
       </c>
-      <c r="K38" s="7">
-        <v>2</v>
-      </c>
       <c r="L38" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -2948,29 +3086,32 @@
       <c r="F39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="7">
-        <v>2</v>
+      <c r="G39" s="20">
+        <v>5</v>
       </c>
       <c r="H39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="7">
+      <c r="K39" s="7">
         <v>1035</v>
       </c>
-      <c r="K39" s="7">
-        <v>3</v>
-      </c>
       <c r="L39" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -2989,29 +3130,32 @@
       <c r="F40" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="7">
-        <v>3</v>
+      <c r="G40" s="20">
+        <v>6</v>
       </c>
       <c r="H40" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>1036</v>
       </c>
-      <c r="K40" s="7">
-        <v>4</v>
-      </c>
       <c r="L40" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -3030,29 +3174,32 @@
       <c r="F41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="7">
-        <v>4</v>
+      <c r="G41" s="20">
+        <v>7</v>
       </c>
       <c r="H41" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>1037</v>
       </c>
-      <c r="K41" s="7">
-        <v>5</v>
-      </c>
       <c r="L41" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -3071,29 +3218,32 @@
       <c r="F42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="12">
         <v>5</v>
       </c>
       <c r="H42" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>1038</v>
       </c>
-      <c r="K42" s="7">
-        <v>2</v>
-      </c>
       <c r="L42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -3112,29 +3262,32 @@
       <c r="F43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="12">
         <v>6</v>
       </c>
       <c r="H43" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>1039</v>
       </c>
-      <c r="K43" s="7">
-        <v>5</v>
-      </c>
       <c r="L43" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M43" s="7">
+        <v>1</v>
+      </c>
+      <c r="N43" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -3153,29 +3306,32 @@
       <c r="F44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="7">
-        <v>1</v>
+      <c r="G44" s="12">
+        <v>7</v>
       </c>
       <c r="H44" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>1040</v>
       </c>
-      <c r="K44" s="7">
-        <v>2</v>
-      </c>
       <c r="L44" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -3194,29 +3350,32 @@
       <c r="F45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="12">
         <v>2</v>
       </c>
       <c r="H45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="7">
+      <c r="K45" s="7">
         <v>1041</v>
       </c>
-      <c r="K45" s="7">
-        <v>3</v>
-      </c>
       <c r="L45" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -3235,29 +3394,32 @@
       <c r="F46" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="12">
         <v>3</v>
       </c>
       <c r="H46" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="7">
+      <c r="K46" s="7">
         <v>1042</v>
       </c>
-      <c r="K46" s="7">
-        <v>4</v>
-      </c>
       <c r="L46" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -3276,29 +3438,32 @@
       <c r="F47" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="12">
         <v>4</v>
       </c>
       <c r="H47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>1043</v>
       </c>
-      <c r="K47" s="7">
-        <v>5</v>
-      </c>
       <c r="L47" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M47" s="7">
+        <v>1</v>
+      </c>
+      <c r="N47" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -3317,29 +3482,32 @@
       <c r="F48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="12">
         <v>5</v>
       </c>
       <c r="H48" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>1044</v>
       </c>
-      <c r="K48" s="7">
-        <v>2</v>
-      </c>
       <c r="L48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -3358,29 +3526,32 @@
       <c r="F49" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="12">
+        <v>3</v>
+      </c>
+      <c r="H49" s="7">
         <v>6</v>
       </c>
-      <c r="H49" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>1045</v>
       </c>
-      <c r="K49" s="7">
-        <v>3</v>
-      </c>
       <c r="L49" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49" s="7">
+        <v>1</v>
+      </c>
+      <c r="N49" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -3399,29 +3570,32 @@
       <c r="F50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="7">
-        <v>1</v>
+      <c r="G50" s="12">
+        <v>4</v>
       </c>
       <c r="H50" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>1046</v>
       </c>
-      <c r="K50" s="7">
-        <v>4</v>
-      </c>
       <c r="L50" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M50" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -3440,29 +3614,32 @@
       <c r="F51" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="7">
-        <v>1</v>
+      <c r="G51" s="12">
+        <v>5</v>
       </c>
       <c r="H51" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>1047</v>
       </c>
-      <c r="K51" s="7">
-        <v>5</v>
-      </c>
       <c r="L51" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -3481,29 +3658,32 @@
       <c r="F52" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="7">
-        <v>2</v>
+      <c r="G52" s="12">
+        <v>6</v>
       </c>
       <c r="H52" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>1048</v>
       </c>
-      <c r="K52" s="7">
-        <v>2</v>
-      </c>
       <c r="L52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -3522,29 +3702,32 @@
       <c r="F53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="7">
-        <v>1</v>
+      <c r="G53" s="12">
+        <v>7</v>
       </c>
       <c r="H53" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I53" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>1049</v>
       </c>
-      <c r="K53" s="7">
-        <v>5</v>
-      </c>
       <c r="L53" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -3563,29 +3746,32 @@
       <c r="F54" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="7">
-        <v>2</v>
+      <c r="G54" s="12">
+        <v>8</v>
       </c>
       <c r="H54" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="7">
+      <c r="K54" s="7">
         <v>1050</v>
       </c>
-      <c r="K54" s="7">
-        <v>2</v>
-      </c>
       <c r="L54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -3604,29 +3790,32 @@
       <c r="F55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="7">
-        <v>3</v>
+      <c r="G55" s="20">
+        <v>4</v>
       </c>
       <c r="H55" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>1051</v>
       </c>
-      <c r="K55" s="7">
-        <v>3</v>
-      </c>
       <c r="L55" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55" s="7">
+        <v>1</v>
+      </c>
+      <c r="N55" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -3645,29 +3834,32 @@
       <c r="F56" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="7">
-        <v>4</v>
+      <c r="G56" s="20">
+        <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J56" s="7">
+      <c r="K56" s="7">
         <v>1052</v>
       </c>
-      <c r="K56" s="7">
-        <v>4</v>
-      </c>
       <c r="L56" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M56" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N56" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -3686,29 +3878,32 @@
       <c r="F57" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="7">
-        <v>5</v>
+      <c r="G57" s="20">
+        <v>6</v>
       </c>
       <c r="H57" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I57" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K57" s="7">
         <v>1053</v>
       </c>
-      <c r="K57" s="7">
-        <v>5</v>
-      </c>
       <c r="L57" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M57" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -3727,29 +3922,32 @@
       <c r="F58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="20">
+        <v>7</v>
+      </c>
+      <c r="H58" s="7">
         <v>6</v>
       </c>
-      <c r="H58" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>1054</v>
       </c>
-      <c r="K58" s="7">
-        <v>2</v>
-      </c>
       <c r="L58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="7">
+        <v>1</v>
+      </c>
+      <c r="N58" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -3768,29 +3966,32 @@
       <c r="F59" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="7">
-        <v>1</v>
+      <c r="G59" s="12">
+        <v>5</v>
       </c>
       <c r="H59" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>1055</v>
       </c>
-      <c r="K59" s="7">
-        <v>3</v>
-      </c>
       <c r="L59" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59" s="7">
+        <v>1</v>
+      </c>
+      <c r="N59" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>57</v>
       </c>
@@ -3809,29 +4010,32 @@
       <c r="F60" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="7">
-        <v>1</v>
+      <c r="G60" s="12">
+        <v>6</v>
       </c>
       <c r="H60" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J60" s="7">
+      <c r="K60" s="7">
         <v>1056</v>
       </c>
-      <c r="K60" s="7">
-        <v>4</v>
-      </c>
       <c r="L60" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>58</v>
       </c>
@@ -3850,29 +4054,32 @@
       <c r="F61" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="7">
-        <v>2</v>
+      <c r="G61" s="12">
+        <v>7</v>
       </c>
       <c r="H61" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K61" s="7">
         <v>1057</v>
       </c>
-      <c r="K61" s="7">
-        <v>5</v>
-      </c>
       <c r="L61" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M61" s="7">
+        <v>1</v>
+      </c>
+      <c r="N61" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>59</v>
       </c>
@@ -3891,29 +4098,32 @@
       <c r="F62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="7">
-        <v>3</v>
+      <c r="G62" s="12">
+        <v>2</v>
       </c>
       <c r="H62" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>1058</v>
       </c>
-      <c r="K62" s="7">
-        <v>2</v>
-      </c>
       <c r="L62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N62" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>60</v>
       </c>
@@ -3932,29 +4142,32 @@
       <c r="F63" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="7">
-        <v>4</v>
+      <c r="G63" s="12">
+        <v>3</v>
       </c>
       <c r="H63" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J63" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>1059</v>
       </c>
-      <c r="K63" s="7">
-        <v>5</v>
-      </c>
       <c r="L63" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>61</v>
       </c>
@@ -3973,29 +4186,32 @@
       <c r="F64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="7">
-        <v>5</v>
+      <c r="G64" s="12">
+        <v>4</v>
       </c>
       <c r="H64" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J64" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>1060</v>
       </c>
-      <c r="K64" s="7">
-        <v>2</v>
-      </c>
       <c r="L64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" s="7">
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>62</v>
       </c>
@@ -4014,29 +4230,32 @@
       <c r="F65" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="12">
+        <v>5</v>
+      </c>
+      <c r="H65" s="7">
         <v>6</v>
       </c>
-      <c r="H65" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>1061</v>
       </c>
-      <c r="K65" s="7">
-        <v>3</v>
-      </c>
       <c r="L65" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>63</v>
       </c>
@@ -4055,29 +4274,32 @@
       <c r="F66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="7">
-        <v>1</v>
+      <c r="G66" s="12">
+        <v>3</v>
       </c>
       <c r="H66" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I66" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>1062</v>
       </c>
-      <c r="K66" s="7">
-        <v>4</v>
-      </c>
       <c r="L66" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>64</v>
       </c>
@@ -4096,29 +4318,32 @@
       <c r="F67" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="7">
-        <v>1</v>
+      <c r="G67" s="12">
+        <v>4</v>
       </c>
       <c r="H67" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I67" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>1062</v>
       </c>
-      <c r="K67" s="7">
-        <v>5</v>
-      </c>
       <c r="L67" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M67" s="7">
+        <v>1</v>
+      </c>
+      <c r="N67" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>65</v>
       </c>
@@ -4137,29 +4362,32 @@
       <c r="F68" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="7">
-        <v>2</v>
+      <c r="G68" s="12">
+        <v>5</v>
       </c>
       <c r="H68" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>1062</v>
       </c>
-      <c r="K68" s="7">
-        <v>2</v>
-      </c>
       <c r="L68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N68" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <v>66</v>
       </c>
@@ -4178,29 +4406,32 @@
       <c r="F69" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="7">
-        <v>3</v>
+      <c r="G69" s="12">
+        <v>6</v>
       </c>
       <c r="H69" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I69" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>1062</v>
       </c>
-      <c r="K69" s="7">
-        <v>3</v>
-      </c>
       <c r="L69" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <v>67</v>
       </c>
@@ -4219,29 +4450,32 @@
       <c r="F70" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G70" s="7">
-        <v>4</v>
+      <c r="G70" s="12">
+        <v>7</v>
       </c>
       <c r="H70" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>1062</v>
       </c>
-      <c r="K70" s="7">
-        <v>4</v>
-      </c>
       <c r="L70" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="N70" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <v>68</v>
       </c>
@@ -4260,29 +4494,32 @@
       <c r="F71" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="7">
-        <v>5</v>
+      <c r="G71" s="12">
+        <v>8</v>
       </c>
       <c r="H71" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>1062</v>
       </c>
-      <c r="K71" s="7">
-        <v>5</v>
-      </c>
       <c r="L71" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M71" s="7">
+        <v>1</v>
+      </c>
+      <c r="N71" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>69</v>
       </c>
@@ -4301,29 +4538,32 @@
       <c r="F72" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="20">
+        <v>4</v>
+      </c>
+      <c r="H72" s="7">
         <v>6</v>
       </c>
-      <c r="H72" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>1062</v>
       </c>
-      <c r="K72" s="7">
-        <v>2</v>
-      </c>
       <c r="L72" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>70</v>
       </c>
@@ -4342,27 +4582,36 @@
       <c r="F73" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="7">
-        <v>1</v>
+      <c r="G73" s="20">
+        <v>5</v>
       </c>
       <c r="H73" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I73" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>1062</v>
       </c>
-      <c r="K73" s="7">
-        <v>3</v>
-      </c>
       <c r="L73" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" s="7">
+        <v>1</v>
+      </c>
+      <c r="N73" s="7">
         <v>-1</v>
       </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G75" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4397,7 +4646,7 @@
         <v>193</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5181,6 +5430,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5189,7 +5439,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C9D7A-66A7-43EF-9EE9-0B90545C56C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7AEC7-3FDC-4A91-B8C0-68FA7C1F8BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4609,9 +4609,6 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G75" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61578E-0B76-4529-879C-C9C96B46A542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE8141-7351-47D2-A331-AABD197AF995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="372">
   <si>
     <t>索引</t>
   </si>
@@ -166,14 +166,6 @@
   </si>
   <si>
     <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>貂蝉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,22 +261,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乐进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鲁迅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周瑜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙尚香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大乔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太史慈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马岱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,126 +317,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐庶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾诩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袁术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李儒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘凤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛辅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔡瑁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄祖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:10005</t>
   </si>
   <si>
@@ -634,34 +486,6 @@
   </si>
   <si>
     <t>gold:10057</t>
-  </si>
-  <si>
-    <t>邓茂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许攸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭汜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左慈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CareerRates</t>
@@ -919,6 +743,742 @@
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bailongma_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baiqi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bajie_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianque_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bubingduizhang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caiwenji_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caocao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caomao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cenhun_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengjisihan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengyaojin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daji_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daqiao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diaochan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direnjie_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fububanzang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ganjiangmoye_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaojianli_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongbenwuzang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongbingduizhang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanyu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiguzi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guojia_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hailun_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanxiandi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanxin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huamulan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanghao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangzhong_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huiyeji_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangwei_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingke_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiutuntongzi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kongrong_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanlingwang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianpo_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaohua_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libai_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licha_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lingtong_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liubang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liubei_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liushan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyuanfang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lusu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luxun_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv2gongnv_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv3gongnv_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4gongnv_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv5gongnv_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv6gongnv_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeboluo_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidusha_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meilin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miheng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miyue_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moushiduizhang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mozi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nezha_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niumowang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panduola_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panfeng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qibingduizhang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qixieduizhang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salading_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanzang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shangshanqianxin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaseng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengnvzhende_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simayi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunbin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunwukong_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiangou_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangzhaojun_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weijier_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiyan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weizheng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wutianxinxuan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuzetian_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangyu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoqiao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuhuang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangxiu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaojicunzheng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yase_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yingzheng_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yisabeier_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanshu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuejin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuji_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujin_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuzaoqian_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangfei_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghe_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangliao_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoyun_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenji_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhitianxinchang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongkui_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongwuyan_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoutai_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouyu_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangzi_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhugeliang_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿喀琉斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁鹊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程咬金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妲己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服部半藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干将莫邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高渐离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫本武藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼谷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花木兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆轲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰陵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉颇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李元芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马可波罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祢衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芈月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谋士队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪吒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器械队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨拉丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐三藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上杉谦信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣女贞德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙膑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昭君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维吉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武田信玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武则天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖姬村正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬴政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊萨贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉藻前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织田信长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟馗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟无艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,6 +1528,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1371,13 +1932,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1390,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>17</v>
@@ -1399,10 +1963,10 @@
         <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -1414,13 +1978,13 @@
         <v>26</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1434,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -1443,13 +2007,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -1458,13 +2022,13 @@
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1516,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1540,7 +2104,7 @@
         <v>1000</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" s="4">
         <v>1000</v>
@@ -1560,13 +2124,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -1584,7 +2148,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4">
         <v>1001</v>
@@ -1604,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
@@ -1628,7 +2192,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="4">
         <v>1002</v>
@@ -1648,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -1672,7 +2236,7 @@
         <v>1000</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4">
         <v>1003</v>
@@ -1692,13 +2256,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4">
         <v>5</v>
@@ -1716,7 +2280,7 @@
         <v>1000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" s="4">
         <v>1004</v>
@@ -1736,13 +2300,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1760,7 +2324,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9" s="4">
         <v>1005</v>
@@ -1780,13 +2344,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -1804,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="4">
         <v>1006</v>
@@ -1824,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -1848,7 +2412,7 @@
         <v>1000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K11" s="4">
         <v>1007</v>
@@ -1868,13 +2432,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E12" s="4">
         <v>5</v>
@@ -1892,7 +2456,7 @@
         <v>1000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12" s="4">
         <v>1008</v>
@@ -1912,13 +2476,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1936,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13" s="4">
         <v>1009</v>
@@ -1956,13 +2520,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -1980,7 +2544,7 @@
         <v>1000</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K14" s="4">
         <v>1010</v>
@@ -2000,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
@@ -2024,7 +2588,7 @@
         <v>1000</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="K15" s="4">
         <v>1011</v>
@@ -2044,13 +2608,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
@@ -2068,7 +2632,7 @@
         <v>1000</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="K16" s="4">
         <v>1012</v>
@@ -2088,13 +2652,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
@@ -2112,7 +2676,7 @@
         <v>1000</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K17" s="4">
         <v>1013</v>
@@ -2132,13 +2696,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
@@ -2156,7 +2720,7 @@
         <v>1000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="K18" s="4">
         <v>1014</v>
@@ -2176,13 +2740,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -2200,7 +2764,7 @@
         <v>1000</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="K19" s="4">
         <v>1015</v>
@@ -2220,13 +2784,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2244,7 +2808,7 @@
         <v>1000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="K20" s="4">
         <v>1016</v>
@@ -2264,13 +2828,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -2288,7 +2852,7 @@
         <v>1000</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K21" s="4">
         <v>1017</v>
@@ -2308,13 +2872,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -2332,7 +2896,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="K22" s="4">
         <v>1018</v>
@@ -2352,13 +2916,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -2376,7 +2940,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K23" s="4">
         <v>1019</v>
@@ -2396,13 +2960,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E24" s="4">
         <v>5</v>
@@ -2420,7 +2984,7 @@
         <v>1000</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="K24" s="4">
         <v>1020</v>
@@ -2440,13 +3004,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4">
         <v>4</v>
@@ -2464,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K25" s="4">
         <v>1021</v>
@@ -2484,13 +3048,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E26" s="4">
         <v>4</v>
@@ -2508,7 +3072,7 @@
         <v>1000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="K26" s="4">
         <v>1022</v>
@@ -2528,13 +3092,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -2552,7 +3116,7 @@
         <v>1000</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="K27" s="4">
         <v>1023</v>
@@ -2572,13 +3136,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2596,7 +3160,7 @@
         <v>1000</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K28" s="4">
         <v>1024</v>
@@ -2616,13 +3180,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -2640,7 +3204,7 @@
         <v>1000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K29" s="4">
         <v>1025</v>
@@ -2660,13 +3224,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -2684,7 +3248,7 @@
         <v>1000</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="K30" s="4">
         <v>1026</v>
@@ -2704,13 +3268,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E31" s="4">
         <v>4</v>
@@ -2728,7 +3292,7 @@
         <v>1000</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="K31" s="4">
         <v>1027</v>
@@ -2748,13 +3312,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E32" s="4">
         <v>5</v>
@@ -2772,7 +3336,7 @@
         <v>1000</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="K32" s="4">
         <v>1028</v>
@@ -2792,13 +3356,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2816,7 +3380,7 @@
         <v>1000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="K33" s="4">
         <v>1029</v>
@@ -2836,13 +3400,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -2860,7 +3424,7 @@
         <v>1000</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="K34" s="4">
         <v>1030</v>
@@ -2880,13 +3444,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
@@ -2904,7 +3468,7 @@
         <v>1000</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="K35" s="4">
         <v>1031</v>
@@ -2924,13 +3488,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E36" s="4">
         <v>4</v>
@@ -2948,7 +3512,7 @@
         <v>1000</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="K36" s="4">
         <v>1032</v>
@@ -2968,13 +3532,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E37" s="4">
         <v>5</v>
@@ -2992,7 +3556,7 @@
         <v>1000</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="K37" s="4">
         <v>1033</v>
@@ -3012,13 +3576,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -3036,7 +3600,7 @@
         <v>1000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K38" s="4">
         <v>1034</v>
@@ -3056,13 +3620,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3080,7 +3644,7 @@
         <v>1000</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K39" s="4">
         <v>1035</v>
@@ -3100,13 +3664,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -3124,7 +3688,7 @@
         <v>1000</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="K40" s="4">
         <v>1036</v>
@@ -3144,13 +3708,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -3168,7 +3732,7 @@
         <v>1000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="K41" s="4">
         <v>1037</v>
@@ -3188,13 +3752,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E42" s="4">
         <v>4</v>
@@ -3212,7 +3776,7 @@
         <v>1000</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="K42" s="4">
         <v>1038</v>
@@ -3232,13 +3796,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E43" s="4">
         <v>5</v>
@@ -3256,7 +3820,7 @@
         <v>1000</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="K43" s="4">
         <v>1039</v>
@@ -3276,13 +3840,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>324</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E44" s="4">
         <v>4</v>
@@ -3300,7 +3864,7 @@
         <v>1000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K44" s="4">
         <v>1040</v>
@@ -3320,13 +3884,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3344,7 +3908,7 @@
         <v>1000</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="K45" s="4">
         <v>1041</v>
@@ -3364,13 +3928,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -3388,7 +3952,7 @@
         <v>1000</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="K46" s="4">
         <v>1042</v>
@@ -3408,13 +3972,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E47" s="4">
         <v>3</v>
@@ -3432,7 +3996,7 @@
         <v>1000</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="K47" s="4">
         <v>1043</v>
@@ -3452,13 +4016,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E48" s="4">
         <v>4</v>
@@ -3476,7 +4040,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="K48" s="4">
         <v>1044</v>
@@ -3496,13 +4060,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E49" s="4">
         <v>5</v>
@@ -3520,7 +4084,7 @@
         <v>1000</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="K49" s="4">
         <v>1045</v>
@@ -3540,13 +4104,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E50" s="4">
         <v>4</v>
@@ -3564,7 +4128,7 @@
         <v>1000</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="K50" s="4">
         <v>1046</v>
@@ -3584,13 +4148,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -3608,7 +4172,7 @@
         <v>1000</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="K51" s="4">
         <v>1047</v>
@@ -3628,13 +4192,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -3652,7 +4216,7 @@
         <v>1000</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="K52" s="4">
         <v>1048</v>
@@ -3672,13 +4236,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E53" s="4">
         <v>3</v>
@@ -3696,7 +4260,7 @@
         <v>1000</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="K53" s="4">
         <v>1049</v>
@@ -3716,13 +4280,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E54" s="4">
         <v>4</v>
@@ -3740,7 +4304,7 @@
         <v>1000</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="K54" s="4">
         <v>1050</v>
@@ -3760,13 +4324,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E55" s="4">
         <v>5</v>
@@ -3784,7 +4348,7 @@
         <v>1000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="K55" s="4">
         <v>1051</v>
@@ -3804,13 +4368,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>100</v>
+        <v>334</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E56" s="4">
         <v>4</v>
@@ -3828,7 +4392,7 @@
         <v>1000</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="K56" s="4">
         <v>1052</v>
@@ -3848,13 +4412,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -3872,7 +4436,7 @@
         <v>1000</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K57" s="4">
         <v>1053</v>
@@ -3892,13 +4456,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
@@ -3916,7 +4480,7 @@
         <v>1000</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="K58" s="4">
         <v>1054</v>
@@ -3936,13 +4500,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E59" s="4">
         <v>3</v>
@@ -3960,7 +4524,7 @@
         <v>1000</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="K59" s="4">
         <v>1055</v>
@@ -3980,13 +4544,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>103</v>
+        <v>338</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E60" s="4">
         <v>4</v>
@@ -4004,7 +4568,7 @@
         <v>1000</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="K60" s="4">
         <v>1056</v>
@@ -4024,13 +4588,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
@@ -4048,7 +4612,7 @@
         <v>1000</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="K61" s="4">
         <v>1057</v>
@@ -4068,13 +4632,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
@@ -4092,7 +4656,7 @@
         <v>1000</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="K62" s="4">
         <v>1058</v>
@@ -4112,13 +4676,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -4136,7 +4700,7 @@
         <v>1000</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="K63" s="4">
         <v>1059</v>
@@ -4156,13 +4720,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -4180,7 +4744,7 @@
         <v>1000</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="K64" s="4">
         <v>1060</v>
@@ -4200,13 +4764,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E65" s="4">
         <v>3</v>
@@ -4224,7 +4788,7 @@
         <v>1000</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="K65" s="4">
         <v>1061</v>
@@ -4244,13 +4808,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -4268,7 +4832,7 @@
         <v>1000</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K66" s="4">
         <v>1062</v>
@@ -4288,13 +4852,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E67" s="4">
         <v>2</v>
@@ -4312,7 +4876,7 @@
         <v>1000</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K67" s="4">
         <v>1062</v>
@@ -4332,13 +4896,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E68" s="4">
         <v>3</v>
@@ -4356,7 +4920,7 @@
         <v>1000</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K68" s="4">
         <v>1062</v>
@@ -4376,13 +4940,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E69" s="4">
         <v>4</v>
@@ -4400,7 +4964,7 @@
         <v>1000</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K69" s="4">
         <v>1062</v>
@@ -4420,13 +4984,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E70" s="4">
         <v>5</v>
@@ -4444,7 +5008,7 @@
         <v>1000</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K70" s="4">
         <v>1062</v>
@@ -4464,13 +5028,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -4488,7 +5052,7 @@
         <v>1000</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K71" s="4">
         <v>1062</v>
@@ -4508,13 +5072,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>168</v>
+        <v>349</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
@@ -4532,7 +5096,7 @@
         <v>1000</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K72" s="4">
         <v>1062</v>
@@ -4552,13 +5116,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
@@ -4576,7 +5140,7 @@
         <v>1000</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="K73" s="4">
         <v>1062</v>
@@ -4589,6 +5153,1546 @@
       </c>
       <c r="N73" s="4">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="9">
+        <v>71</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="9">
+        <v>7</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1049</v>
+      </c>
+      <c r="L74" s="4">
+        <v>5</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="9">
+        <v>72</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="9">
+        <v>8</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1050</v>
+      </c>
+      <c r="L75" s="4">
+        <v>2</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="9">
+        <v>73</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="4">
+        <v>5</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="17">
+        <v>4</v>
+      </c>
+      <c r="H76" s="4">
+        <v>3</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1051</v>
+      </c>
+      <c r="L76" s="4">
+        <v>3</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="9">
+        <v>74</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="4">
+        <v>4</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="17">
+        <v>5</v>
+      </c>
+      <c r="H77" s="4">
+        <v>4</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1052</v>
+      </c>
+      <c r="L77" s="4">
+        <v>4</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="9">
+        <v>75</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="17">
+        <v>6</v>
+      </c>
+      <c r="H78" s="4">
+        <v>5</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L78" s="4">
+        <v>5</v>
+      </c>
+      <c r="M78" s="4">
+        <v>1</v>
+      </c>
+      <c r="N78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A79" s="9">
+        <v>76</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="17">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4">
+        <v>6</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1054</v>
+      </c>
+      <c r="L79" s="4">
+        <v>2</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A80" s="9">
+        <v>77</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="9">
+        <v>5</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1055</v>
+      </c>
+      <c r="L80" s="4">
+        <v>3</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A81" s="9">
+        <v>78</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="4">
+        <v>4</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="9">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1056</v>
+      </c>
+      <c r="L81" s="4">
+        <v>4</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A82" s="9">
+        <v>79</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="4">
+        <v>4</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="9">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4">
+        <v>3</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1058</v>
+      </c>
+      <c r="L82" s="4">
+        <v>2</v>
+      </c>
+      <c r="M82" s="4">
+        <v>1</v>
+      </c>
+      <c r="N82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A83" s="9">
+        <v>80</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="9">
+        <v>3</v>
+      </c>
+      <c r="H83" s="4">
+        <v>4</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1059</v>
+      </c>
+      <c r="L83" s="4">
+        <v>5</v>
+      </c>
+      <c r="M83" s="4">
+        <v>1</v>
+      </c>
+      <c r="N83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A84" s="9">
+        <v>81</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="9">
+        <v>4</v>
+      </c>
+      <c r="H84" s="4">
+        <v>5</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1060</v>
+      </c>
+      <c r="L84" s="4">
+        <v>2</v>
+      </c>
+      <c r="M84" s="4">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A85" s="9">
+        <v>82</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="9">
+        <v>5</v>
+      </c>
+      <c r="H85" s="4">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1061</v>
+      </c>
+      <c r="L85" s="4">
+        <v>3</v>
+      </c>
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A86" s="9">
+        <v>83</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="9">
+        <v>3</v>
+      </c>
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L86" s="4">
+        <v>4</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A87" s="9">
+        <v>84</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="9">
+        <v>4</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L87" s="4">
+        <v>5</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A88" s="9">
+        <v>85</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="9">
+        <v>5</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L88" s="4">
+        <v>2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A89" s="9">
+        <v>86</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="9">
+        <v>6</v>
+      </c>
+      <c r="H89" s="4">
+        <v>3</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L89" s="4">
+        <v>3</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1</v>
+      </c>
+      <c r="N89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A90" s="9">
+        <v>87</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="9">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4">
+        <v>4</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L90" s="4">
+        <v>4</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>88</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="9">
+        <v>8</v>
+      </c>
+      <c r="H91" s="4">
+        <v>5</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L91" s="4">
+        <v>5</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A92" s="9">
+        <v>89</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="17">
+        <v>4</v>
+      </c>
+      <c r="H92" s="4">
+        <v>6</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L92" s="4">
+        <v>2</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A93" s="9">
+        <v>90</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="17">
+        <v>5</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L93" s="4">
+        <v>3</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A94" s="9">
+        <v>91</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="9">
+        <v>7</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1049</v>
+      </c>
+      <c r="L94" s="4">
+        <v>5</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A95" s="9">
+        <v>92</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="4">
+        <v>4</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="9">
+        <v>8</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1050</v>
+      </c>
+      <c r="L95" s="4">
+        <v>2</v>
+      </c>
+      <c r="M95" s="4">
+        <v>1</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A96" s="9">
+        <v>93</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="17">
+        <v>4</v>
+      </c>
+      <c r="H96" s="4">
+        <v>3</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1051</v>
+      </c>
+      <c r="L96" s="4">
+        <v>3</v>
+      </c>
+      <c r="M96" s="4">
+        <v>1</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A97" s="9">
+        <v>94</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="4">
+        <v>4</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="17">
+        <v>5</v>
+      </c>
+      <c r="H97" s="4">
+        <v>4</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1052</v>
+      </c>
+      <c r="L97" s="4">
+        <v>4</v>
+      </c>
+      <c r="M97" s="4">
+        <v>1</v>
+      </c>
+      <c r="N97" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A98" s="9">
+        <v>95</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="17">
+        <v>6</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L98" s="4">
+        <v>5</v>
+      </c>
+      <c r="M98" s="4">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A99" s="9">
+        <v>96</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="17">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4">
+        <v>6</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1054</v>
+      </c>
+      <c r="L99" s="4">
+        <v>2</v>
+      </c>
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A100" s="9">
+        <v>97</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="9">
+        <v>5</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1055</v>
+      </c>
+      <c r="L100" s="4">
+        <v>3</v>
+      </c>
+      <c r="M100" s="4">
+        <v>1</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A101" s="9">
+        <v>98</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="9">
+        <v>6</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1056</v>
+      </c>
+      <c r="L101" s="4">
+        <v>4</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
+      <c r="N101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A102" s="9">
+        <v>99</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" s="4">
+        <v>5</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" s="9">
+        <v>7</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1057</v>
+      </c>
+      <c r="L102" s="4">
+        <v>5</v>
+      </c>
+      <c r="M102" s="4">
+        <v>1</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A103" s="9">
+        <v>100</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="9">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4">
+        <v>3</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1058</v>
+      </c>
+      <c r="L103" s="4">
+        <v>2</v>
+      </c>
+      <c r="M103" s="4">
+        <v>1</v>
+      </c>
+      <c r="N103" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A104" s="9">
+        <v>101</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="9">
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>4</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1059</v>
+      </c>
+      <c r="L104" s="4">
+        <v>5</v>
+      </c>
+      <c r="M104" s="4">
+        <v>1</v>
+      </c>
+      <c r="N104" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A105" s="9">
+        <v>102</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="9">
+        <v>4</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1060</v>
+      </c>
+      <c r="L105" s="4">
+        <v>2</v>
+      </c>
+      <c r="M105" s="4">
+        <v>1</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A106" s="9">
+        <v>103</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="9">
+        <v>5</v>
+      </c>
+      <c r="H106" s="4">
+        <v>6</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1061</v>
+      </c>
+      <c r="L106" s="4">
+        <v>3</v>
+      </c>
+      <c r="M106" s="4">
+        <v>1</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A107" s="9">
+        <v>104</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="9">
+        <v>3</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L107" s="4">
+        <v>4</v>
+      </c>
+      <c r="M107" s="4">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A108" s="9">
+        <v>105</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="9">
+        <v>4</v>
+      </c>
+      <c r="H108" s="4">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L108" s="4">
+        <v>5</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4621,10 +6725,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4638,7 +6742,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5430,19 +7534,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5450,16 +7554,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5484,16 +7588,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5501,16 +7605,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5518,16 +7622,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5535,16 +7639,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5552,16 +7656,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5588,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5596,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5612,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5620,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5628,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5636,7 +7740,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5665,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -5682,10 +7786,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5707,10 +7811,10 @@
         <v>-1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
@@ -5721,10 +7825,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4">
         <v>30</v>
@@ -5735,10 +7839,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4">
         <v>40</v>
@@ -5749,10 +7853,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
@@ -5763,10 +7867,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4">
         <v>60</v>
@@ -5777,10 +7881,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4">
         <v>70</v>
@@ -5791,10 +7895,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D10" s="4">
         <v>80</v>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE8141-7351-47D2-A331-AABD197AF995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B7B47-C99B-4084-B3C1-B1E036A8888C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -1934,13 +1934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="108" x14ac:dyDescent="0.15">
@@ -2292,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2380,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -2424,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2512,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -2644,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -2732,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2776,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2908,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2996,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -3040,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -3260,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -3348,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -3392,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -3524,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -3612,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -3656,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -3788,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -3876,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -3920,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -4052,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -4140,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -4184,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -4316,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -4404,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -4448,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -4580,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -4668,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -4712,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -4844,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -4932,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -4976,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -5108,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -5152,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="N73" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -5240,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -5328,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="N77" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -5372,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="N78" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -5504,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -5548,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="N82" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -5592,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -5724,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="N86" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -5812,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="N88" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -5856,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="N89" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -5988,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="N92" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -6032,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="N93" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -6120,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="N95" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -6208,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="N97" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -6252,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="N98" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -6384,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="N101" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
@@ -6472,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
@@ -6516,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
@@ -6648,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="N107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
@@ -6692,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="N108" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B7B47-C99B-4084-B3C1-B1E036A8888C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF44EF1-6ED2-4E92-B589-C74B4FC9832C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,13 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始所属
--1-我方
-0-在野
-&gt;0对应NPC城市ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FavorLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1479,6 +1472,13 @@
   </si>
   <si>
     <t>庄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始所属
+0-我方
+-1-在野
+&gt;0对应NPC城市ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q111" sqref="Q111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,7 +1956,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>17</v>
@@ -1965,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>150</v>
@@ -1986,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -2009,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>151</v>
@@ -2024,7 +2024,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>28</v>
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2126,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>128</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -2170,10 +2170,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>129</v>
@@ -2206,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2214,13 +2214,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2258,10 +2258,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>128</v>
@@ -2294,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2302,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>129</v>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -2346,10 +2346,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>128</v>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -2393,10 +2393,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2437,7 +2437,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>128</v>
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -2478,10 +2478,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>129</v>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -2522,13 +2522,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -2566,10 +2566,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>128</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -2610,13 +2610,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -2657,7 +2657,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>129</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2701,7 +2701,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>128</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2742,13 +2742,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2786,10 +2786,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>127</v>
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -2830,10 +2830,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>128</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2874,10 +2874,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>128</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2918,13 +2918,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -2962,10 +2962,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -3009,7 +3009,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>129</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -3050,10 +3050,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>127</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -3094,13 +3094,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -3138,13 +3138,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -3182,10 +3182,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>129</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -3226,13 +3226,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -3270,13 +3270,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="4">
         <v>4</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>127</v>
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -3361,7 +3361,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>128</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -3402,10 +3402,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>129</v>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -3449,10 +3449,10 @@
         <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -3490,10 +3490,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>128</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -3534,10 +3534,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>128</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -3578,13 +3578,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -3622,10 +3622,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>128</v>
@@ -3658,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -3666,10 +3666,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>129</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -3713,10 +3713,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -3754,10 +3754,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>128</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -3798,10 +3798,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>128</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -3842,13 +3842,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E44" s="4">
         <v>4</v>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -3886,10 +3886,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>128</v>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -3933,7 +3933,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>129</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -3974,10 +3974,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>127</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -4018,13 +4018,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" s="4">
         <v>4</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -4065,7 +4065,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>128</v>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -4106,10 +4106,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>129</v>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -4150,10 +4150,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>127</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -4194,13 +4194,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -4238,10 +4238,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>128</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -4282,10 +4282,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>129</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -4326,10 +4326,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>128</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -4370,10 +4370,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>129</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -4414,10 +4414,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>127</v>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -4458,10 +4458,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>128</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -4502,10 +4502,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>128</v>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -4546,10 +4546,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>129</v>
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -4590,13 +4590,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -4634,10 +4634,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>129</v>
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -4678,10 +4678,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>127</v>
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -4722,10 +4722,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>128</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -4766,10 +4766,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>128</v>
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -4813,10 +4813,10 @@
         <v>71</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -4854,10 +4854,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>128</v>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -4898,10 +4898,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>129</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -4942,10 +4942,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>127</v>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -4986,10 +4986,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>128</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -5030,13 +5030,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="N71" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -5074,10 +5074,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>129</v>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -5118,10 +5118,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>127</v>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="N73" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -5165,7 +5165,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>128</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="N74" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -5206,10 +5206,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>129</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="N75" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -5250,10 +5250,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>128</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="N76" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
@@ -5294,10 +5294,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>129</v>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="N77" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -5338,10 +5338,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>127</v>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="N78" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -5382,10 +5382,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>128</v>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="N79" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -5429,7 +5429,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>128</v>
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="N80" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
@@ -5470,10 +5470,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>129</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -5514,10 +5514,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>129</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="N82" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -5558,10 +5558,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>127</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -5602,10 +5602,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>128</v>
@@ -5638,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
@@ -5649,7 +5649,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>128</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="N85" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -5693,10 +5693,10 @@
         <v>65</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="N86" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -5737,7 +5737,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>128</v>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="N87" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
@@ -5778,10 +5778,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>129</v>
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="N88" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -5822,10 +5822,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>127</v>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="N89" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -5866,10 +5866,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>128</v>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="N90" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -5910,13 +5910,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -5957,7 +5957,7 @@
         <v>70</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>129</v>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="N92" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -6001,7 +6001,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>127</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="N93" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -6042,10 +6042,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>128</v>
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="N94" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -6086,10 +6086,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>129</v>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="N95" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -6130,10 +6130,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>128</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="N96" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -6177,7 +6177,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>129</v>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="N97" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -6221,7 +6221,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>127</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="N98" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -6265,7 +6265,7 @@
         <v>50</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>128</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="N99" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
@@ -6309,7 +6309,7 @@
         <v>55</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>128</v>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="N100" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
@@ -6350,10 +6350,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>129</v>
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="N101" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
@@ -6394,13 +6394,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E102" s="4">
         <v>5</v>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="N102" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
@@ -6438,10 +6438,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>129</v>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
@@ -6482,10 +6482,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>127</v>
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
@@ -6529,7 +6529,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>128</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="N105" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
@@ -6573,7 +6573,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>128</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="N106" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -6614,13 +6614,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E107" s="4">
         <v>1</v>
@@ -6650,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="N107" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
@@ -6661,7 +6661,7 @@
         <v>48</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>128</v>
@@ -6694,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="N108" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6730,7 @@
         <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6744,7 +6744,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -7536,19 +7536,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -7556,16 +7556,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -7590,16 +7590,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -7607,16 +7607,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -7624,16 +7624,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -7641,16 +7641,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -7658,16 +7658,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7791,7 +7791,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7674D1-6E46-4722-885D-8064D7D5A0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B45367-33C8-4A8E-A618-CEF14D2861BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="4770" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="700">
   <si>
     <t>索引</t>
   </si>
@@ -641,26 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseDemage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2562,6 +2542,50 @@
   </si>
   <si>
     <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:100,Defense:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:120,Defense:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:160,Defense:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:210,Defense:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:260,Defense:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:2,Defense:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:3,Defense:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:5,Defense:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:8,Defense:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:10,Defense:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,7 +2686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2725,6 +2749,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3033,13 +3060,14 @@
   <dimension ref="A1:Q213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="10" max="10" width="34.125" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="13" max="14" width="12.375" customWidth="1"/>
@@ -3059,7 +3087,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>17</v>
@@ -3068,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>150</v>
@@ -3089,16 +3117,16 @@
         <v>39</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -3121,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>151</v>
@@ -3142,16 +3170,16 @@
         <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3195,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>2</v>
@@ -3212,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3254,7 +3282,7 @@
         <v>-1</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="4">
         <v>20</v>
@@ -3265,10 +3293,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>128</v>
@@ -3307,7 +3335,7 @@
         <v>-1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="4">
         <v>21</v>
@@ -3318,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>129</v>
@@ -3360,7 +3388,7 @@
         <v>-1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="4">
         <v>22</v>
@@ -3371,13 +3399,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -3413,7 +3441,7 @@
         <v>-1</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="4">
         <v>23</v>
@@ -3424,10 +3452,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>128</v>
@@ -3466,7 +3494,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="4">
         <v>24</v>
@@ -3477,10 +3505,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>129</v>
@@ -3519,7 +3547,7 @@
         <v>-1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="4">
         <v>25</v>
@@ -3530,10 +3558,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>128</v>
@@ -3572,7 +3600,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="4">
         <v>26</v>
@@ -3586,10 +3614,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -3625,7 +3653,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="4">
         <v>27</v>
@@ -3639,7 +3667,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>128</v>
@@ -3678,7 +3706,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="4">
         <v>28</v>
@@ -3689,10 +3717,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>129</v>
@@ -3731,7 +3759,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="4">
         <v>29</v>
@@ -3742,13 +3770,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -3784,7 +3812,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="4">
         <v>30</v>
@@ -3795,10 +3823,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>128</v>
@@ -3837,7 +3865,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q15" s="4">
         <v>31</v>
@@ -3848,13 +3876,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
@@ -3890,7 +3918,7 @@
         <v>-1</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="4">
         <v>32</v>
@@ -3904,7 +3932,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>129</v>
@@ -3943,7 +3971,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="4">
         <v>33</v>
@@ -3957,7 +3985,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>128</v>
@@ -3996,7 +4024,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="4">
         <v>34</v>
@@ -4007,13 +4035,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -4049,7 +4077,7 @@
         <v>-1</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="4">
         <v>35</v>
@@ -4060,10 +4088,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>127</v>
@@ -4102,7 +4130,7 @@
         <v>-1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="4">
         <v>36</v>
@@ -4113,10 +4141,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>128</v>
@@ -4155,7 +4183,7 @@
         <v>-1</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q21" s="4">
         <v>37</v>
@@ -4166,10 +4194,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>128</v>
@@ -4208,7 +4236,7 @@
         <v>-1</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="4">
         <v>38</v>
@@ -4219,13 +4247,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -4261,7 +4289,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="4">
         <v>39</v>
@@ -4272,10 +4300,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
@@ -4314,7 +4342,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q24" s="4">
         <v>40</v>
@@ -4328,7 +4356,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>129</v>
@@ -4367,7 +4395,7 @@
         <v>-1</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="4">
         <v>41</v>
@@ -4378,10 +4406,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>127</v>
@@ -4420,7 +4448,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="4">
         <v>42</v>
@@ -4431,13 +4459,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -4473,7 +4501,7 @@
         <v>-1</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q27" s="4">
         <v>43</v>
@@ -4484,13 +4512,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -4526,7 +4554,7 @@
         <v>-1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q28" s="4">
         <v>44</v>
@@ -4537,10 +4565,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>129</v>
@@ -4579,7 +4607,7 @@
         <v>-1</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="4">
         <v>45</v>
@@ -4590,13 +4618,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -4632,7 +4660,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="4">
         <v>46</v>
@@ -4643,13 +4671,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E31" s="4">
         <v>4</v>
@@ -4685,7 +4713,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q31" s="4">
         <v>47</v>
@@ -4696,10 +4724,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>127</v>
@@ -4738,7 +4766,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q32" s="4">
         <v>48</v>
@@ -4752,7 +4780,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>128</v>
@@ -4791,7 +4819,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="4">
         <v>49</v>
@@ -4802,10 +4830,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>129</v>
@@ -4844,7 +4872,7 @@
         <v>-1</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q34" s="4">
         <v>50</v>
@@ -4858,10 +4886,10 @@
         <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
@@ -4897,7 +4925,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q35" s="4">
         <v>51</v>
@@ -4908,10 +4936,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>128</v>
@@ -4950,7 +4978,7 @@
         <v>-1</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="4">
         <v>52</v>
@@ -4961,10 +4989,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>128</v>
@@ -5003,7 +5031,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q37" s="4">
         <v>53</v>
@@ -5014,13 +5042,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -5056,7 +5084,7 @@
         <v>-1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q38" s="4">
         <v>54</v>
@@ -5067,10 +5095,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>128</v>
@@ -5109,7 +5137,7 @@
         <v>-1</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q39" s="4">
         <v>55</v>
@@ -5120,10 +5148,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>129</v>
@@ -5162,7 +5190,7 @@
         <v>-1</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q40" s="4">
         <v>56</v>
@@ -5176,10 +5204,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -5215,7 +5243,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q41" s="4">
         <v>57</v>
@@ -5226,10 +5254,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>128</v>
@@ -5268,7 +5296,7 @@
         <v>-1</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q42" s="4">
         <v>58</v>
@@ -5279,10 +5307,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>128</v>
@@ -5321,7 +5349,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q43" s="4">
         <v>59</v>
@@ -5332,13 +5360,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E44" s="4">
         <v>4</v>
@@ -5374,7 +5402,7 @@
         <v>-1</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q44" s="4">
         <v>60</v>
@@ -5385,10 +5413,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>128</v>
@@ -5427,7 +5455,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q45" s="4">
         <v>61</v>
@@ -5441,7 +5469,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>129</v>
@@ -5480,7 +5508,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q46" s="4">
         <v>62</v>
@@ -5491,10 +5519,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>127</v>
@@ -5533,7 +5561,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q47" s="4">
         <v>63</v>
@@ -5544,13 +5572,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E48" s="4">
         <v>4</v>
@@ -5586,7 +5614,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q48" s="4">
         <v>64</v>
@@ -5600,7 +5628,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>128</v>
@@ -5639,7 +5667,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q49" s="4">
         <v>65</v>
@@ -5650,10 +5678,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>129</v>
@@ -5692,7 +5720,7 @@
         <v>-1</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q50" s="4">
         <v>22</v>
@@ -5703,10 +5731,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>127</v>
@@ -5745,7 +5773,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q51" s="4">
         <v>23</v>
@@ -5756,13 +5784,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -5798,7 +5826,7 @@
         <v>-1</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q52" s="4">
         <v>24</v>
@@ -5809,10 +5837,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>128</v>
@@ -5851,7 +5879,7 @@
         <v>-1</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q53" s="4">
         <v>25</v>
@@ -5862,10 +5890,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>129</v>
@@ -5904,7 +5932,7 @@
         <v>-1</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q54" s="4">
         <v>26</v>
@@ -5915,10 +5943,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>128</v>
@@ -5957,7 +5985,7 @@
         <v>-1</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q55" s="4">
         <v>27</v>
@@ -5968,10 +5996,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>129</v>
@@ -6010,7 +6038,7 @@
         <v>-1</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q56" s="4">
         <v>28</v>
@@ -6021,10 +6049,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>127</v>
@@ -6063,7 +6091,7 @@
         <v>-1</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q57" s="4">
         <v>29</v>
@@ -6074,10 +6102,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>128</v>
@@ -6116,7 +6144,7 @@
         <v>-1</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q58" s="4">
         <v>30</v>
@@ -6127,10 +6155,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>128</v>
@@ -6169,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q59" s="4">
         <v>31</v>
@@ -6180,10 +6208,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>129</v>
@@ -6222,7 +6250,7 @@
         <v>-1</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q60" s="4">
         <v>32</v>
@@ -6233,13 +6261,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
@@ -6275,7 +6303,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q61" s="4">
         <v>33</v>
@@ -6286,10 +6314,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>129</v>
@@ -6328,7 +6356,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q62" s="4">
         <v>78</v>
@@ -6339,10 +6367,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>127</v>
@@ -6381,7 +6409,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q63" s="4">
         <v>79</v>
@@ -6392,10 +6420,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>128</v>
@@ -6434,7 +6462,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q64" s="4">
         <v>80</v>
@@ -6445,10 +6473,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>128</v>
@@ -6487,7 +6515,7 @@
         <v>-1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q65" s="4">
         <v>81</v>
@@ -6501,10 +6529,10 @@
         <v>71</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -6540,7 +6568,7 @@
         <v>-1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q66" s="4">
         <v>82</v>
@@ -6551,10 +6579,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>128</v>
@@ -6593,7 +6621,7 @@
         <v>-1</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q67" s="4">
         <v>83</v>
@@ -6604,10 +6632,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>129</v>
@@ -6646,7 +6674,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q68" s="4">
         <v>84</v>
@@ -6657,10 +6685,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>127</v>
@@ -6699,7 +6727,7 @@
         <v>-1</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q69" s="4">
         <v>85</v>
@@ -6710,10 +6738,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>128</v>
@@ -6752,7 +6780,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q70" s="4">
         <v>86</v>
@@ -6763,13 +6791,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -6805,7 +6833,7 @@
         <v>-1</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="Q71" s="4">
         <v>87</v>
@@ -6816,10 +6844,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>129</v>
@@ -6858,7 +6886,7 @@
         <v>-1</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q72" s="4">
         <v>22</v>
@@ -6869,10 +6897,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>127</v>
@@ -6911,7 +6939,7 @@
         <v>-1</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q73" s="4">
         <v>23</v>
@@ -6925,7 +6953,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>128</v>
@@ -6964,7 +6992,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q74" s="4">
         <v>24</v>
@@ -6975,10 +7003,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>129</v>
@@ -7017,7 +7045,7 @@
         <v>-1</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q75" s="4">
         <v>25</v>
@@ -7028,10 +7056,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>128</v>
@@ -7070,7 +7098,7 @@
         <v>-1</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q76" s="4">
         <v>26</v>
@@ -7081,10 +7109,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>129</v>
@@ -7123,7 +7151,7 @@
         <v>-1</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q77" s="4">
         <v>27</v>
@@ -7134,10 +7162,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>127</v>
@@ -7176,7 +7204,7 @@
         <v>-1</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q78" s="4">
         <v>28</v>
@@ -7187,10 +7215,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>128</v>
@@ -7229,7 +7257,7 @@
         <v>-1</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q79" s="4">
         <v>29</v>
@@ -7243,7 +7271,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>128</v>
@@ -7282,7 +7310,7 @@
         <v>-1</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q80" s="4">
         <v>30</v>
@@ -7293,10 +7321,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>129</v>
@@ -7335,7 +7363,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q81" s="4">
         <v>31</v>
@@ -7346,10 +7374,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>129</v>
@@ -7388,7 +7416,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q82" s="4">
         <v>32</v>
@@ -7399,10 +7427,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>127</v>
@@ -7441,7 +7469,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q83" s="4">
         <v>33</v>
@@ -7452,10 +7480,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>128</v>
@@ -7494,7 +7522,7 @@
         <v>-1</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q84" s="4">
         <v>100</v>
@@ -7508,7 +7536,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>128</v>
@@ -7547,7 +7575,7 @@
         <v>-1</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q85" s="4">
         <v>22</v>
@@ -7561,10 +7589,10 @@
         <v>65</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -7600,7 +7628,7 @@
         <v>-1</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q86" s="4">
         <v>23</v>
@@ -7614,7 +7642,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>128</v>
@@ -7653,7 +7681,7 @@
         <v>-1</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q87" s="4">
         <v>24</v>
@@ -7664,10 +7692,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>129</v>
@@ -7706,7 +7734,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q88" s="4">
         <v>25</v>
@@ -7717,10 +7745,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>127</v>
@@ -7759,7 +7787,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q89" s="4">
         <v>26</v>
@@ -7770,10 +7798,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>128</v>
@@ -7812,7 +7840,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Q90" s="4">
         <v>27</v>
@@ -7823,13 +7851,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -7865,7 +7893,7 @@
         <v>-1</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q91" s="4">
         <v>28</v>
@@ -7879,7 +7907,7 @@
         <v>70</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>129</v>
@@ -7918,7 +7946,7 @@
         <v>-1</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q92" s="4">
         <v>29</v>
@@ -7932,7 +7960,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>127</v>
@@ -7971,7 +7999,7 @@
         <v>-1</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q93" s="4">
         <v>56</v>
@@ -7982,10 +8010,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>128</v>
@@ -8024,7 +8052,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q94" s="4">
         <v>57</v>
@@ -8035,10 +8063,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>129</v>
@@ -8077,7 +8105,7 @@
         <v>-1</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q95" s="4">
         <v>58</v>
@@ -8088,10 +8116,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>128</v>
@@ -8130,7 +8158,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q96" s="4">
         <v>59</v>
@@ -8144,7 +8172,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>129</v>
@@ -8183,7 +8211,7 @@
         <v>-1</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q97" s="4">
         <v>60</v>
@@ -8197,7 +8225,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>127</v>
@@ -8236,7 +8264,7 @@
         <v>-1</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q98" s="4">
         <v>61</v>
@@ -8250,7 +8278,7 @@
         <v>50</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>128</v>
@@ -8289,7 +8317,7 @@
         <v>-1</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q99" s="4">
         <v>62</v>
@@ -8303,7 +8331,7 @@
         <v>55</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>128</v>
@@ -8342,7 +8370,7 @@
         <v>-1</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q100" s="4">
         <v>63</v>
@@ -8353,10 +8381,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>129</v>
@@ -8395,7 +8423,7 @@
         <v>-1</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q101" s="4">
         <v>64</v>
@@ -8406,13 +8434,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E102" s="4">
         <v>5</v>
@@ -8448,7 +8476,7 @@
         <v>-1</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q102" s="4">
         <v>65</v>
@@ -8459,10 +8487,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>129</v>
@@ -8501,7 +8529,7 @@
         <v>-1</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q103" s="4">
         <v>22</v>
@@ -8512,10 +8540,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>127</v>
@@ -8554,7 +8582,7 @@
         <v>-1</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q104" s="4">
         <v>23</v>
@@ -8568,7 +8596,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>128</v>
@@ -8607,7 +8635,7 @@
         <v>-1</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q105" s="4">
         <v>24</v>
@@ -8621,7 +8649,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>128</v>
@@ -8660,7 +8688,7 @@
         <v>-1</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q106" s="4">
         <v>25</v>
@@ -8671,13 +8699,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E107" s="4">
         <v>1</v>
@@ -8713,7 +8741,7 @@
         <v>-1</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q107" s="4">
         <v>26</v>
@@ -8727,7 +8755,7 @@
         <v>48</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>128</v>
@@ -8766,10 +8794,10 @@
         <v>0</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q108" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.15">
@@ -8777,13 +8805,13 @@
         <v>1001</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E109" s="19">
         <v>1</v>
@@ -8817,7 +8845,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q109" s="19">
         <v>20</v>
@@ -8828,10 +8856,10 @@
         <v>1002</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>128</v>
@@ -8868,7 +8896,7 @@
         <v>-1</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q110" s="19">
         <v>21</v>
@@ -8879,10 +8907,10 @@
         <v>1003</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>129</v>
@@ -8919,7 +8947,7 @@
         <v>-1</v>
       </c>
       <c r="P111" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q111" s="19">
         <v>22</v>
@@ -8930,13 +8958,13 @@
         <v>1004</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E112" s="19">
         <v>4</v>
@@ -8970,7 +8998,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q112" s="19">
         <v>23</v>
@@ -8981,10 +9009,10 @@
         <v>1005</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>128</v>
@@ -9021,7 +9049,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q113" s="19">
         <v>24</v>
@@ -9032,10 +9060,10 @@
         <v>1006</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>129</v>
@@ -9072,7 +9100,7 @@
         <v>-1</v>
       </c>
       <c r="P114" s="18" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q114" s="19">
         <v>25</v>
@@ -9083,10 +9111,10 @@
         <v>1007</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>128</v>
@@ -9123,7 +9151,7 @@
         <v>-1</v>
       </c>
       <c r="P115" s="18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q115" s="19">
         <v>26</v>
@@ -9134,13 +9162,13 @@
         <v>1008</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E116" s="19">
         <v>3</v>
@@ -9174,7 +9202,7 @@
         <v>-1</v>
       </c>
       <c r="P116" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q116" s="19">
         <v>27</v>
@@ -9185,10 +9213,10 @@
         <v>1009</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>128</v>
@@ -9225,7 +9253,7 @@
         <v>-1</v>
       </c>
       <c r="P117" s="18" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q117" s="19">
         <v>28</v>
@@ -9236,10 +9264,10 @@
         <v>1010</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>129</v>
@@ -9276,7 +9304,7 @@
         <v>-1</v>
       </c>
       <c r="P118" s="18" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q118" s="19">
         <v>29</v>
@@ -9287,13 +9315,13 @@
         <v>1011</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E119" s="19">
         <v>2</v>
@@ -9327,7 +9355,7 @@
         <v>-1</v>
       </c>
       <c r="P119" s="18" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q119" s="19">
         <v>30</v>
@@ -9338,10 +9366,10 @@
         <v>1012</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>128</v>
@@ -9378,7 +9406,7 @@
         <v>-1</v>
       </c>
       <c r="P120" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q120" s="19">
         <v>31</v>
@@ -9389,13 +9417,13 @@
         <v>1013</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E121" s="19">
         <v>4</v>
@@ -9429,7 +9457,7 @@
         <v>-1</v>
       </c>
       <c r="P121" s="18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q121" s="19">
         <v>32</v>
@@ -9440,10 +9468,10 @@
         <v>1014</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>129</v>
@@ -9480,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="P122" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q122" s="19">
         <v>33</v>
@@ -9491,10 +9519,10 @@
         <v>1015</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>128</v>
@@ -9531,7 +9559,7 @@
         <v>-1</v>
       </c>
       <c r="P123" s="18" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q123" s="19">
         <v>34</v>
@@ -9542,13 +9570,13 @@
         <v>1016</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E124" s="19">
         <v>4</v>
@@ -9582,7 +9610,7 @@
         <v>-1</v>
       </c>
       <c r="P124" s="18" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q124" s="19">
         <v>35</v>
@@ -9593,10 +9621,10 @@
         <v>1017</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>127</v>
@@ -9633,7 +9661,7 @@
         <v>-1</v>
       </c>
       <c r="P125" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q125" s="19">
         <v>36</v>
@@ -9644,10 +9672,10 @@
         <v>1018</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>128</v>
@@ -9684,7 +9712,7 @@
         <v>-1</v>
       </c>
       <c r="P126" s="18" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q126" s="19">
         <v>37</v>
@@ -9695,10 +9723,10 @@
         <v>1019</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>128</v>
@@ -9735,7 +9763,7 @@
         <v>-1</v>
       </c>
       <c r="P127" s="18" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q127" s="19">
         <v>38</v>
@@ -9746,13 +9774,13 @@
         <v>1020</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E128" s="19">
         <v>4</v>
@@ -9786,7 +9814,7 @@
         <v>-1</v>
       </c>
       <c r="P128" s="18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q128" s="19">
         <v>39</v>
@@ -9797,10 +9825,10 @@
         <v>1021</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>128</v>
@@ -9837,7 +9865,7 @@
         <v>-1</v>
       </c>
       <c r="P129" s="18" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q129" s="19">
         <v>40</v>
@@ -9848,10 +9876,10 @@
         <v>1022</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>129</v>
@@ -9888,7 +9916,7 @@
         <v>-1</v>
       </c>
       <c r="P130" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q130" s="19">
         <v>41</v>
@@ -9899,10 +9927,10 @@
         <v>1023</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>127</v>
@@ -9939,7 +9967,7 @@
         <v>-1</v>
       </c>
       <c r="P131" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q131" s="19">
         <v>42</v>
@@ -9950,13 +9978,13 @@
         <v>1024</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E132" s="19">
         <v>4</v>
@@ -9990,7 +10018,7 @@
         <v>-1</v>
       </c>
       <c r="P132" s="18" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q132" s="19">
         <v>43</v>
@@ -10001,13 +10029,13 @@
         <v>1025</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E133" s="19">
         <v>1</v>
@@ -10041,7 +10069,7 @@
         <v>-1</v>
       </c>
       <c r="P133" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q133" s="19">
         <v>44</v>
@@ -10052,10 +10080,10 @@
         <v>1026</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>129</v>
@@ -10092,7 +10120,7 @@
         <v>-1</v>
       </c>
       <c r="P134" s="18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q134" s="19">
         <v>45</v>
@@ -10103,13 +10131,13 @@
         <v>1027</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E135" s="19">
         <v>3</v>
@@ -10143,7 +10171,7 @@
         <v>-1</v>
       </c>
       <c r="P135" s="18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q135" s="19">
         <v>46</v>
@@ -10154,13 +10182,13 @@
         <v>1028</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E136" s="19">
         <v>4</v>
@@ -10194,7 +10222,7 @@
         <v>-1</v>
       </c>
       <c r="P136" s="18" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q136" s="19">
         <v>47</v>
@@ -10205,10 +10233,10 @@
         <v>1029</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>127</v>
@@ -10245,7 +10273,7 @@
         <v>-1</v>
       </c>
       <c r="P137" s="18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q137" s="19">
         <v>48</v>
@@ -10256,10 +10284,10 @@
         <v>1030</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>128</v>
@@ -10296,7 +10324,7 @@
         <v>-1</v>
       </c>
       <c r="P138" s="18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q138" s="19">
         <v>49</v>
@@ -10307,10 +10335,10 @@
         <v>1031</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>129</v>
@@ -10347,7 +10375,7 @@
         <v>-1</v>
       </c>
       <c r="P139" s="18" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q139" s="19">
         <v>50</v>
@@ -10358,13 +10386,13 @@
         <v>1032</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E140" s="19">
         <v>3</v>
@@ -10398,7 +10426,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q140" s="19">
         <v>51</v>
@@ -10409,10 +10437,10 @@
         <v>1033</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>128</v>
@@ -10449,7 +10477,7 @@
         <v>-1</v>
       </c>
       <c r="P141" s="18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q141" s="19">
         <v>52</v>
@@ -10460,10 +10488,10 @@
         <v>1034</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>128</v>
@@ -10500,7 +10528,7 @@
         <v>-1</v>
       </c>
       <c r="P142" s="18" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q142" s="19">
         <v>53</v>
@@ -10511,13 +10539,13 @@
         <v>1035</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E143" s="19">
         <v>4</v>
@@ -10551,7 +10579,7 @@
         <v>-1</v>
       </c>
       <c r="P143" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q143" s="19">
         <v>54</v>
@@ -10562,10 +10590,10 @@
         <v>1036</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>128</v>
@@ -10602,7 +10630,7 @@
         <v>-1</v>
       </c>
       <c r="P144" s="18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q144" s="19">
         <v>55</v>
@@ -10613,10 +10641,10 @@
         <v>1037</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>129</v>
@@ -10653,7 +10681,7 @@
         <v>-1</v>
       </c>
       <c r="P145" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q145" s="19">
         <v>56</v>
@@ -10664,13 +10692,13 @@
         <v>1038</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E146" s="19">
         <v>3</v>
@@ -10704,7 +10732,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="18" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q146" s="19">
         <v>57</v>
@@ -10715,10 +10743,10 @@
         <v>1039</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>128</v>
@@ -10755,7 +10783,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="18" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q147" s="19">
         <v>58</v>
@@ -10766,10 +10794,10 @@
         <v>1040</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>128</v>
@@ -10806,7 +10834,7 @@
         <v>-1</v>
       </c>
       <c r="P148" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q148" s="19">
         <v>59</v>
@@ -10817,13 +10845,13 @@
         <v>1041</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E149" s="19">
         <v>4</v>
@@ -10857,7 +10885,7 @@
         <v>-1</v>
       </c>
       <c r="P149" s="18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q149" s="19">
         <v>60</v>
@@ -10868,10 +10896,10 @@
         <v>1042</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>128</v>
@@ -10908,7 +10936,7 @@
         <v>-1</v>
       </c>
       <c r="P150" s="18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q150" s="19">
         <v>61</v>
@@ -10919,10 +10947,10 @@
         <v>1043</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>129</v>
@@ -10959,7 +10987,7 @@
         <v>-1</v>
       </c>
       <c r="P151" s="18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q151" s="19">
         <v>62</v>
@@ -10970,10 +10998,10 @@
         <v>1044</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>127</v>
@@ -11010,7 +11038,7 @@
         <v>-1</v>
       </c>
       <c r="P152" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q152" s="19">
         <v>63</v>
@@ -11021,13 +11049,13 @@
         <v>1045</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E153" s="19">
         <v>4</v>
@@ -11061,7 +11089,7 @@
         <v>-1</v>
       </c>
       <c r="P153" s="18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q153" s="19">
         <v>64</v>
@@ -11072,10 +11100,10 @@
         <v>1046</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>128</v>
@@ -11112,7 +11140,7 @@
         <v>-1</v>
       </c>
       <c r="P154" s="18" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q154" s="19">
         <v>65</v>
@@ -11123,10 +11151,10 @@
         <v>1047</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>129</v>
@@ -11163,7 +11191,7 @@
         <v>-1</v>
       </c>
       <c r="P155" s="18" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q155" s="19">
         <v>22</v>
@@ -11174,10 +11202,10 @@
         <v>1048</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>127</v>
@@ -11214,7 +11242,7 @@
         <v>-1</v>
       </c>
       <c r="P156" s="18" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q156" s="19">
         <v>23</v>
@@ -11225,13 +11253,13 @@
         <v>1049</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E157" s="19">
         <v>2</v>
@@ -11265,7 +11293,7 @@
         <v>-1</v>
       </c>
       <c r="P157" s="18" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q157" s="19">
         <v>24</v>
@@ -11276,10 +11304,10 @@
         <v>1050</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>128</v>
@@ -11316,7 +11344,7 @@
         <v>-1</v>
       </c>
       <c r="P158" s="18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q158" s="19">
         <v>25</v>
@@ -11327,10 +11355,10 @@
         <v>1051</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>129</v>
@@ -11367,7 +11395,7 @@
         <v>-1</v>
       </c>
       <c r="P159" s="18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q159" s="19">
         <v>26</v>
@@ -11378,10 +11406,10 @@
         <v>1052</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>128</v>
@@ -11418,7 +11446,7 @@
         <v>-1</v>
       </c>
       <c r="P160" s="18" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q160" s="19">
         <v>27</v>
@@ -11429,10 +11457,10 @@
         <v>1053</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>129</v>
@@ -11469,7 +11497,7 @@
         <v>-1</v>
       </c>
       <c r="P161" s="18" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q161" s="19">
         <v>28</v>
@@ -11480,10 +11508,10 @@
         <v>1054</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>127</v>
@@ -11520,7 +11548,7 @@
         <v>-1</v>
       </c>
       <c r="P162" s="18" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q162" s="19">
         <v>29</v>
@@ -11531,10 +11559,10 @@
         <v>1055</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>128</v>
@@ -11571,7 +11599,7 @@
         <v>-1</v>
       </c>
       <c r="P163" s="18" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q163" s="19">
         <v>30</v>
@@ -11582,10 +11610,10 @@
         <v>1056</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>128</v>
@@ -11622,7 +11650,7 @@
         <v>-1</v>
       </c>
       <c r="P164" s="18" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q164" s="19">
         <v>31</v>
@@ -11633,10 +11661,10 @@
         <v>1057</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>129</v>
@@ -11673,7 +11701,7 @@
         <v>-1</v>
       </c>
       <c r="P165" s="18" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q165" s="19">
         <v>32</v>
@@ -11684,13 +11712,13 @@
         <v>1058</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E166" s="19">
         <v>5</v>
@@ -11724,7 +11752,7 @@
         <v>-1</v>
       </c>
       <c r="P166" s="18" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q166" s="19">
         <v>33</v>
@@ -11735,10 +11763,10 @@
         <v>1059</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>129</v>
@@ -11775,7 +11803,7 @@
         <v>-1</v>
       </c>
       <c r="P167" s="18" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q167" s="19">
         <v>78</v>
@@ -11786,10 +11814,10 @@
         <v>1060</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>127</v>
@@ -11826,7 +11854,7 @@
         <v>-1</v>
       </c>
       <c r="P168" s="18" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q168" s="19">
         <v>79</v>
@@ -11837,10 +11865,10 @@
         <v>1061</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>128</v>
@@ -11877,7 +11905,7 @@
         <v>-1</v>
       </c>
       <c r="P169" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q169" s="19">
         <v>80</v>
@@ -11888,10 +11916,10 @@
         <v>1062</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>128</v>
@@ -11928,7 +11956,7 @@
         <v>-1</v>
       </c>
       <c r="P170" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q170" s="19">
         <v>81</v>
@@ -11939,13 +11967,13 @@
         <v>1063</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E171" s="19">
         <v>1</v>
@@ -11979,7 +12007,7 @@
         <v>-1</v>
       </c>
       <c r="P171" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q171" s="19">
         <v>82</v>
@@ -11990,10 +12018,10 @@
         <v>1064</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>128</v>
@@ -12030,7 +12058,7 @@
         <v>-1</v>
       </c>
       <c r="P172" s="18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q172" s="19">
         <v>83</v>
@@ -12041,10 +12069,10 @@
         <v>1065</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>129</v>
@@ -12081,7 +12109,7 @@
         <v>-1</v>
       </c>
       <c r="P173" s="18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q173" s="19">
         <v>84</v>
@@ -12092,10 +12120,10 @@
         <v>1066</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>127</v>
@@ -12132,7 +12160,7 @@
         <v>-1</v>
       </c>
       <c r="P174" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q174" s="19">
         <v>85</v>
@@ -12143,10 +12171,10 @@
         <v>1067</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>128</v>
@@ -12183,7 +12211,7 @@
         <v>-1</v>
       </c>
       <c r="P175" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q175" s="19">
         <v>86</v>
@@ -12194,13 +12222,13 @@
         <v>1068</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E176" s="19">
         <v>1</v>
@@ -12234,7 +12262,7 @@
         <v>-1</v>
       </c>
       <c r="P176" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="Q176" s="19">
         <v>87</v>
@@ -12245,10 +12273,10 @@
         <v>1069</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>129</v>
@@ -12285,7 +12313,7 @@
         <v>-1</v>
       </c>
       <c r="P177" s="18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q177" s="19">
         <v>22</v>
@@ -12296,10 +12324,10 @@
         <v>1070</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>127</v>
@@ -12336,7 +12364,7 @@
         <v>-1</v>
       </c>
       <c r="P178" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q178" s="19">
         <v>23</v>
@@ -12347,10 +12375,10 @@
         <v>1071</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>128</v>
@@ -12387,7 +12415,7 @@
         <v>-1</v>
       </c>
       <c r="P179" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q179" s="19">
         <v>24</v>
@@ -12398,10 +12426,10 @@
         <v>1072</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D180" s="18" t="s">
         <v>129</v>
@@ -12438,7 +12466,7 @@
         <v>-1</v>
       </c>
       <c r="P180" s="18" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q180" s="19">
         <v>25</v>
@@ -12449,10 +12477,10 @@
         <v>1073</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D181" s="18" t="s">
         <v>128</v>
@@ -12489,7 +12517,7 @@
         <v>-1</v>
       </c>
       <c r="P181" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q181" s="19">
         <v>26</v>
@@ -12500,10 +12528,10 @@
         <v>1074</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D182" s="18" t="s">
         <v>129</v>
@@ -12540,7 +12568,7 @@
         <v>-1</v>
       </c>
       <c r="P182" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q182" s="19">
         <v>27</v>
@@ -12551,10 +12579,10 @@
         <v>1075</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D183" s="18" t="s">
         <v>127</v>
@@ -12591,7 +12619,7 @@
         <v>-1</v>
       </c>
       <c r="P183" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q183" s="19">
         <v>28</v>
@@ -12602,10 +12630,10 @@
         <v>1076</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>128</v>
@@ -12642,7 +12670,7 @@
         <v>-1</v>
       </c>
       <c r="P184" s="18" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q184" s="19">
         <v>29</v>
@@ -12653,10 +12681,10 @@
         <v>1077</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D185" s="18" t="s">
         <v>128</v>
@@ -12693,7 +12721,7 @@
         <v>-1</v>
       </c>
       <c r="P185" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q185" s="19">
         <v>30</v>
@@ -12704,10 +12732,10 @@
         <v>1078</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>129</v>
@@ -12744,7 +12772,7 @@
         <v>-1</v>
       </c>
       <c r="P186" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q186" s="19">
         <v>31</v>
@@ -12755,10 +12783,10 @@
         <v>1079</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D187" s="18" t="s">
         <v>129</v>
@@ -12795,7 +12823,7 @@
         <v>-1</v>
       </c>
       <c r="P187" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q187" s="19">
         <v>32</v>
@@ -12806,10 +12834,10 @@
         <v>1080</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>127</v>
@@ -12846,7 +12874,7 @@
         <v>-1</v>
       </c>
       <c r="P188" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q188" s="19">
         <v>33</v>
@@ -12857,10 +12885,10 @@
         <v>1081</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>128</v>
@@ -12897,7 +12925,7 @@
         <v>-1</v>
       </c>
       <c r="P189" s="18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q189" s="19">
         <v>100</v>
@@ -12908,10 +12936,10 @@
         <v>1082</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D190" s="18" t="s">
         <v>128</v>
@@ -12948,7 +12976,7 @@
         <v>-1</v>
       </c>
       <c r="P190" s="18" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q190" s="19">
         <v>22</v>
@@ -12959,13 +12987,13 @@
         <v>1083</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E191" s="19">
         <v>1</v>
@@ -12999,7 +13027,7 @@
         <v>-1</v>
       </c>
       <c r="P191" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q191" s="19">
         <v>23</v>
@@ -13010,10 +13038,10 @@
         <v>1084</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>128</v>
@@ -13050,7 +13078,7 @@
         <v>-1</v>
       </c>
       <c r="P192" s="18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q192" s="19">
         <v>24</v>
@@ -13061,10 +13089,10 @@
         <v>1085</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>129</v>
@@ -13101,7 +13129,7 @@
         <v>-1</v>
       </c>
       <c r="P193" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q193" s="19">
         <v>25</v>
@@ -13112,10 +13140,10 @@
         <v>1086</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D194" s="18" t="s">
         <v>127</v>
@@ -13152,7 +13180,7 @@
         <v>-1</v>
       </c>
       <c r="P194" s="18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q194" s="19">
         <v>26</v>
@@ -13163,10 +13191,10 @@
         <v>1087</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D195" s="18" t="s">
         <v>128</v>
@@ -13203,7 +13231,7 @@
         <v>-1</v>
       </c>
       <c r="P195" s="18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Q195" s="19">
         <v>27</v>
@@ -13214,13 +13242,13 @@
         <v>1088</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E196" s="19">
         <v>1</v>
@@ -13254,7 +13282,7 @@
         <v>-1</v>
       </c>
       <c r="P196" s="18" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q196" s="19">
         <v>28</v>
@@ -13265,10 +13293,10 @@
         <v>1089</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>129</v>
@@ -13305,7 +13333,7 @@
         <v>-1</v>
       </c>
       <c r="P197" s="18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q197" s="19">
         <v>29</v>
@@ -13316,10 +13344,10 @@
         <v>1090</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D198" s="18" t="s">
         <v>127</v>
@@ -13356,7 +13384,7 @@
         <v>-1</v>
       </c>
       <c r="P198" s="18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q198" s="19">
         <v>56</v>
@@ -13367,10 +13395,10 @@
         <v>1091</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>128</v>
@@ -13407,7 +13435,7 @@
         <v>-1</v>
       </c>
       <c r="P199" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q199" s="19">
         <v>57</v>
@@ -13418,10 +13446,10 @@
         <v>1092</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D200" s="18" t="s">
         <v>129</v>
@@ -13458,7 +13486,7 @@
         <v>-1</v>
       </c>
       <c r="P200" s="18" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q200" s="19">
         <v>58</v>
@@ -13469,10 +13497,10 @@
         <v>1093</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D201" s="18" t="s">
         <v>128</v>
@@ -13509,7 +13537,7 @@
         <v>-1</v>
       </c>
       <c r="P201" s="18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q201" s="19">
         <v>59</v>
@@ -13520,10 +13548,10 @@
         <v>1094</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D202" s="18" t="s">
         <v>129</v>
@@ -13560,7 +13588,7 @@
         <v>-1</v>
       </c>
       <c r="P202" s="18" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q202" s="19">
         <v>60</v>
@@ -13571,10 +13599,10 @@
         <v>1095</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>127</v>
@@ -13611,7 +13639,7 @@
         <v>-1</v>
       </c>
       <c r="P203" s="18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q203" s="19">
         <v>61</v>
@@ -13622,10 +13650,10 @@
         <v>1096</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D204" s="18" t="s">
         <v>128</v>
@@ -13662,7 +13690,7 @@
         <v>-1</v>
       </c>
       <c r="P204" s="18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q204" s="19">
         <v>62</v>
@@ -13673,10 +13701,10 @@
         <v>1097</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D205" s="18" t="s">
         <v>128</v>
@@ -13713,7 +13741,7 @@
         <v>-1</v>
       </c>
       <c r="P205" s="18" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q205" s="19">
         <v>63</v>
@@ -13724,10 +13752,10 @@
         <v>1098</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>129</v>
@@ -13764,7 +13792,7 @@
         <v>-1</v>
       </c>
       <c r="P206" s="18" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q206" s="19">
         <v>64</v>
@@ -13775,13 +13803,13 @@
         <v>1099</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E207" s="19">
         <v>5</v>
@@ -13815,7 +13843,7 @@
         <v>-1</v>
       </c>
       <c r="P207" s="18" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q207" s="19">
         <v>65</v>
@@ -13826,10 +13854,10 @@
         <v>1100</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>129</v>
@@ -13866,7 +13894,7 @@
         <v>-1</v>
       </c>
       <c r="P208" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q208" s="19">
         <v>22</v>
@@ -13877,10 +13905,10 @@
         <v>1101</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>127</v>
@@ -13917,7 +13945,7 @@
         <v>-1</v>
       </c>
       <c r="P209" s="18" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q209" s="19">
         <v>23</v>
@@ -13928,10 +13956,10 @@
         <v>1102</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D210" s="18" t="s">
         <v>128</v>
@@ -13968,7 +13996,7 @@
         <v>-1</v>
       </c>
       <c r="P210" s="18" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q210" s="19">
         <v>24</v>
@@ -13979,10 +14007,10 @@
         <v>1103</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D211" s="18" t="s">
         <v>128</v>
@@ -14019,7 +14047,7 @@
         <v>-1</v>
       </c>
       <c r="P211" s="18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q211" s="19">
         <v>25</v>
@@ -14030,13 +14058,13 @@
         <v>1104</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E212" s="19">
         <v>1</v>
@@ -14070,7 +14098,7 @@
         <v>-1</v>
       </c>
       <c r="P212" s="18" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q212" s="19">
         <v>26</v>
@@ -14081,10 +14109,10 @@
         <v>1105</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D213" s="18" t="s">
         <v>128</v>
@@ -14121,7 +14149,7 @@
         <v>-1</v>
       </c>
       <c r="P213" s="18" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q213" s="19">
         <v>90</v>
@@ -14139,7 +14167,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14160,7 +14188,7 @@
         <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14174,7 +14202,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -14950,17 +14978,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985A156-4714-42C9-B473-A622406C6C84}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
     <col min="4" max="5" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14978,7 +15006,7 @@
         <v>158</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -14986,27 +15014,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>2</v>
@@ -15020,10 +15048,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
+        <v>689</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>694</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>159</v>
@@ -15037,16 +15065,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
+        <v>690</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>695</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -15054,16 +15082,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
+        <v>691</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>696</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -15071,16 +15099,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
+        <v>692</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -15088,16 +15116,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
+        <v>693</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>698</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="21" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -15221,7 +15254,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5BD93-4478-4C88-AE80-53162F2920A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C271F9C9-205D-4799-AD87-C52074CD7AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -665,12 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动和普通攻击范围基数
-NxN格子
-根据等级系数相乘 四舍五入取整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职业评价,下标 骑兵、弓兵、步兵
 1-C
 2-B
@@ -699,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动攻击范围系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2577,6 +2567,16 @@
     <t>初始所属
 0-我方
 -1-在野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动范围系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动范围基数
+NxN格子
+根据等级系数相乘 四舍五入取整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3051,7 +3051,7 @@
   <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>17</v>
@@ -3087,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -3105,16 +3105,16 @@
         <v>39</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -3137,7 +3137,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>148</v>
@@ -3155,16 +3155,16 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -3205,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>2</v>
@@ -3222,13 +3222,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>-1</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P4" s="4">
         <v>20</v>
@@ -3272,10 +3272,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>128</v>
@@ -3311,7 +3311,7 @@
         <v>-1</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P5" s="4">
         <v>21</v>
@@ -3322,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>129</v>
@@ -3361,7 +3361,7 @@
         <v>-1</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P6" s="4">
         <v>22</v>
@@ -3372,13 +3372,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -3411,7 +3411,7 @@
         <v>-1</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P7" s="4">
         <v>23</v>
@@ -3422,10 +3422,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>128</v>
@@ -3461,7 +3461,7 @@
         <v>-1</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P8" s="4">
         <v>24</v>
@@ -3472,10 +3472,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>129</v>
@@ -3511,7 +3511,7 @@
         <v>-1</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P9" s="4">
         <v>25</v>
@@ -3522,10 +3522,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>128</v>
@@ -3561,7 +3561,7 @@
         <v>-1</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P10" s="4">
         <v>26</v>
@@ -3575,10 +3575,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -3611,7 +3611,7 @@
         <v>-1</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P11" s="4">
         <v>27</v>
@@ -3625,7 +3625,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>128</v>
@@ -3661,7 +3661,7 @@
         <v>-1</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P12" s="4">
         <v>28</v>
@@ -3672,10 +3672,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>129</v>
@@ -3711,7 +3711,7 @@
         <v>-1</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P13" s="4">
         <v>29</v>
@@ -3722,13 +3722,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>-1</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P14" s="4">
         <v>30</v>
@@ -3772,10 +3772,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>128</v>
@@ -3811,7 +3811,7 @@
         <v>-1</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P15" s="4">
         <v>31</v>
@@ -3822,13 +3822,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
@@ -3861,7 +3861,7 @@
         <v>-1</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P16" s="4">
         <v>32</v>
@@ -3875,7 +3875,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>129</v>
@@ -3911,7 +3911,7 @@
         <v>-1</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P17" s="4">
         <v>33</v>
@@ -3925,7 +3925,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>128</v>
@@ -3961,7 +3961,7 @@
         <v>-1</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P18" s="4">
         <v>34</v>
@@ -3972,13 +3972,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -4011,7 +4011,7 @@
         <v>-1</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P19" s="4">
         <v>35</v>
@@ -4022,10 +4022,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>127</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P20" s="4">
         <v>36</v>
@@ -4072,10 +4072,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>128</v>
@@ -4111,7 +4111,7 @@
         <v>-1</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P21" s="4">
         <v>37</v>
@@ -4122,10 +4122,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>128</v>
@@ -4161,7 +4161,7 @@
         <v>-1</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P22" s="4">
         <v>38</v>
@@ -4172,13 +4172,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -4211,7 +4211,7 @@
         <v>-1</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P23" s="4">
         <v>39</v>
@@ -4222,10 +4222,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
@@ -4261,7 +4261,7 @@
         <v>-1</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P24" s="4">
         <v>40</v>
@@ -4275,7 +4275,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>129</v>
@@ -4311,7 +4311,7 @@
         <v>-1</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P25" s="4">
         <v>41</v>
@@ -4322,10 +4322,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>127</v>
@@ -4361,7 +4361,7 @@
         <v>-1</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P26" s="4">
         <v>42</v>
@@ -4372,13 +4372,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -4411,7 +4411,7 @@
         <v>-1</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P27" s="4">
         <v>43</v>
@@ -4422,13 +4422,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>-1</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P28" s="4">
         <v>44</v>
@@ -4472,10 +4472,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>129</v>
@@ -4511,7 +4511,7 @@
         <v>-1</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P29" s="4">
         <v>45</v>
@@ -4522,13 +4522,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -4561,7 +4561,7 @@
         <v>-1</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P30" s="4">
         <v>46</v>
@@ -4572,13 +4572,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="4">
         <v>4</v>
@@ -4611,7 +4611,7 @@
         <v>-1</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P31" s="4">
         <v>47</v>
@@ -4622,10 +4622,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>127</v>
@@ -4661,7 +4661,7 @@
         <v>-1</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P32" s="4">
         <v>48</v>
@@ -4675,7 +4675,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>128</v>
@@ -4711,7 +4711,7 @@
         <v>-1</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P33" s="4">
         <v>49</v>
@@ -4722,10 +4722,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>129</v>
@@ -4761,7 +4761,7 @@
         <v>-1</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P34" s="4">
         <v>50</v>
@@ -4775,10 +4775,10 @@
         <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
@@ -4811,7 +4811,7 @@
         <v>-1</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P35" s="4">
         <v>51</v>
@@ -4822,10 +4822,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>128</v>
@@ -4861,7 +4861,7 @@
         <v>-1</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P36" s="4">
         <v>52</v>
@@ -4872,10 +4872,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>128</v>
@@ -4911,7 +4911,7 @@
         <v>-1</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P37" s="4">
         <v>53</v>
@@ -4922,13 +4922,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -4961,7 +4961,7 @@
         <v>-1</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P38" s="4">
         <v>54</v>
@@ -4972,10 +4972,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>128</v>
@@ -5011,7 +5011,7 @@
         <v>-1</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P39" s="4">
         <v>55</v>
@@ -5022,10 +5022,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>129</v>
@@ -5061,7 +5061,7 @@
         <v>-1</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P40" s="4">
         <v>56</v>
@@ -5075,10 +5075,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -5111,7 +5111,7 @@
         <v>-1</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P41" s="4">
         <v>57</v>
@@ -5122,10 +5122,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>128</v>
@@ -5161,7 +5161,7 @@
         <v>-1</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P42" s="4">
         <v>58</v>
@@ -5172,10 +5172,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>128</v>
@@ -5211,7 +5211,7 @@
         <v>-1</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P43" s="4">
         <v>59</v>
@@ -5222,13 +5222,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E44" s="4">
         <v>4</v>
@@ -5261,7 +5261,7 @@
         <v>-1</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P44" s="4">
         <v>60</v>
@@ -5272,10 +5272,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>128</v>
@@ -5311,7 +5311,7 @@
         <v>-1</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P45" s="4">
         <v>61</v>
@@ -5325,7 +5325,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>129</v>
@@ -5361,7 +5361,7 @@
         <v>-1</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P46" s="4">
         <v>62</v>
@@ -5372,10 +5372,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>127</v>
@@ -5411,7 +5411,7 @@
         <v>-1</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P47" s="4">
         <v>63</v>
@@ -5422,13 +5422,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="4">
         <v>4</v>
@@ -5461,7 +5461,7 @@
         <v>-1</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P48" s="4">
         <v>64</v>
@@ -5475,7 +5475,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>128</v>
@@ -5511,7 +5511,7 @@
         <v>-1</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P49" s="4">
         <v>65</v>
@@ -5522,10 +5522,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>129</v>
@@ -5561,7 +5561,7 @@
         <v>-1</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P50" s="4">
         <v>22</v>
@@ -5572,10 +5572,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>127</v>
@@ -5611,7 +5611,7 @@
         <v>-1</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P51" s="4">
         <v>23</v>
@@ -5622,13 +5622,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -5661,7 +5661,7 @@
         <v>-1</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P52" s="4">
         <v>24</v>
@@ -5672,10 +5672,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>128</v>
@@ -5711,7 +5711,7 @@
         <v>-1</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P53" s="4">
         <v>25</v>
@@ -5722,10 +5722,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>129</v>
@@ -5761,7 +5761,7 @@
         <v>-1</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P54" s="4">
         <v>26</v>
@@ -5772,10 +5772,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>128</v>
@@ -5811,7 +5811,7 @@
         <v>-1</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P55" s="4">
         <v>27</v>
@@ -5822,10 +5822,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>129</v>
@@ -5861,7 +5861,7 @@
         <v>-1</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P56" s="4">
         <v>28</v>
@@ -5872,10 +5872,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>127</v>
@@ -5911,7 +5911,7 @@
         <v>-1</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P57" s="4">
         <v>29</v>
@@ -5922,10 +5922,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>128</v>
@@ -5961,7 +5961,7 @@
         <v>-1</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P58" s="4">
         <v>30</v>
@@ -5972,10 +5972,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>128</v>
@@ -6011,7 +6011,7 @@
         <v>-1</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P59" s="4">
         <v>31</v>
@@ -6022,10 +6022,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>129</v>
@@ -6061,7 +6061,7 @@
         <v>-1</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P60" s="4">
         <v>32</v>
@@ -6072,13 +6072,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
@@ -6111,7 +6111,7 @@
         <v>-1</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P61" s="4">
         <v>33</v>
@@ -6122,10 +6122,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>129</v>
@@ -6161,7 +6161,7 @@
         <v>-1</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P62" s="4">
         <v>78</v>
@@ -6172,10 +6172,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>127</v>
@@ -6211,7 +6211,7 @@
         <v>-1</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P63" s="4">
         <v>79</v>
@@ -6222,10 +6222,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>128</v>
@@ -6261,7 +6261,7 @@
         <v>-1</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P64" s="4">
         <v>80</v>
@@ -6272,10 +6272,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>128</v>
@@ -6311,7 +6311,7 @@
         <v>-1</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P65" s="4">
         <v>81</v>
@@ -6325,10 +6325,10 @@
         <v>71</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -6361,7 +6361,7 @@
         <v>-1</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P66" s="4">
         <v>82</v>
@@ -6372,10 +6372,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>128</v>
@@ -6411,7 +6411,7 @@
         <v>-1</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P67" s="4">
         <v>83</v>
@@ -6422,10 +6422,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>129</v>
@@ -6461,7 +6461,7 @@
         <v>-1</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P68" s="4">
         <v>84</v>
@@ -6472,10 +6472,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>127</v>
@@ -6511,7 +6511,7 @@
         <v>-1</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P69" s="4">
         <v>85</v>
@@ -6522,10 +6522,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>128</v>
@@ -6561,7 +6561,7 @@
         <v>-1</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P70" s="4">
         <v>86</v>
@@ -6572,13 +6572,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -6611,7 +6611,7 @@
         <v>-1</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P71" s="4">
         <v>87</v>
@@ -6622,10 +6622,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>129</v>
@@ -6661,7 +6661,7 @@
         <v>-1</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P72" s="4">
         <v>22</v>
@@ -6672,10 +6672,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>127</v>
@@ -6711,7 +6711,7 @@
         <v>-1</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P73" s="4">
         <v>23</v>
@@ -6725,7 +6725,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>128</v>
@@ -6761,7 +6761,7 @@
         <v>-1</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P74" s="4">
         <v>24</v>
@@ -6772,10 +6772,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>129</v>
@@ -6811,7 +6811,7 @@
         <v>-1</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P75" s="4">
         <v>25</v>
@@ -6822,10 +6822,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>128</v>
@@ -6861,7 +6861,7 @@
         <v>-1</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P76" s="4">
         <v>26</v>
@@ -6872,10 +6872,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>129</v>
@@ -6911,7 +6911,7 @@
         <v>-1</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P77" s="4">
         <v>27</v>
@@ -6922,10 +6922,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>127</v>
@@ -6961,7 +6961,7 @@
         <v>-1</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P78" s="4">
         <v>28</v>
@@ -6972,10 +6972,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>128</v>
@@ -7011,7 +7011,7 @@
         <v>-1</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P79" s="4">
         <v>29</v>
@@ -7025,7 +7025,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>128</v>
@@ -7061,7 +7061,7 @@
         <v>-1</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P80" s="4">
         <v>30</v>
@@ -7072,10 +7072,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>129</v>
@@ -7111,7 +7111,7 @@
         <v>-1</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P81" s="4">
         <v>31</v>
@@ -7122,10 +7122,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>129</v>
@@ -7161,7 +7161,7 @@
         <v>-1</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P82" s="4">
         <v>32</v>
@@ -7172,10 +7172,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>127</v>
@@ -7211,7 +7211,7 @@
         <v>-1</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P83" s="4">
         <v>33</v>
@@ -7222,10 +7222,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>128</v>
@@ -7261,7 +7261,7 @@
         <v>-1</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P84" s="4">
         <v>100</v>
@@ -7275,7 +7275,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>128</v>
@@ -7311,7 +7311,7 @@
         <v>-1</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P85" s="4">
         <v>22</v>
@@ -7325,10 +7325,10 @@
         <v>65</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>-1</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P86" s="4">
         <v>23</v>
@@ -7375,7 +7375,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>128</v>
@@ -7411,7 +7411,7 @@
         <v>-1</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P87" s="4">
         <v>24</v>
@@ -7422,10 +7422,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>129</v>
@@ -7461,7 +7461,7 @@
         <v>-1</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P88" s="4">
         <v>25</v>
@@ -7472,10 +7472,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>127</v>
@@ -7511,7 +7511,7 @@
         <v>-1</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P89" s="4">
         <v>26</v>
@@ -7522,10 +7522,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>128</v>
@@ -7561,7 +7561,7 @@
         <v>-1</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P90" s="4">
         <v>27</v>
@@ -7572,13 +7572,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -7611,7 +7611,7 @@
         <v>-1</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P91" s="4">
         <v>28</v>
@@ -7625,7 +7625,7 @@
         <v>70</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>129</v>
@@ -7661,7 +7661,7 @@
         <v>-1</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P92" s="4">
         <v>29</v>
@@ -7675,7 +7675,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>127</v>
@@ -7711,7 +7711,7 @@
         <v>-1</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P93" s="4">
         <v>56</v>
@@ -7722,10 +7722,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>128</v>
@@ -7761,7 +7761,7 @@
         <v>-1</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P94" s="4">
         <v>57</v>
@@ -7772,10 +7772,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>129</v>
@@ -7811,7 +7811,7 @@
         <v>-1</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P95" s="4">
         <v>58</v>
@@ -7822,10 +7822,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>128</v>
@@ -7861,7 +7861,7 @@
         <v>-1</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P96" s="4">
         <v>59</v>
@@ -7875,7 +7875,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>129</v>
@@ -7911,7 +7911,7 @@
         <v>-1</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P97" s="4">
         <v>60</v>
@@ -7925,7 +7925,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>127</v>
@@ -7961,7 +7961,7 @@
         <v>-1</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P98" s="4">
         <v>61</v>
@@ -7975,7 +7975,7 @@
         <v>50</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>128</v>
@@ -8011,7 +8011,7 @@
         <v>-1</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P99" s="4">
         <v>62</v>
@@ -8025,7 +8025,7 @@
         <v>55</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>128</v>
@@ -8061,7 +8061,7 @@
         <v>-1</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P100" s="4">
         <v>63</v>
@@ -8072,10 +8072,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>129</v>
@@ -8111,7 +8111,7 @@
         <v>-1</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P101" s="4">
         <v>64</v>
@@ -8122,13 +8122,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E102" s="4">
         <v>5</v>
@@ -8161,7 +8161,7 @@
         <v>-1</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P102" s="4">
         <v>65</v>
@@ -8172,10 +8172,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>129</v>
@@ -8211,7 +8211,7 @@
         <v>-1</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P103" s="4">
         <v>22</v>
@@ -8222,10 +8222,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>127</v>
@@ -8261,7 +8261,7 @@
         <v>-1</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P104" s="4">
         <v>23</v>
@@ -8275,7 +8275,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>128</v>
@@ -8311,7 +8311,7 @@
         <v>-1</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P105" s="4">
         <v>24</v>
@@ -8325,7 +8325,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>128</v>
@@ -8361,7 +8361,7 @@
         <v>-1</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P106" s="4">
         <v>25</v>
@@ -8372,13 +8372,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E107" s="4">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>-1</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P107" s="4">
         <v>26</v>
@@ -8425,13 +8425,13 @@
         <v>48</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>30</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P108" s="4">
         <v>100</v>
@@ -8472,13 +8472,13 @@
         <v>1001</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E109" s="19">
         <v>1</v>
@@ -8509,7 +8509,7 @@
         <v>-1</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P109" s="19">
         <v>20</v>
@@ -8520,10 +8520,10 @@
         <v>1002</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>128</v>
@@ -8557,7 +8557,7 @@
         <v>-1</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P110" s="19">
         <v>21</v>
@@ -8568,10 +8568,10 @@
         <v>1003</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>129</v>
@@ -8605,7 +8605,7 @@
         <v>-1</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P111" s="19">
         <v>22</v>
@@ -8616,13 +8616,13 @@
         <v>1004</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E112" s="19">
         <v>4</v>
@@ -8653,7 +8653,7 @@
         <v>-1</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P112" s="19">
         <v>23</v>
@@ -8664,10 +8664,10 @@
         <v>1005</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>128</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P113" s="19">
         <v>24</v>
@@ -8712,10 +8712,10 @@
         <v>1006</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>129</v>
@@ -8749,7 +8749,7 @@
         <v>-1</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P114" s="19">
         <v>25</v>
@@ -8760,10 +8760,10 @@
         <v>1007</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>128</v>
@@ -8797,7 +8797,7 @@
         <v>-1</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P115" s="19">
         <v>26</v>
@@ -8808,13 +8808,13 @@
         <v>1008</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E116" s="19">
         <v>3</v>
@@ -8845,7 +8845,7 @@
         <v>-1</v>
       </c>
       <c r="O116" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P116" s="19">
         <v>27</v>
@@ -8856,10 +8856,10 @@
         <v>1009</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>128</v>
@@ -8893,7 +8893,7 @@
         <v>-1</v>
       </c>
       <c r="O117" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P117" s="19">
         <v>28</v>
@@ -8904,10 +8904,10 @@
         <v>1010</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>129</v>
@@ -8941,7 +8941,7 @@
         <v>-1</v>
       </c>
       <c r="O118" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P118" s="19">
         <v>29</v>
@@ -8952,13 +8952,13 @@
         <v>1011</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E119" s="19">
         <v>2</v>
@@ -8989,7 +8989,7 @@
         <v>-1</v>
       </c>
       <c r="O119" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P119" s="19">
         <v>30</v>
@@ -9000,10 +9000,10 @@
         <v>1012</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>128</v>
@@ -9037,7 +9037,7 @@
         <v>-1</v>
       </c>
       <c r="O120" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P120" s="19">
         <v>31</v>
@@ -9048,13 +9048,13 @@
         <v>1013</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E121" s="19">
         <v>4</v>
@@ -9085,7 +9085,7 @@
         <v>-1</v>
       </c>
       <c r="O121" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P121" s="19">
         <v>32</v>
@@ -9096,10 +9096,10 @@
         <v>1014</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>129</v>
@@ -9133,7 +9133,7 @@
         <v>-1</v>
       </c>
       <c r="O122" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P122" s="19">
         <v>33</v>
@@ -9144,10 +9144,10 @@
         <v>1015</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>128</v>
@@ -9181,7 +9181,7 @@
         <v>-1</v>
       </c>
       <c r="O123" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P123" s="19">
         <v>34</v>
@@ -9192,13 +9192,13 @@
         <v>1016</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E124" s="19">
         <v>4</v>
@@ -9229,7 +9229,7 @@
         <v>-1</v>
       </c>
       <c r="O124" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P124" s="19">
         <v>35</v>
@@ -9240,10 +9240,10 @@
         <v>1017</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>127</v>
@@ -9277,7 +9277,7 @@
         <v>-1</v>
       </c>
       <c r="O125" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P125" s="19">
         <v>36</v>
@@ -9288,10 +9288,10 @@
         <v>1018</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>128</v>
@@ -9325,7 +9325,7 @@
         <v>-1</v>
       </c>
       <c r="O126" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P126" s="19">
         <v>37</v>
@@ -9336,10 +9336,10 @@
         <v>1019</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>128</v>
@@ -9373,7 +9373,7 @@
         <v>-1</v>
       </c>
       <c r="O127" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P127" s="19">
         <v>38</v>
@@ -9384,13 +9384,13 @@
         <v>1020</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E128" s="19">
         <v>4</v>
@@ -9421,7 +9421,7 @@
         <v>-1</v>
       </c>
       <c r="O128" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P128" s="19">
         <v>39</v>
@@ -9432,10 +9432,10 @@
         <v>1021</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>128</v>
@@ -9469,7 +9469,7 @@
         <v>-1</v>
       </c>
       <c r="O129" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P129" s="19">
         <v>40</v>
@@ -9480,10 +9480,10 @@
         <v>1022</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>129</v>
@@ -9517,7 +9517,7 @@
         <v>-1</v>
       </c>
       <c r="O130" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P130" s="19">
         <v>41</v>
@@ -9528,10 +9528,10 @@
         <v>1023</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>127</v>
@@ -9565,7 +9565,7 @@
         <v>-1</v>
       </c>
       <c r="O131" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P131" s="19">
         <v>42</v>
@@ -9576,13 +9576,13 @@
         <v>1024</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E132" s="19">
         <v>4</v>
@@ -9613,7 +9613,7 @@
         <v>-1</v>
       </c>
       <c r="O132" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P132" s="19">
         <v>43</v>
@@ -9624,13 +9624,13 @@
         <v>1025</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E133" s="19">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>-1</v>
       </c>
       <c r="O133" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P133" s="19">
         <v>44</v>
@@ -9672,10 +9672,10 @@
         <v>1026</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>129</v>
@@ -9709,7 +9709,7 @@
         <v>-1</v>
       </c>
       <c r="O134" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P134" s="19">
         <v>45</v>
@@ -9720,13 +9720,13 @@
         <v>1027</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E135" s="19">
         <v>3</v>
@@ -9757,7 +9757,7 @@
         <v>-1</v>
       </c>
       <c r="O135" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P135" s="19">
         <v>46</v>
@@ -9768,13 +9768,13 @@
         <v>1028</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E136" s="19">
         <v>4</v>
@@ -9805,7 +9805,7 @@
         <v>-1</v>
       </c>
       <c r="O136" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P136" s="19">
         <v>47</v>
@@ -9816,10 +9816,10 @@
         <v>1029</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>127</v>
@@ -9853,7 +9853,7 @@
         <v>-1</v>
       </c>
       <c r="O137" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P137" s="19">
         <v>48</v>
@@ -9864,10 +9864,10 @@
         <v>1030</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>128</v>
@@ -9901,7 +9901,7 @@
         <v>-1</v>
       </c>
       <c r="O138" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P138" s="19">
         <v>49</v>
@@ -9912,10 +9912,10 @@
         <v>1031</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>129</v>
@@ -9949,7 +9949,7 @@
         <v>-1</v>
       </c>
       <c r="O139" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P139" s="19">
         <v>50</v>
@@ -9960,13 +9960,13 @@
         <v>1032</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E140" s="19">
         <v>3</v>
@@ -9997,7 +9997,7 @@
         <v>-1</v>
       </c>
       <c r="O140" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P140" s="19">
         <v>51</v>
@@ -10008,10 +10008,10 @@
         <v>1033</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>128</v>
@@ -10045,7 +10045,7 @@
         <v>-1</v>
       </c>
       <c r="O141" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P141" s="19">
         <v>52</v>
@@ -10056,10 +10056,10 @@
         <v>1034</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>128</v>
@@ -10093,7 +10093,7 @@
         <v>-1</v>
       </c>
       <c r="O142" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P142" s="19">
         <v>53</v>
@@ -10104,13 +10104,13 @@
         <v>1035</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E143" s="19">
         <v>4</v>
@@ -10141,7 +10141,7 @@
         <v>-1</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P143" s="19">
         <v>54</v>
@@ -10152,10 +10152,10 @@
         <v>1036</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>128</v>
@@ -10189,7 +10189,7 @@
         <v>-1</v>
       </c>
       <c r="O144" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P144" s="19">
         <v>55</v>
@@ -10200,10 +10200,10 @@
         <v>1037</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>129</v>
@@ -10237,7 +10237,7 @@
         <v>-1</v>
       </c>
       <c r="O145" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P145" s="19">
         <v>56</v>
@@ -10248,13 +10248,13 @@
         <v>1038</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E146" s="19">
         <v>3</v>
@@ -10285,7 +10285,7 @@
         <v>-1</v>
       </c>
       <c r="O146" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P146" s="19">
         <v>57</v>
@@ -10296,10 +10296,10 @@
         <v>1039</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>128</v>
@@ -10333,7 +10333,7 @@
         <v>-1</v>
       </c>
       <c r="O147" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P147" s="19">
         <v>58</v>
@@ -10344,10 +10344,10 @@
         <v>1040</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>128</v>
@@ -10381,7 +10381,7 @@
         <v>-1</v>
       </c>
       <c r="O148" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P148" s="19">
         <v>59</v>
@@ -10392,13 +10392,13 @@
         <v>1041</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E149" s="19">
         <v>4</v>
@@ -10429,7 +10429,7 @@
         <v>-1</v>
       </c>
       <c r="O149" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P149" s="19">
         <v>60</v>
@@ -10440,10 +10440,10 @@
         <v>1042</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>128</v>
@@ -10477,7 +10477,7 @@
         <v>-1</v>
       </c>
       <c r="O150" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P150" s="19">
         <v>61</v>
@@ -10488,10 +10488,10 @@
         <v>1043</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>129</v>
@@ -10525,7 +10525,7 @@
         <v>-1</v>
       </c>
       <c r="O151" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P151" s="19">
         <v>62</v>
@@ -10536,10 +10536,10 @@
         <v>1044</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>127</v>
@@ -10573,7 +10573,7 @@
         <v>-1</v>
       </c>
       <c r="O152" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P152" s="19">
         <v>63</v>
@@ -10584,13 +10584,13 @@
         <v>1045</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E153" s="19">
         <v>4</v>
@@ -10621,7 +10621,7 @@
         <v>-1</v>
       </c>
       <c r="O153" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P153" s="19">
         <v>64</v>
@@ -10632,10 +10632,10 @@
         <v>1046</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>128</v>
@@ -10669,7 +10669,7 @@
         <v>-1</v>
       </c>
       <c r="O154" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P154" s="19">
         <v>65</v>
@@ -10680,10 +10680,10 @@
         <v>1047</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>129</v>
@@ -10717,7 +10717,7 @@
         <v>-1</v>
       </c>
       <c r="O155" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P155" s="19">
         <v>22</v>
@@ -10728,10 +10728,10 @@
         <v>1048</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>127</v>
@@ -10765,7 +10765,7 @@
         <v>-1</v>
       </c>
       <c r="O156" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P156" s="19">
         <v>23</v>
@@ -10776,13 +10776,13 @@
         <v>1049</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E157" s="19">
         <v>2</v>
@@ -10813,7 +10813,7 @@
         <v>-1</v>
       </c>
       <c r="O157" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P157" s="19">
         <v>24</v>
@@ -10824,10 +10824,10 @@
         <v>1050</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>128</v>
@@ -10861,7 +10861,7 @@
         <v>-1</v>
       </c>
       <c r="O158" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P158" s="19">
         <v>25</v>
@@ -10872,10 +10872,10 @@
         <v>1051</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>129</v>
@@ -10909,7 +10909,7 @@
         <v>-1</v>
       </c>
       <c r="O159" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P159" s="19">
         <v>26</v>
@@ -10920,10 +10920,10 @@
         <v>1052</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>128</v>
@@ -10957,7 +10957,7 @@
         <v>-1</v>
       </c>
       <c r="O160" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P160" s="19">
         <v>27</v>
@@ -10968,10 +10968,10 @@
         <v>1053</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>129</v>
@@ -11005,7 +11005,7 @@
         <v>-1</v>
       </c>
       <c r="O161" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P161" s="19">
         <v>28</v>
@@ -11016,10 +11016,10 @@
         <v>1054</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>127</v>
@@ -11053,7 +11053,7 @@
         <v>-1</v>
       </c>
       <c r="O162" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P162" s="19">
         <v>29</v>
@@ -11064,10 +11064,10 @@
         <v>1055</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>128</v>
@@ -11101,7 +11101,7 @@
         <v>-1</v>
       </c>
       <c r="O163" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P163" s="19">
         <v>30</v>
@@ -11112,10 +11112,10 @@
         <v>1056</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>128</v>
@@ -11149,7 +11149,7 @@
         <v>-1</v>
       </c>
       <c r="O164" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P164" s="19">
         <v>31</v>
@@ -11160,10 +11160,10 @@
         <v>1057</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>129</v>
@@ -11197,7 +11197,7 @@
         <v>-1</v>
       </c>
       <c r="O165" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P165" s="19">
         <v>32</v>
@@ -11208,13 +11208,13 @@
         <v>1058</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E166" s="19">
         <v>5</v>
@@ -11245,7 +11245,7 @@
         <v>-1</v>
       </c>
       <c r="O166" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P166" s="19">
         <v>33</v>
@@ -11256,10 +11256,10 @@
         <v>1059</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>129</v>
@@ -11293,7 +11293,7 @@
         <v>-1</v>
       </c>
       <c r="O167" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P167" s="19">
         <v>78</v>
@@ -11304,10 +11304,10 @@
         <v>1060</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>127</v>
@@ -11341,7 +11341,7 @@
         <v>-1</v>
       </c>
       <c r="O168" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P168" s="19">
         <v>79</v>
@@ -11352,10 +11352,10 @@
         <v>1061</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>128</v>
@@ -11389,7 +11389,7 @@
         <v>-1</v>
       </c>
       <c r="O169" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P169" s="19">
         <v>80</v>
@@ -11400,10 +11400,10 @@
         <v>1062</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>128</v>
@@ -11437,7 +11437,7 @@
         <v>-1</v>
       </c>
       <c r="O170" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P170" s="19">
         <v>81</v>
@@ -11448,13 +11448,13 @@
         <v>1063</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E171" s="19">
         <v>1</v>
@@ -11485,7 +11485,7 @@
         <v>-1</v>
       </c>
       <c r="O171" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P171" s="19">
         <v>82</v>
@@ -11496,10 +11496,10 @@
         <v>1064</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>128</v>
@@ -11533,7 +11533,7 @@
         <v>-1</v>
       </c>
       <c r="O172" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P172" s="19">
         <v>83</v>
@@ -11544,10 +11544,10 @@
         <v>1065</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>129</v>
@@ -11581,7 +11581,7 @@
         <v>-1</v>
       </c>
       <c r="O173" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P173" s="19">
         <v>84</v>
@@ -11592,10 +11592,10 @@
         <v>1066</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>127</v>
@@ -11629,7 +11629,7 @@
         <v>-1</v>
       </c>
       <c r="O174" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P174" s="19">
         <v>85</v>
@@ -11640,10 +11640,10 @@
         <v>1067</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>128</v>
@@ -11677,7 +11677,7 @@
         <v>-1</v>
       </c>
       <c r="O175" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P175" s="19">
         <v>86</v>
@@ -11688,13 +11688,13 @@
         <v>1068</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E176" s="19">
         <v>1</v>
@@ -11725,7 +11725,7 @@
         <v>-1</v>
       </c>
       <c r="O176" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P176" s="19">
         <v>87</v>
@@ -11736,10 +11736,10 @@
         <v>1069</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>129</v>
@@ -11773,7 +11773,7 @@
         <v>-1</v>
       </c>
       <c r="O177" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P177" s="19">
         <v>22</v>
@@ -11784,10 +11784,10 @@
         <v>1070</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>127</v>
@@ -11821,7 +11821,7 @@
         <v>-1</v>
       </c>
       <c r="O178" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P178" s="19">
         <v>23</v>
@@ -11832,10 +11832,10 @@
         <v>1071</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>128</v>
@@ -11869,7 +11869,7 @@
         <v>-1</v>
       </c>
       <c r="O179" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P179" s="19">
         <v>24</v>
@@ -11880,10 +11880,10 @@
         <v>1072</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D180" s="18" t="s">
         <v>129</v>
@@ -11917,7 +11917,7 @@
         <v>-1</v>
       </c>
       <c r="O180" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P180" s="19">
         <v>25</v>
@@ -11928,10 +11928,10 @@
         <v>1073</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D181" s="18" t="s">
         <v>128</v>
@@ -11965,7 +11965,7 @@
         <v>-1</v>
       </c>
       <c r="O181" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P181" s="19">
         <v>26</v>
@@ -11976,10 +11976,10 @@
         <v>1074</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D182" s="18" t="s">
         <v>129</v>
@@ -12013,7 +12013,7 @@
         <v>-1</v>
       </c>
       <c r="O182" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P182" s="19">
         <v>27</v>
@@ -12024,10 +12024,10 @@
         <v>1075</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D183" s="18" t="s">
         <v>127</v>
@@ -12061,7 +12061,7 @@
         <v>-1</v>
       </c>
       <c r="O183" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P183" s="19">
         <v>28</v>
@@ -12072,10 +12072,10 @@
         <v>1076</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>128</v>
@@ -12109,7 +12109,7 @@
         <v>-1</v>
       </c>
       <c r="O184" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P184" s="19">
         <v>29</v>
@@ -12120,10 +12120,10 @@
         <v>1077</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D185" s="18" t="s">
         <v>128</v>
@@ -12157,7 +12157,7 @@
         <v>-1</v>
       </c>
       <c r="O185" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P185" s="19">
         <v>30</v>
@@ -12168,10 +12168,10 @@
         <v>1078</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>129</v>
@@ -12205,7 +12205,7 @@
         <v>-1</v>
       </c>
       <c r="O186" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P186" s="19">
         <v>31</v>
@@ -12216,10 +12216,10 @@
         <v>1079</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D187" s="18" t="s">
         <v>129</v>
@@ -12253,7 +12253,7 @@
         <v>-1</v>
       </c>
       <c r="O187" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P187" s="19">
         <v>32</v>
@@ -12264,10 +12264,10 @@
         <v>1080</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>127</v>
@@ -12301,7 +12301,7 @@
         <v>-1</v>
       </c>
       <c r="O188" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P188" s="19">
         <v>33</v>
@@ -12312,10 +12312,10 @@
         <v>1081</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>128</v>
@@ -12349,7 +12349,7 @@
         <v>-1</v>
       </c>
       <c r="O189" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P189" s="19">
         <v>100</v>
@@ -12360,10 +12360,10 @@
         <v>1082</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D190" s="18" t="s">
         <v>128</v>
@@ -12397,7 +12397,7 @@
         <v>-1</v>
       </c>
       <c r="O190" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P190" s="19">
         <v>22</v>
@@ -12408,13 +12408,13 @@
         <v>1083</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E191" s="19">
         <v>1</v>
@@ -12445,7 +12445,7 @@
         <v>-1</v>
       </c>
       <c r="O191" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P191" s="19">
         <v>23</v>
@@ -12456,10 +12456,10 @@
         <v>1084</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>128</v>
@@ -12493,7 +12493,7 @@
         <v>-1</v>
       </c>
       <c r="O192" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P192" s="19">
         <v>24</v>
@@ -12504,10 +12504,10 @@
         <v>1085</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>129</v>
@@ -12541,7 +12541,7 @@
         <v>-1</v>
       </c>
       <c r="O193" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P193" s="19">
         <v>25</v>
@@ -12552,10 +12552,10 @@
         <v>1086</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D194" s="18" t="s">
         <v>127</v>
@@ -12589,7 +12589,7 @@
         <v>-1</v>
       </c>
       <c r="O194" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P194" s="19">
         <v>26</v>
@@ -12600,10 +12600,10 @@
         <v>1087</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D195" s="18" t="s">
         <v>128</v>
@@ -12637,7 +12637,7 @@
         <v>-1</v>
       </c>
       <c r="O195" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P195" s="19">
         <v>27</v>
@@ -12648,13 +12648,13 @@
         <v>1088</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E196" s="19">
         <v>1</v>
@@ -12685,7 +12685,7 @@
         <v>-1</v>
       </c>
       <c r="O196" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P196" s="19">
         <v>28</v>
@@ -12696,10 +12696,10 @@
         <v>1089</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>129</v>
@@ -12733,7 +12733,7 @@
         <v>-1</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P197" s="19">
         <v>29</v>
@@ -12744,10 +12744,10 @@
         <v>1090</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D198" s="18" t="s">
         <v>127</v>
@@ -12781,7 +12781,7 @@
         <v>-1</v>
       </c>
       <c r="O198" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P198" s="19">
         <v>56</v>
@@ -12792,10 +12792,10 @@
         <v>1091</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>128</v>
@@ -12829,7 +12829,7 @@
         <v>-1</v>
       </c>
       <c r="O199" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P199" s="19">
         <v>57</v>
@@ -12840,10 +12840,10 @@
         <v>1092</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D200" s="18" t="s">
         <v>129</v>
@@ -12877,7 +12877,7 @@
         <v>-1</v>
       </c>
       <c r="O200" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P200" s="19">
         <v>58</v>
@@ -12888,10 +12888,10 @@
         <v>1093</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D201" s="18" t="s">
         <v>128</v>
@@ -12925,7 +12925,7 @@
         <v>-1</v>
       </c>
       <c r="O201" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P201" s="19">
         <v>59</v>
@@ -12936,10 +12936,10 @@
         <v>1094</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D202" s="18" t="s">
         <v>129</v>
@@ -12973,7 +12973,7 @@
         <v>-1</v>
       </c>
       <c r="O202" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P202" s="19">
         <v>60</v>
@@ -12984,10 +12984,10 @@
         <v>1095</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>127</v>
@@ -13021,7 +13021,7 @@
         <v>-1</v>
       </c>
       <c r="O203" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P203" s="19">
         <v>61</v>
@@ -13032,10 +13032,10 @@
         <v>1096</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D204" s="18" t="s">
         <v>128</v>
@@ -13069,7 +13069,7 @@
         <v>-1</v>
       </c>
       <c r="O204" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P204" s="19">
         <v>62</v>
@@ -13080,10 +13080,10 @@
         <v>1097</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D205" s="18" t="s">
         <v>128</v>
@@ -13117,7 +13117,7 @@
         <v>-1</v>
       </c>
       <c r="O205" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P205" s="19">
         <v>63</v>
@@ -13128,10 +13128,10 @@
         <v>1098</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>129</v>
@@ -13165,7 +13165,7 @@
         <v>-1</v>
       </c>
       <c r="O206" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P206" s="19">
         <v>64</v>
@@ -13176,13 +13176,13 @@
         <v>1099</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E207" s="19">
         <v>5</v>
@@ -13213,7 +13213,7 @@
         <v>-1</v>
       </c>
       <c r="O207" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P207" s="19">
         <v>65</v>
@@ -13224,10 +13224,10 @@
         <v>1100</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>129</v>
@@ -13261,7 +13261,7 @@
         <v>-1</v>
       </c>
       <c r="O208" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P208" s="19">
         <v>22</v>
@@ -13272,10 +13272,10 @@
         <v>1101</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>127</v>
@@ -13309,7 +13309,7 @@
         <v>-1</v>
       </c>
       <c r="O209" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P209" s="19">
         <v>23</v>
@@ -13320,10 +13320,10 @@
         <v>1102</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D210" s="18" t="s">
         <v>128</v>
@@ -13357,7 +13357,7 @@
         <v>-1</v>
       </c>
       <c r="O210" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P210" s="19">
         <v>24</v>
@@ -13368,10 +13368,10 @@
         <v>1103</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D211" s="18" t="s">
         <v>128</v>
@@ -13405,7 +13405,7 @@
         <v>-1</v>
       </c>
       <c r="O211" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P211" s="19">
         <v>25</v>
@@ -13416,13 +13416,13 @@
         <v>1104</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E212" s="19">
         <v>1</v>
@@ -13453,7 +13453,7 @@
         <v>-1</v>
       </c>
       <c r="O212" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P212" s="19">
         <v>26</v>
@@ -13464,10 +13464,10 @@
         <v>1105</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D213" s="18" t="s">
         <v>128</v>
@@ -13501,7 +13501,7 @@
         <v>-1</v>
       </c>
       <c r="O213" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P213" s="19">
         <v>90</v>
@@ -13519,7 +13519,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="L11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13540,7 +13540,7 @@
         <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14333,7 +14333,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14358,7 +14358,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>170</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -14400,10 +14400,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>157</v>
@@ -14417,10 +14417,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>158</v>
@@ -14434,10 +14434,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>159</v>
@@ -14451,10 +14451,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>160</v>
@@ -14468,10 +14468,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>161</v>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -14606,7 +14606,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C271F9C9-205D-4799-AD87-C52074CD7AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675E46B-F9B2-490E-B40C-F1C592FC26EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="2025" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="704">
   <si>
     <t>索引</t>
   </si>
@@ -2578,6 +2578,28 @@
 NxN格子
 根据等级系数相乘 四舍五入取整</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻攻击范围函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻伤害范围函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRangeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemageRangeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix3x3</t>
+  </si>
+  <si>
+    <t>Point1</t>
   </si>
 </sst>
 </file>
@@ -3048,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3059,15 +3081,16 @@
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="34.125" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
     <col min="15" max="15" width="46" customWidth="1"/>
-    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="16" max="18" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3116,8 +3139,14 @@
       <c r="P1" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3166,8 +3195,14 @@
       <c r="P2" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3216,8 +3251,14 @@
       <c r="P3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -3240,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>36</v>
@@ -3266,8 +3307,14 @@
       <c r="P4" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -3290,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>37</v>
@@ -3316,8 +3363,14 @@
       <c r="P5" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -3340,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>34</v>
@@ -3366,8 +3419,14 @@
       <c r="P6" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -3390,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>35</v>
@@ -3416,8 +3475,14 @@
       <c r="P7" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -3440,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>38</v>
@@ -3466,8 +3531,14 @@
       <c r="P8" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -3489,9 +3560,7 @@
       <c r="G9" s="9">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
-        <v>1000</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
         <v>47</v>
       </c>
@@ -3516,8 +3585,14 @@
       <c r="P9" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -3540,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>51</v>
@@ -3566,8 +3641,14 @@
       <c r="P10" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -3590,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>52</v>
@@ -3616,8 +3697,14 @@
       <c r="P11" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -3640,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>53</v>
@@ -3666,8 +3753,14 @@
       <c r="P12" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -3690,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>54</v>
@@ -3716,8 +3809,14 @@
       <c r="P13" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -3740,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>73</v>
@@ -3766,8 +3865,14 @@
       <c r="P14" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -3790,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>74</v>
@@ -3816,8 +3921,14 @@
       <c r="P15" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -3840,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>75</v>
@@ -3866,8 +3977,14 @@
       <c r="P16" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -3890,7 +4007,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>76</v>
@@ -3916,8 +4033,14 @@
       <c r="P17" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -3940,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>77</v>
@@ -3966,8 +4089,14 @@
       <c r="P18" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -3990,7 +4119,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>78</v>
@@ -4016,8 +4145,14 @@
       <c r="P19" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -4040,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>79</v>
@@ -4066,8 +4201,14 @@
       <c r="P20" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -4090,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>80</v>
@@ -4116,8 +4257,14 @@
       <c r="P21" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q21" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -4140,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>81</v>
@@ -4166,8 +4313,14 @@
       <c r="P22" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q22" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -4189,9 +4342,7 @@
       <c r="G23" s="17">
         <v>6</v>
       </c>
-      <c r="H23" s="4">
-        <v>1000</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="9" t="s">
         <v>82</v>
       </c>
@@ -4216,8 +4367,14 @@
       <c r="P23" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q23" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -4240,7 +4397,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>83</v>
@@ -4266,8 +4423,14 @@
       <c r="P24" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q24" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -4290,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>84</v>
@@ -4316,8 +4479,14 @@
       <c r="P25" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -4340,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="H26" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>85</v>
@@ -4366,8 +4535,14 @@
       <c r="P26" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -4390,7 +4565,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>86</v>
@@ -4416,8 +4591,14 @@
       <c r="P27" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q27" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -4440,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>87</v>
@@ -4466,8 +4647,14 @@
       <c r="P28" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -4490,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>88</v>
@@ -4516,8 +4703,14 @@
       <c r="P29" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -4540,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>89</v>
@@ -4566,8 +4759,14 @@
       <c r="P30" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -4590,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>90</v>
@@ -4616,8 +4815,14 @@
       <c r="P31" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q31" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -4640,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>91</v>
@@ -4666,8 +4871,14 @@
       <c r="P32" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q32" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -4690,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>92</v>
@@ -4716,8 +4927,14 @@
       <c r="P33" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -4740,7 +4957,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>93</v>
@@ -4766,8 +4983,14 @@
       <c r="P34" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q34" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -4790,7 +5013,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>94</v>
@@ -4816,8 +5039,14 @@
       <c r="P35" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -4840,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>95</v>
@@ -4866,8 +5095,14 @@
       <c r="P36" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -4890,7 +5125,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>96</v>
@@ -4916,8 +5151,14 @@
       <c r="P37" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q37" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -4940,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>97</v>
@@ -4966,8 +5207,14 @@
       <c r="P38" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -4990,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>98</v>
@@ -5016,8 +5263,14 @@
       <c r="P39" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -5040,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>99</v>
@@ -5066,8 +5319,14 @@
       <c r="P40" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q40" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -5090,7 +5349,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>100</v>
@@ -5116,8 +5375,14 @@
       <c r="P41" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q41" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -5140,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>101</v>
@@ -5166,8 +5431,14 @@
       <c r="P42" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q42" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -5190,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>102</v>
@@ -5216,8 +5487,14 @@
       <c r="P43" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q43" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -5240,7 +5517,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>103</v>
@@ -5266,8 +5543,14 @@
       <c r="P44" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q44" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -5290,7 +5573,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>104</v>
@@ -5316,8 +5599,14 @@
       <c r="P45" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q45" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -5340,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>105</v>
@@ -5366,8 +5655,14 @@
       <c r="P46" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q46" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -5390,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>106</v>
@@ -5416,8 +5711,14 @@
       <c r="P47" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q47" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -5440,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>107</v>
@@ -5466,8 +5767,14 @@
       <c r="P48" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q48" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>46</v>
       </c>
@@ -5490,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>108</v>
@@ -5516,8 +5823,14 @@
       <c r="P49" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q49" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>47</v>
       </c>
@@ -5540,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>109</v>
@@ -5566,8 +5879,14 @@
       <c r="P50" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q50" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -5590,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>110</v>
@@ -5616,8 +5935,14 @@
       <c r="P51" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q51" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>49</v>
       </c>
@@ -5640,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>111</v>
@@ -5666,8 +5991,14 @@
       <c r="P52" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q52" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>50</v>
       </c>
@@ -5690,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>112</v>
@@ -5716,8 +6047,14 @@
       <c r="P53" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q53" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>51</v>
       </c>
@@ -5740,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="H54" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>113</v>
@@ -5766,8 +6103,14 @@
       <c r="P54" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q54" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>52</v>
       </c>
@@ -5790,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>114</v>
@@ -5816,8 +6159,14 @@
       <c r="P55" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q55" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>53</v>
       </c>
@@ -5840,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>115</v>
@@ -5866,8 +6215,14 @@
       <c r="P56" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q56" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>54</v>
       </c>
@@ -5890,7 +6245,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>116</v>
@@ -5916,8 +6271,14 @@
       <c r="P57" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q57" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -5940,7 +6301,7 @@
         <v>7</v>
       </c>
       <c r="H58" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>117</v>
@@ -5966,8 +6327,14 @@
       <c r="P58" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q58" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>56</v>
       </c>
@@ -5990,7 +6357,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>118</v>
@@ -6016,8 +6383,14 @@
       <c r="P59" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q59" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>57</v>
       </c>
@@ -6039,9 +6412,7 @@
       <c r="G60" s="9">
         <v>6</v>
       </c>
-      <c r="H60" s="4">
-        <v>1000</v>
-      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
       </c>
@@ -6066,8 +6437,14 @@
       <c r="P60" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q60" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>58</v>
       </c>
@@ -6090,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>120</v>
@@ -6116,8 +6493,14 @@
       <c r="P61" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q61" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>59</v>
       </c>
@@ -6140,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>121</v>
@@ -6166,8 +6549,14 @@
       <c r="P62" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q62" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>60</v>
       </c>
@@ -6190,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>122</v>
@@ -6216,8 +6605,14 @@
       <c r="P63" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q63" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>61</v>
       </c>
@@ -6240,7 +6635,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>123</v>
@@ -6266,8 +6661,14 @@
       <c r="P64" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q64" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>62</v>
       </c>
@@ -6290,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>124</v>
@@ -6316,8 +6717,14 @@
       <c r="P65" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q65" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>63</v>
       </c>
@@ -6340,7 +6747,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>125</v>
@@ -6366,8 +6773,14 @@
       <c r="P66" s="4">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q66" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>64</v>
       </c>
@@ -6389,9 +6802,7 @@
       <c r="G67" s="9">
         <v>4</v>
       </c>
-      <c r="H67" s="4">
-        <v>1000</v>
-      </c>
+      <c r="H67" s="4"/>
       <c r="I67" s="9" t="s">
         <v>125</v>
       </c>
@@ -6416,8 +6827,14 @@
       <c r="P67" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q67" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>65</v>
       </c>
@@ -6439,9 +6856,7 @@
       <c r="G68" s="9">
         <v>5</v>
       </c>
-      <c r="H68" s="4">
-        <v>1000</v>
-      </c>
+      <c r="H68" s="4"/>
       <c r="I68" s="9" t="s">
         <v>125</v>
       </c>
@@ -6466,8 +6881,14 @@
       <c r="P68" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q68" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>66</v>
       </c>
@@ -6490,7 +6911,7 @@
         <v>6</v>
       </c>
       <c r="H69" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>125</v>
@@ -6516,8 +6937,14 @@
       <c r="P69" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q69" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>67</v>
       </c>
@@ -6540,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="H70" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>125</v>
@@ -6566,8 +6993,14 @@
       <c r="P70" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q70" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>68</v>
       </c>
@@ -6590,7 +7023,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>125</v>
@@ -6616,8 +7049,14 @@
       <c r="P71" s="4">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q71" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>69</v>
       </c>
@@ -6640,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>125</v>
@@ -6666,8 +7105,14 @@
       <c r="P72" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q72" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>70</v>
       </c>
@@ -6690,7 +7135,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>125</v>
@@ -6716,8 +7161,14 @@
       <c r="P73" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q73" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>71</v>
       </c>
@@ -6740,7 +7191,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>112</v>
@@ -6766,8 +7217,14 @@
       <c r="P74" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q74" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>72</v>
       </c>
@@ -6790,7 +7247,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>113</v>
@@ -6816,8 +7273,14 @@
       <c r="P75" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q75" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>73</v>
       </c>
@@ -6840,7 +7303,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>114</v>
@@ -6866,8 +7329,14 @@
       <c r="P76" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q76" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>74</v>
       </c>
@@ -6890,7 +7359,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>115</v>
@@ -6916,8 +7385,14 @@
       <c r="P77" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q77" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>75</v>
       </c>
@@ -6940,7 +7415,7 @@
         <v>6</v>
       </c>
       <c r="H78" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>116</v>
@@ -6966,8 +7441,14 @@
       <c r="P78" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q78" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>76</v>
       </c>
@@ -6990,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="H79" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>117</v>
@@ -7016,8 +7497,14 @@
       <c r="P79" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q79" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>77</v>
       </c>
@@ -7040,7 +7527,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>118</v>
@@ -7066,8 +7553,14 @@
       <c r="P80" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q80" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
         <v>78</v>
       </c>
@@ -7090,7 +7583,7 @@
         <v>6</v>
       </c>
       <c r="H81" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>119</v>
@@ -7116,8 +7609,14 @@
       <c r="P81" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q81" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>79</v>
       </c>
@@ -7140,7 +7639,7 @@
         <v>2</v>
       </c>
       <c r="H82" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>121</v>
@@ -7166,8 +7665,14 @@
       <c r="P82" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q82" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>80</v>
       </c>
@@ -7190,7 +7695,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>122</v>
@@ -7216,8 +7721,14 @@
       <c r="P83" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q83" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
         <v>81</v>
       </c>
@@ -7240,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="H84" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>123</v>
@@ -7266,8 +7777,14 @@
       <c r="P84" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q84" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
         <v>82</v>
       </c>
@@ -7290,7 +7807,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>124</v>
@@ -7316,8 +7833,14 @@
       <c r="P85" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q85" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="9">
         <v>83</v>
       </c>
@@ -7340,7 +7863,7 @@
         <v>3</v>
       </c>
       <c r="H86" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>125</v>
@@ -7366,8 +7889,14 @@
       <c r="P86" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q86" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -7390,7 +7919,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>125</v>
@@ -7416,8 +7945,14 @@
       <c r="P87" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q87" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -7440,7 +7975,7 @@
         <v>5</v>
       </c>
       <c r="H88" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>125</v>
@@ -7466,8 +8001,14 @@
       <c r="P88" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q88" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -7490,7 +8031,7 @@
         <v>6</v>
       </c>
       <c r="H89" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>125</v>
@@ -7516,8 +8057,14 @@
       <c r="P89" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q89" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -7540,7 +8087,7 @@
         <v>7</v>
       </c>
       <c r="H90" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>125</v>
@@ -7566,8 +8113,14 @@
       <c r="P90" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q90" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -7590,7 +8143,7 @@
         <v>8</v>
       </c>
       <c r="H91" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>125</v>
@@ -7616,8 +8169,14 @@
       <c r="P91" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q91" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -7640,7 +8199,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>125</v>
@@ -7666,8 +8225,14 @@
       <c r="P92" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q92" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -7690,7 +8255,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>125</v>
@@ -7716,8 +8281,14 @@
       <c r="P93" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q93" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -7740,7 +8311,7 @@
         <v>7</v>
       </c>
       <c r="H94" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>112</v>
@@ -7766,8 +8337,14 @@
       <c r="P94" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q94" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -7790,7 +8367,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>113</v>
@@ -7816,8 +8393,14 @@
       <c r="P95" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q95" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -7840,7 +8423,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>114</v>
@@ -7866,8 +8449,14 @@
       <c r="P96" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q96" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -7890,7 +8479,7 @@
         <v>5</v>
       </c>
       <c r="H97" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>115</v>
@@ -7916,8 +8505,14 @@
       <c r="P97" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q97" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -7940,7 +8535,7 @@
         <v>6</v>
       </c>
       <c r="H98" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>116</v>
@@ -7966,8 +8561,14 @@
       <c r="P98" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q98" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -7990,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>117</v>
@@ -8016,8 +8617,14 @@
       <c r="P99" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q99" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -8040,7 +8647,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>118</v>
@@ -8066,8 +8673,14 @@
       <c r="P100" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q100" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -8090,7 +8703,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>119</v>
@@ -8116,8 +8729,14 @@
       <c r="P101" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q101" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -8140,7 +8759,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>120</v>
@@ -8166,8 +8785,14 @@
       <c r="P102" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q102" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -8190,7 +8815,7 @@
         <v>2</v>
       </c>
       <c r="H103" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>121</v>
@@ -8216,8 +8841,14 @@
       <c r="P103" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q103" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -8240,7 +8871,7 @@
         <v>3</v>
       </c>
       <c r="H104" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>122</v>
@@ -8266,8 +8897,14 @@
       <c r="P104" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q104" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -8290,7 +8927,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="4">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>123</v>
@@ -8316,8 +8953,14 @@
       <c r="P105" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q105" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -8340,7 +8983,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="4">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>124</v>
@@ -8366,8 +9009,14 @@
       <c r="P106" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q106" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -8390,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="4">
-        <v>1000</v>
+        <v>4001</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>125</v>
@@ -8416,8 +9065,14 @@
       <c r="P107" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q107" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -8440,7 +9095,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>125</v>
@@ -8466,8 +9121,14 @@
       <c r="P108" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q108" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="18">
         <v>1001</v>
       </c>
@@ -8489,8 +9150,8 @@
       <c r="G109" s="18">
         <v>1</v>
       </c>
-      <c r="H109" s="19">
-        <v>1000</v>
+      <c r="H109" s="4">
+        <v>1002</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="19">
@@ -8514,8 +9175,14 @@
       <c r="P109" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q109" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="18">
         <v>1002</v>
       </c>
@@ -8537,8 +9204,8 @@
       <c r="G110" s="18">
         <v>2</v>
       </c>
-      <c r="H110" s="19">
-        <v>1000</v>
+      <c r="H110" s="4">
+        <v>2001</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="19">
@@ -8562,8 +9229,14 @@
       <c r="P110" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q110" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="18">
         <v>1003</v>
       </c>
@@ -8585,8 +9258,8 @@
       <c r="G111" s="18">
         <v>3</v>
       </c>
-      <c r="H111" s="19">
-        <v>1000</v>
+      <c r="H111" s="4">
+        <v>3001</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="19">
@@ -8610,8 +9283,14 @@
       <c r="P111" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q111" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="18">
         <v>1004</v>
       </c>
@@ -8633,8 +9312,8 @@
       <c r="G112" s="18">
         <v>4</v>
       </c>
-      <c r="H112" s="19">
-        <v>1000</v>
+      <c r="H112" s="4">
+        <v>4001</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="19">
@@ -8658,8 +9337,14 @@
       <c r="P112" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q112" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="18">
         <v>1005</v>
       </c>
@@ -8681,8 +9366,8 @@
       <c r="G113" s="18">
         <v>5</v>
       </c>
-      <c r="H113" s="19">
-        <v>1000</v>
+      <c r="H113" s="4">
+        <v>4001</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="19">
@@ -8706,8 +9391,14 @@
       <c r="P113" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q113" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="18">
         <v>1006</v>
       </c>
@@ -8729,9 +9420,7 @@
       <c r="G114" s="18">
         <v>6</v>
       </c>
-      <c r="H114" s="19">
-        <v>1000</v>
-      </c>
+      <c r="H114" s="4"/>
       <c r="I114" s="18"/>
       <c r="J114" s="19">
         <v>0</v>
@@ -8754,8 +9443,14 @@
       <c r="P114" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q114" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R114" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="18">
         <v>1007</v>
       </c>
@@ -8777,8 +9472,8 @@
       <c r="G115" s="18">
         <v>7</v>
       </c>
-      <c r="H115" s="19">
-        <v>1000</v>
+      <c r="H115" s="4">
+        <v>1002</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="19">
@@ -8802,8 +9497,14 @@
       <c r="P115" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q115" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="18">
         <v>1008</v>
       </c>
@@ -8825,8 +9526,8 @@
       <c r="G116" s="18">
         <v>2</v>
       </c>
-      <c r="H116" s="19">
-        <v>1000</v>
+      <c r="H116" s="4">
+        <v>2001</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="19">
@@ -8850,8 +9551,14 @@
       <c r="P116" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q116" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R116" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="18">
         <v>1009</v>
       </c>
@@ -8873,8 +9580,8 @@
       <c r="G117" s="18">
         <v>3</v>
       </c>
-      <c r="H117" s="19">
-        <v>1000</v>
+      <c r="H117" s="4">
+        <v>3001</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="19">
@@ -8898,8 +9605,14 @@
       <c r="P117" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q117" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="18">
         <v>1010</v>
       </c>
@@ -8921,8 +9634,8 @@
       <c r="G118" s="18">
         <v>4</v>
       </c>
-      <c r="H118" s="19">
-        <v>1000</v>
+      <c r="H118" s="4">
+        <v>4001</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="19">
@@ -8946,8 +9659,14 @@
       <c r="P118" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q118" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R118" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="18">
         <v>1011</v>
       </c>
@@ -8969,8 +9688,8 @@
       <c r="G119" s="18">
         <v>5</v>
       </c>
-      <c r="H119" s="19">
-        <v>1000</v>
+      <c r="H119" s="4">
+        <v>1001</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="19">
@@ -8994,8 +9713,14 @@
       <c r="P119" s="19">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q119" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="18">
         <v>1012</v>
       </c>
@@ -9017,8 +9742,8 @@
       <c r="G120" s="18">
         <v>3</v>
       </c>
-      <c r="H120" s="19">
-        <v>1000</v>
+      <c r="H120" s="4">
+        <v>1002</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="19">
@@ -9042,8 +9767,14 @@
       <c r="P120" s="19">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q120" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R120" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="18">
         <v>1013</v>
       </c>
@@ -9065,8 +9796,8 @@
       <c r="G121" s="18">
         <v>4</v>
       </c>
-      <c r="H121" s="19">
-        <v>1000</v>
+      <c r="H121" s="4">
+        <v>2001</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="19">
@@ -9090,8 +9821,14 @@
       <c r="P121" s="19">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q121" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R121" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="18">
         <v>1014</v>
       </c>
@@ -9113,8 +9850,8 @@
       <c r="G122" s="18">
         <v>5</v>
       </c>
-      <c r="H122" s="19">
-        <v>1000</v>
+      <c r="H122" s="4">
+        <v>3001</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="19">
@@ -9138,8 +9875,14 @@
       <c r="P122" s="19">
         <v>33</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q122" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R122" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="18">
         <v>1015</v>
       </c>
@@ -9161,8 +9904,8 @@
       <c r="G123" s="18">
         <v>6</v>
       </c>
-      <c r="H123" s="19">
-        <v>1000</v>
+      <c r="H123" s="4">
+        <v>4001</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="19">
@@ -9186,8 +9929,14 @@
       <c r="P123" s="19">
         <v>34</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q123" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R123" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="18">
         <v>1016</v>
       </c>
@@ -9209,8 +9958,8 @@
       <c r="G124" s="18">
         <v>7</v>
       </c>
-      <c r="H124" s="19">
-        <v>1000</v>
+      <c r="H124" s="4">
+        <v>1001</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="19">
@@ -9234,8 +9983,14 @@
       <c r="P124" s="19">
         <v>35</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q124" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R124" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" s="18">
         <v>1017</v>
       </c>
@@ -9257,8 +10012,8 @@
       <c r="G125" s="18">
         <v>8</v>
       </c>
-      <c r="H125" s="19">
-        <v>1000</v>
+      <c r="H125" s="4">
+        <v>1002</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="19">
@@ -9282,8 +10037,14 @@
       <c r="P125" s="19">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q125" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R125" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126" s="18">
         <v>1018</v>
       </c>
@@ -9305,8 +10066,8 @@
       <c r="G126" s="20">
         <v>4</v>
       </c>
-      <c r="H126" s="19">
-        <v>1000</v>
+      <c r="H126" s="4">
+        <v>2001</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="19">
@@ -9330,8 +10091,14 @@
       <c r="P126" s="19">
         <v>37</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q126" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127" s="18">
         <v>1019</v>
       </c>
@@ -9353,8 +10120,8 @@
       <c r="G127" s="20">
         <v>5</v>
       </c>
-      <c r="H127" s="19">
-        <v>1000</v>
+      <c r="H127" s="4">
+        <v>3001</v>
       </c>
       <c r="I127" s="18"/>
       <c r="J127" s="19">
@@ -9378,8 +10145,14 @@
       <c r="P127" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q127" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R127" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128" s="18">
         <v>1020</v>
       </c>
@@ -9401,8 +10174,8 @@
       <c r="G128" s="20">
         <v>6</v>
       </c>
-      <c r="H128" s="19">
-        <v>1000</v>
+      <c r="H128" s="4">
+        <v>4001</v>
       </c>
       <c r="I128" s="18"/>
       <c r="J128" s="19">
@@ -9426,8 +10199,14 @@
       <c r="P128" s="19">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q128" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R128" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129" s="18">
         <v>1021</v>
       </c>
@@ -9449,9 +10228,7 @@
       <c r="G129" s="20">
         <v>7</v>
       </c>
-      <c r="H129" s="19">
-        <v>1000</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="18"/>
       <c r="J129" s="19">
         <v>0</v>
@@ -9474,8 +10251,14 @@
       <c r="P129" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q129" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R129" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130" s="18">
         <v>1022</v>
       </c>
@@ -9497,8 +10280,8 @@
       <c r="G130" s="18">
         <v>5</v>
       </c>
-      <c r="H130" s="19">
-        <v>1000</v>
+      <c r="H130" s="4">
+        <v>1002</v>
       </c>
       <c r="I130" s="18"/>
       <c r="J130" s="19">
@@ -9522,8 +10305,14 @@
       <c r="P130" s="19">
         <v>41</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q130" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R130" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131" s="18">
         <v>1023</v>
       </c>
@@ -9545,8 +10334,8 @@
       <c r="G131" s="18">
         <v>6</v>
       </c>
-      <c r="H131" s="19">
-        <v>1000</v>
+      <c r="H131" s="4">
+        <v>2001</v>
       </c>
       <c r="I131" s="18"/>
       <c r="J131" s="19">
@@ -9570,8 +10359,14 @@
       <c r="P131" s="19">
         <v>42</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q131" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R131" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132" s="18">
         <v>1024</v>
       </c>
@@ -9593,8 +10388,8 @@
       <c r="G132" s="18">
         <v>7</v>
       </c>
-      <c r="H132" s="19">
-        <v>1000</v>
+      <c r="H132" s="4">
+        <v>3001</v>
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="19">
@@ -9618,8 +10413,14 @@
       <c r="P132" s="19">
         <v>43</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q132" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R132" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133" s="18">
         <v>1025</v>
       </c>
@@ -9641,8 +10442,8 @@
       <c r="G133" s="18">
         <v>2</v>
       </c>
-      <c r="H133" s="19">
-        <v>1000</v>
+      <c r="H133" s="4">
+        <v>4001</v>
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="19">
@@ -9666,8 +10467,14 @@
       <c r="P133" s="19">
         <v>44</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q133" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R133" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134" s="18">
         <v>1026</v>
       </c>
@@ -9689,8 +10496,8 @@
       <c r="G134" s="18">
         <v>3</v>
       </c>
-      <c r="H134" s="19">
-        <v>1000</v>
+      <c r="H134" s="4">
+        <v>1001</v>
       </c>
       <c r="I134" s="18"/>
       <c r="J134" s="19">
@@ -9714,8 +10521,14 @@
       <c r="P134" s="19">
         <v>45</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q134" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R134" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135" s="18">
         <v>1027</v>
       </c>
@@ -9737,8 +10550,8 @@
       <c r="G135" s="18">
         <v>4</v>
       </c>
-      <c r="H135" s="19">
-        <v>1000</v>
+      <c r="H135" s="4">
+        <v>1002</v>
       </c>
       <c r="I135" s="18"/>
       <c r="J135" s="19">
@@ -9762,8 +10575,14 @@
       <c r="P135" s="19">
         <v>46</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q135" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R135" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" s="18">
         <v>1028</v>
       </c>
@@ -9785,8 +10604,8 @@
       <c r="G136" s="18">
         <v>5</v>
       </c>
-      <c r="H136" s="19">
-        <v>1000</v>
+      <c r="H136" s="4">
+        <v>2001</v>
       </c>
       <c r="I136" s="18"/>
       <c r="J136" s="19">
@@ -9810,8 +10629,14 @@
       <c r="P136" s="19">
         <v>47</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q136" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R136" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137" s="18">
         <v>1029</v>
       </c>
@@ -9833,8 +10658,8 @@
       <c r="G137" s="18">
         <v>3</v>
       </c>
-      <c r="H137" s="19">
-        <v>1000</v>
+      <c r="H137" s="4">
+        <v>3001</v>
       </c>
       <c r="I137" s="18"/>
       <c r="J137" s="19">
@@ -9858,8 +10683,14 @@
       <c r="P137" s="19">
         <v>48</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q137" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R137" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" s="18">
         <v>1030</v>
       </c>
@@ -9881,8 +10712,8 @@
       <c r="G138" s="18">
         <v>4</v>
       </c>
-      <c r="H138" s="19">
-        <v>1000</v>
+      <c r="H138" s="4">
+        <v>4001</v>
       </c>
       <c r="I138" s="18"/>
       <c r="J138" s="19">
@@ -9906,8 +10737,14 @@
       <c r="P138" s="19">
         <v>49</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q138" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R138" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" s="18">
         <v>1031</v>
       </c>
@@ -9929,8 +10766,8 @@
       <c r="G139" s="18">
         <v>5</v>
       </c>
-      <c r="H139" s="19">
-        <v>1000</v>
+      <c r="H139" s="4">
+        <v>4001</v>
       </c>
       <c r="I139" s="18"/>
       <c r="J139" s="19">
@@ -9954,8 +10791,14 @@
       <c r="P139" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q139" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R139" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" s="18">
         <v>1032</v>
       </c>
@@ -9977,8 +10820,8 @@
       <c r="G140" s="18">
         <v>6</v>
       </c>
-      <c r="H140" s="19">
-        <v>1000</v>
+      <c r="H140" s="4">
+        <v>1001</v>
       </c>
       <c r="I140" s="18"/>
       <c r="J140" s="19">
@@ -10002,8 +10845,14 @@
       <c r="P140" s="19">
         <v>51</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q140" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R140" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" s="18">
         <v>1033</v>
       </c>
@@ -10025,8 +10874,8 @@
       <c r="G141" s="18">
         <v>7</v>
       </c>
-      <c r="H141" s="19">
-        <v>1000</v>
+      <c r="H141" s="4">
+        <v>1002</v>
       </c>
       <c r="I141" s="18"/>
       <c r="J141" s="19">
@@ -10050,8 +10899,14 @@
       <c r="P141" s="19">
         <v>52</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q141" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R141" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142" s="18">
         <v>1034</v>
       </c>
@@ -10073,8 +10928,8 @@
       <c r="G142" s="18">
         <v>8</v>
       </c>
-      <c r="H142" s="19">
-        <v>1000</v>
+      <c r="H142" s="4">
+        <v>2001</v>
       </c>
       <c r="I142" s="18"/>
       <c r="J142" s="19">
@@ -10098,8 +10953,14 @@
       <c r="P142" s="19">
         <v>53</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q142" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R142" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143" s="18">
         <v>1035</v>
       </c>
@@ -10121,8 +10982,8 @@
       <c r="G143" s="20">
         <v>4</v>
       </c>
-      <c r="H143" s="19">
-        <v>1000</v>
+      <c r="H143" s="4">
+        <v>3001</v>
       </c>
       <c r="I143" s="18"/>
       <c r="J143" s="19">
@@ -10146,8 +11007,14 @@
       <c r="P143" s="19">
         <v>54</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q143" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R143" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144" s="18">
         <v>1036</v>
       </c>
@@ -10169,8 +11036,8 @@
       <c r="G144" s="20">
         <v>5</v>
       </c>
-      <c r="H144" s="19">
-        <v>1000</v>
+      <c r="H144" s="4">
+        <v>4001</v>
       </c>
       <c r="I144" s="18"/>
       <c r="J144" s="19">
@@ -10194,8 +11061,14 @@
       <c r="P144" s="19">
         <v>55</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q144" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R144" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145" s="18">
         <v>1037</v>
       </c>
@@ -10217,8 +11090,8 @@
       <c r="G145" s="20">
         <v>6</v>
       </c>
-      <c r="H145" s="19">
-        <v>1000</v>
+      <c r="H145" s="4">
+        <v>1001</v>
       </c>
       <c r="I145" s="18"/>
       <c r="J145" s="19">
@@ -10242,8 +11115,14 @@
       <c r="P145" s="19">
         <v>56</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q145" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R145" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146" s="18">
         <v>1038</v>
       </c>
@@ -10265,8 +11144,8 @@
       <c r="G146" s="20">
         <v>7</v>
       </c>
-      <c r="H146" s="19">
-        <v>1000</v>
+      <c r="H146" s="4">
+        <v>1002</v>
       </c>
       <c r="I146" s="18"/>
       <c r="J146" s="19">
@@ -10290,8 +11169,14 @@
       <c r="P146" s="19">
         <v>57</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q146" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R146" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147" s="18">
         <v>1039</v>
       </c>
@@ -10313,8 +11198,8 @@
       <c r="G147" s="18">
         <v>5</v>
       </c>
-      <c r="H147" s="19">
-        <v>1000</v>
+      <c r="H147" s="4">
+        <v>2001</v>
       </c>
       <c r="I147" s="18"/>
       <c r="J147" s="19">
@@ -10338,8 +11223,14 @@
       <c r="P147" s="19">
         <v>58</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q147" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R147" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148" s="18">
         <v>1040</v>
       </c>
@@ -10361,8 +11252,8 @@
       <c r="G148" s="18">
         <v>6</v>
       </c>
-      <c r="H148" s="19">
-        <v>1000</v>
+      <c r="H148" s="4">
+        <v>3001</v>
       </c>
       <c r="I148" s="18"/>
       <c r="J148" s="19">
@@ -10386,8 +11277,14 @@
       <c r="P148" s="19">
         <v>59</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q148" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R148" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149" s="18">
         <v>1041</v>
       </c>
@@ -10409,8 +11306,8 @@
       <c r="G149" s="18">
         <v>7</v>
       </c>
-      <c r="H149" s="19">
-        <v>1000</v>
+      <c r="H149" s="4">
+        <v>4001</v>
       </c>
       <c r="I149" s="18"/>
       <c r="J149" s="19">
@@ -10434,8 +11331,14 @@
       <c r="P149" s="19">
         <v>60</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q149" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R149" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150" s="18">
         <v>1042</v>
       </c>
@@ -10457,8 +11360,8 @@
       <c r="G150" s="18">
         <v>2</v>
       </c>
-      <c r="H150" s="19">
-        <v>1000</v>
+      <c r="H150" s="4">
+        <v>1001</v>
       </c>
       <c r="I150" s="18"/>
       <c r="J150" s="19">
@@ -10482,8 +11385,14 @@
       <c r="P150" s="19">
         <v>61</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q150" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R150" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151" s="18">
         <v>1043</v>
       </c>
@@ -10505,8 +11414,8 @@
       <c r="G151" s="18">
         <v>3</v>
       </c>
-      <c r="H151" s="19">
-        <v>1000</v>
+      <c r="H151" s="4">
+        <v>1002</v>
       </c>
       <c r="I151" s="18"/>
       <c r="J151" s="19">
@@ -10530,8 +11439,14 @@
       <c r="P151" s="19">
         <v>62</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q151" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R151" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152" s="18">
         <v>1044</v>
       </c>
@@ -10553,8 +11468,8 @@
       <c r="G152" s="18">
         <v>4</v>
       </c>
-      <c r="H152" s="19">
-        <v>1000</v>
+      <c r="H152" s="4">
+        <v>2001</v>
       </c>
       <c r="I152" s="18"/>
       <c r="J152" s="19">
@@ -10578,8 +11493,14 @@
       <c r="P152" s="19">
         <v>63</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q152" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R152" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153" s="18">
         <v>1045</v>
       </c>
@@ -10601,8 +11522,8 @@
       <c r="G153" s="18">
         <v>5</v>
       </c>
-      <c r="H153" s="19">
-        <v>1000</v>
+      <c r="H153" s="4">
+        <v>3001</v>
       </c>
       <c r="I153" s="18"/>
       <c r="J153" s="19">
@@ -10626,8 +11547,14 @@
       <c r="P153" s="19">
         <v>64</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q153" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R153" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154" s="18">
         <v>1046</v>
       </c>
@@ -10649,8 +11576,8 @@
       <c r="G154" s="18">
         <v>3</v>
       </c>
-      <c r="H154" s="19">
-        <v>1000</v>
+      <c r="H154" s="4">
+        <v>4001</v>
       </c>
       <c r="I154" s="18"/>
       <c r="J154" s="19">
@@ -10674,8 +11601,14 @@
       <c r="P154" s="19">
         <v>65</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q154" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R154" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A155" s="18">
         <v>1047</v>
       </c>
@@ -10697,8 +11630,8 @@
       <c r="G155" s="18">
         <v>4</v>
       </c>
-      <c r="H155" s="19">
-        <v>1000</v>
+      <c r="H155" s="4">
+        <v>1001</v>
       </c>
       <c r="I155" s="18"/>
       <c r="J155" s="19">
@@ -10722,8 +11655,14 @@
       <c r="P155" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q155" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R155" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156" s="18">
         <v>1048</v>
       </c>
@@ -10745,8 +11684,8 @@
       <c r="G156" s="18">
         <v>5</v>
       </c>
-      <c r="H156" s="19">
-        <v>1000</v>
+      <c r="H156" s="4">
+        <v>1002</v>
       </c>
       <c r="I156" s="18"/>
       <c r="J156" s="19">
@@ -10770,8 +11709,14 @@
       <c r="P156" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q156" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157" s="18">
         <v>1049</v>
       </c>
@@ -10793,8 +11738,8 @@
       <c r="G157" s="18">
         <v>6</v>
       </c>
-      <c r="H157" s="19">
-        <v>1000</v>
+      <c r="H157" s="4">
+        <v>2001</v>
       </c>
       <c r="I157" s="18"/>
       <c r="J157" s="19">
@@ -10818,8 +11763,14 @@
       <c r="P157" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q157" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R157" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158" s="18">
         <v>1050</v>
       </c>
@@ -10841,8 +11792,8 @@
       <c r="G158" s="18">
         <v>7</v>
       </c>
-      <c r="H158" s="19">
-        <v>1000</v>
+      <c r="H158" s="4">
+        <v>3001</v>
       </c>
       <c r="I158" s="18"/>
       <c r="J158" s="19">
@@ -10866,8 +11817,14 @@
       <c r="P158" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q158" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R158" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159" s="18">
         <v>1051</v>
       </c>
@@ -10889,8 +11846,8 @@
       <c r="G159" s="18">
         <v>8</v>
       </c>
-      <c r="H159" s="19">
-        <v>1000</v>
+      <c r="H159" s="4">
+        <v>4001</v>
       </c>
       <c r="I159" s="18"/>
       <c r="J159" s="19">
@@ -10914,8 +11871,14 @@
       <c r="P159" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q159" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R159" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" s="18">
         <v>1052</v>
       </c>
@@ -10937,8 +11900,8 @@
       <c r="G160" s="20">
         <v>4</v>
       </c>
-      <c r="H160" s="19">
-        <v>1000</v>
+      <c r="H160" s="4">
+        <v>1001</v>
       </c>
       <c r="I160" s="18"/>
       <c r="J160" s="19">
@@ -10962,8 +11925,14 @@
       <c r="P160" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q160" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R160" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161" s="18">
         <v>1053</v>
       </c>
@@ -10985,8 +11954,8 @@
       <c r="G161" s="20">
         <v>5</v>
       </c>
-      <c r="H161" s="19">
-        <v>1000</v>
+      <c r="H161" s="4">
+        <v>1002</v>
       </c>
       <c r="I161" s="18"/>
       <c r="J161" s="19">
@@ -11010,8 +11979,14 @@
       <c r="P161" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q161" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R161" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A162" s="18">
         <v>1054</v>
       </c>
@@ -11033,8 +12008,8 @@
       <c r="G162" s="20">
         <v>6</v>
       </c>
-      <c r="H162" s="19">
-        <v>1000</v>
+      <c r="H162" s="4">
+        <v>2001</v>
       </c>
       <c r="I162" s="18"/>
       <c r="J162" s="19">
@@ -11058,8 +12033,14 @@
       <c r="P162" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q162" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R162" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A163" s="18">
         <v>1055</v>
       </c>
@@ -11081,8 +12062,8 @@
       <c r="G163" s="20">
         <v>7</v>
       </c>
-      <c r="H163" s="19">
-        <v>1000</v>
+      <c r="H163" s="4">
+        <v>3001</v>
       </c>
       <c r="I163" s="18"/>
       <c r="J163" s="19">
@@ -11106,8 +12087,14 @@
       <c r="P163" s="19">
         <v>30</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q163" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R163" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A164" s="18">
         <v>1056</v>
       </c>
@@ -11129,8 +12116,8 @@
       <c r="G164" s="18">
         <v>5</v>
       </c>
-      <c r="H164" s="19">
-        <v>1000</v>
+      <c r="H164" s="4">
+        <v>4001</v>
       </c>
       <c r="I164" s="18"/>
       <c r="J164" s="19">
@@ -11154,8 +12141,14 @@
       <c r="P164" s="19">
         <v>31</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q164" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R164" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A165" s="18">
         <v>1057</v>
       </c>
@@ -11177,8 +12170,8 @@
       <c r="G165" s="18">
         <v>6</v>
       </c>
-      <c r="H165" s="19">
-        <v>1000</v>
+      <c r="H165" s="4">
+        <v>1001</v>
       </c>
       <c r="I165" s="18"/>
       <c r="J165" s="19">
@@ -11202,8 +12195,14 @@
       <c r="P165" s="19">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q165" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R165" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A166" s="18">
         <v>1058</v>
       </c>
@@ -11225,9 +12224,7 @@
       <c r="G166" s="18">
         <v>7</v>
       </c>
-      <c r="H166" s="19">
-        <v>1000</v>
-      </c>
+      <c r="H166" s="4"/>
       <c r="I166" s="18"/>
       <c r="J166" s="19">
         <v>0</v>
@@ -11250,8 +12247,14 @@
       <c r="P166" s="19">
         <v>33</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q166" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R166" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167" s="18">
         <v>1059</v>
       </c>
@@ -11273,8 +12276,8 @@
       <c r="G167" s="18">
         <v>2</v>
       </c>
-      <c r="H167" s="19">
-        <v>1000</v>
+      <c r="H167" s="4">
+        <v>2001</v>
       </c>
       <c r="I167" s="18"/>
       <c r="J167" s="19">
@@ -11298,8 +12301,14 @@
       <c r="P167" s="19">
         <v>78</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q167" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R167" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A168" s="18">
         <v>1060</v>
       </c>
@@ -11321,8 +12330,8 @@
       <c r="G168" s="18">
         <v>3</v>
       </c>
-      <c r="H168" s="19">
-        <v>1000</v>
+      <c r="H168" s="4">
+        <v>3001</v>
       </c>
       <c r="I168" s="18"/>
       <c r="J168" s="19">
@@ -11346,8 +12355,14 @@
       <c r="P168" s="19">
         <v>79</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q168" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R168" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A169" s="18">
         <v>1061</v>
       </c>
@@ -11369,8 +12384,8 @@
       <c r="G169" s="18">
         <v>4</v>
       </c>
-      <c r="H169" s="19">
-        <v>1000</v>
+      <c r="H169" s="4">
+        <v>4001</v>
       </c>
       <c r="I169" s="18"/>
       <c r="J169" s="19">
@@ -11394,8 +12409,14 @@
       <c r="P169" s="19">
         <v>80</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q169" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R169" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A170" s="18">
         <v>1062</v>
       </c>
@@ -11417,8 +12438,8 @@
       <c r="G170" s="18">
         <v>5</v>
       </c>
-      <c r="H170" s="19">
-        <v>1000</v>
+      <c r="H170" s="4">
+        <v>4001</v>
       </c>
       <c r="I170" s="18"/>
       <c r="J170" s="19">
@@ -11442,8 +12463,14 @@
       <c r="P170" s="19">
         <v>81</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q170" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R170" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A171" s="18">
         <v>1063</v>
       </c>
@@ -11465,8 +12492,8 @@
       <c r="G171" s="18">
         <v>3</v>
       </c>
-      <c r="H171" s="19">
-        <v>1000</v>
+      <c r="H171" s="4">
+        <v>1001</v>
       </c>
       <c r="I171" s="18"/>
       <c r="J171" s="19">
@@ -11490,8 +12517,14 @@
       <c r="P171" s="19">
         <v>82</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q171" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R171" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A172" s="18">
         <v>1064</v>
       </c>
@@ -11513,9 +12546,7 @@
       <c r="G172" s="18">
         <v>4</v>
       </c>
-      <c r="H172" s="19">
-        <v>1000</v>
-      </c>
+      <c r="H172" s="4"/>
       <c r="I172" s="18"/>
       <c r="J172" s="19">
         <v>0</v>
@@ -11538,8 +12569,14 @@
       <c r="P172" s="19">
         <v>83</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q172" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R172" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A173" s="18">
         <v>1065</v>
       </c>
@@ -11561,9 +12598,7 @@
       <c r="G173" s="18">
         <v>5</v>
       </c>
-      <c r="H173" s="19">
-        <v>1000</v>
-      </c>
+      <c r="H173" s="4"/>
       <c r="I173" s="18"/>
       <c r="J173" s="19">
         <v>0</v>
@@ -11586,8 +12621,14 @@
       <c r="P173" s="19">
         <v>84</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q173" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R173" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A174" s="18">
         <v>1066</v>
       </c>
@@ -11609,8 +12650,8 @@
       <c r="G174" s="18">
         <v>6</v>
       </c>
-      <c r="H174" s="19">
-        <v>1000</v>
+      <c r="H174" s="4">
+        <v>3001</v>
       </c>
       <c r="I174" s="18"/>
       <c r="J174" s="19">
@@ -11634,8 +12675,14 @@
       <c r="P174" s="19">
         <v>85</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q174" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R174" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A175" s="18">
         <v>1067</v>
       </c>
@@ -11657,8 +12704,8 @@
       <c r="G175" s="18">
         <v>7</v>
       </c>
-      <c r="H175" s="19">
-        <v>1000</v>
+      <c r="H175" s="4">
+        <v>4001</v>
       </c>
       <c r="I175" s="18"/>
       <c r="J175" s="19">
@@ -11682,8 +12729,14 @@
       <c r="P175" s="19">
         <v>86</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q175" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R175" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A176" s="18">
         <v>1068</v>
       </c>
@@ -11705,8 +12758,8 @@
       <c r="G176" s="18">
         <v>8</v>
       </c>
-      <c r="H176" s="19">
-        <v>1000</v>
+      <c r="H176" s="4">
+        <v>1001</v>
       </c>
       <c r="I176" s="18"/>
       <c r="J176" s="19">
@@ -11730,8 +12783,14 @@
       <c r="P176" s="19">
         <v>87</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q176" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R176" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A177" s="18">
         <v>1069</v>
       </c>
@@ -11753,8 +12812,8 @@
       <c r="G177" s="20">
         <v>4</v>
       </c>
-      <c r="H177" s="19">
-        <v>1000</v>
+      <c r="H177" s="4">
+        <v>1002</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="19">
@@ -11778,8 +12837,14 @@
       <c r="P177" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q177" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R177" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A178" s="18">
         <v>1070</v>
       </c>
@@ -11801,8 +12866,8 @@
       <c r="G178" s="20">
         <v>5</v>
       </c>
-      <c r="H178" s="19">
-        <v>1000</v>
+      <c r="H178" s="4">
+        <v>2001</v>
       </c>
       <c r="I178" s="18"/>
       <c r="J178" s="19">
@@ -11826,8 +12891,14 @@
       <c r="P178" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q178" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R178" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A179" s="18">
         <v>1071</v>
       </c>
@@ -11849,8 +12920,8 @@
       <c r="G179" s="18">
         <v>7</v>
       </c>
-      <c r="H179" s="19">
-        <v>1000</v>
+      <c r="H179" s="4">
+        <v>3001</v>
       </c>
       <c r="I179" s="18"/>
       <c r="J179" s="19">
@@ -11874,8 +12945,14 @@
       <c r="P179" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q179" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R179" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A180" s="18">
         <v>1072</v>
       </c>
@@ -11897,8 +12974,8 @@
       <c r="G180" s="18">
         <v>8</v>
       </c>
-      <c r="H180" s="19">
-        <v>1000</v>
+      <c r="H180" s="4">
+        <v>4001</v>
       </c>
       <c r="I180" s="18"/>
       <c r="J180" s="19">
@@ -11922,8 +12999,14 @@
       <c r="P180" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q180" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R180" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A181" s="18">
         <v>1073</v>
       </c>
@@ -11945,8 +13028,8 @@
       <c r="G181" s="20">
         <v>4</v>
       </c>
-      <c r="H181" s="19">
-        <v>1000</v>
+      <c r="H181" s="4">
+        <v>1001</v>
       </c>
       <c r="I181" s="18"/>
       <c r="J181" s="19">
@@ -11970,8 +13053,14 @@
       <c r="P181" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q181" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R181" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A182" s="18">
         <v>1074</v>
       </c>
@@ -11993,8 +13082,8 @@
       <c r="G182" s="20">
         <v>5</v>
       </c>
-      <c r="H182" s="19">
-        <v>1000</v>
+      <c r="H182" s="4">
+        <v>1002</v>
       </c>
       <c r="I182" s="18"/>
       <c r="J182" s="19">
@@ -12018,8 +13107,14 @@
       <c r="P182" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q182" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R182" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A183" s="18">
         <v>1075</v>
       </c>
@@ -12041,8 +13136,8 @@
       <c r="G183" s="20">
         <v>6</v>
       </c>
-      <c r="H183" s="19">
-        <v>1000</v>
+      <c r="H183" s="4">
+        <v>2001</v>
       </c>
       <c r="I183" s="18"/>
       <c r="J183" s="19">
@@ -12066,8 +13161,14 @@
       <c r="P183" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q183" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R183" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A184" s="18">
         <v>1076</v>
       </c>
@@ -12089,8 +13190,8 @@
       <c r="G184" s="20">
         <v>7</v>
       </c>
-      <c r="H184" s="19">
-        <v>1000</v>
+      <c r="H184" s="4">
+        <v>3001</v>
       </c>
       <c r="I184" s="18"/>
       <c r="J184" s="19">
@@ -12114,8 +13215,14 @@
       <c r="P184" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q184" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R184" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A185" s="18">
         <v>1077</v>
       </c>
@@ -12137,8 +13244,8 @@
       <c r="G185" s="18">
         <v>5</v>
       </c>
-      <c r="H185" s="19">
-        <v>1000</v>
+      <c r="H185" s="4">
+        <v>4001</v>
       </c>
       <c r="I185" s="18"/>
       <c r="J185" s="19">
@@ -12162,8 +13269,14 @@
       <c r="P185" s="19">
         <v>30</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q185" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R185" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A186" s="18">
         <v>1078</v>
       </c>
@@ -12185,8 +13298,8 @@
       <c r="G186" s="18">
         <v>6</v>
       </c>
-      <c r="H186" s="19">
-        <v>1000</v>
+      <c r="H186" s="4">
+        <v>1001</v>
       </c>
       <c r="I186" s="18"/>
       <c r="J186" s="19">
@@ -12210,8 +13323,14 @@
       <c r="P186" s="19">
         <v>31</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q186" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R186" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A187" s="18">
         <v>1079</v>
       </c>
@@ -12233,8 +13352,8 @@
       <c r="G187" s="18">
         <v>2</v>
       </c>
-      <c r="H187" s="19">
-        <v>1000</v>
+      <c r="H187" s="4">
+        <v>1002</v>
       </c>
       <c r="I187" s="18"/>
       <c r="J187" s="19">
@@ -12258,8 +13377,14 @@
       <c r="P187" s="19">
         <v>32</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q187" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R187" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188" s="18">
         <v>1080</v>
       </c>
@@ -12281,8 +13406,8 @@
       <c r="G188" s="18">
         <v>3</v>
       </c>
-      <c r="H188" s="19">
-        <v>1000</v>
+      <c r="H188" s="4">
+        <v>2001</v>
       </c>
       <c r="I188" s="18"/>
       <c r="J188" s="19">
@@ -12306,8 +13431,14 @@
       <c r="P188" s="19">
         <v>33</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q188" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R188" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189" s="18">
         <v>1081</v>
       </c>
@@ -12329,8 +13460,8 @@
       <c r="G189" s="18">
         <v>4</v>
       </c>
-      <c r="H189" s="19">
-        <v>1000</v>
+      <c r="H189" s="4">
+        <v>3001</v>
       </c>
       <c r="I189" s="18"/>
       <c r="J189" s="19">
@@ -12354,8 +13485,14 @@
       <c r="P189" s="19">
         <v>100</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q189" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R189" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190" s="18">
         <v>1082</v>
       </c>
@@ -12377,8 +13514,8 @@
       <c r="G190" s="18">
         <v>5</v>
       </c>
-      <c r="H190" s="19">
-        <v>1000</v>
+      <c r="H190" s="4">
+        <v>4001</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="19">
@@ -12402,8 +13539,14 @@
       <c r="P190" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q190" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R190" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A191" s="18">
         <v>1083</v>
       </c>
@@ -12425,8 +13568,8 @@
       <c r="G191" s="18">
         <v>3</v>
       </c>
-      <c r="H191" s="19">
-        <v>1000</v>
+      <c r="H191" s="4">
+        <v>1001</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="19">
@@ -12450,8 +13593,14 @@
       <c r="P191" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q191" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R191" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A192" s="18">
         <v>1084</v>
       </c>
@@ -12473,8 +13622,8 @@
       <c r="G192" s="18">
         <v>4</v>
       </c>
-      <c r="H192" s="19">
-        <v>1000</v>
+      <c r="H192" s="4">
+        <v>1002</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="19">
@@ -12498,8 +13647,14 @@
       <c r="P192" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q192" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R192" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A193" s="18">
         <v>1085</v>
       </c>
@@ -12521,8 +13676,8 @@
       <c r="G193" s="18">
         <v>5</v>
       </c>
-      <c r="H193" s="19">
-        <v>1000</v>
+      <c r="H193" s="4">
+        <v>2001</v>
       </c>
       <c r="I193" s="18"/>
       <c r="J193" s="19">
@@ -12546,8 +13701,14 @@
       <c r="P193" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q193" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R193" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A194" s="18">
         <v>1086</v>
       </c>
@@ -12569,8 +13730,8 @@
       <c r="G194" s="18">
         <v>6</v>
       </c>
-      <c r="H194" s="19">
-        <v>1000</v>
+      <c r="H194" s="4">
+        <v>3001</v>
       </c>
       <c r="I194" s="18"/>
       <c r="J194" s="19">
@@ -12594,8 +13755,14 @@
       <c r="P194" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q194" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R194" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A195" s="18">
         <v>1087</v>
       </c>
@@ -12617,8 +13784,8 @@
       <c r="G195" s="18">
         <v>7</v>
       </c>
-      <c r="H195" s="19">
-        <v>1000</v>
+      <c r="H195" s="4">
+        <v>4001</v>
       </c>
       <c r="I195" s="18"/>
       <c r="J195" s="19">
@@ -12642,8 +13809,14 @@
       <c r="P195" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q195" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R195" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A196" s="18">
         <v>1088</v>
       </c>
@@ -12665,8 +13838,8 @@
       <c r="G196" s="18">
         <v>8</v>
       </c>
-      <c r="H196" s="19">
-        <v>1000</v>
+      <c r="H196" s="4">
+        <v>1001</v>
       </c>
       <c r="I196" s="18"/>
       <c r="J196" s="19">
@@ -12690,8 +13863,14 @@
       <c r="P196" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q196" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R196" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A197" s="18">
         <v>1089</v>
       </c>
@@ -12713,8 +13892,8 @@
       <c r="G197" s="20">
         <v>4</v>
       </c>
-      <c r="H197" s="19">
-        <v>1000</v>
+      <c r="H197" s="4">
+        <v>1002</v>
       </c>
       <c r="I197" s="18"/>
       <c r="J197" s="19">
@@ -12738,8 +13917,14 @@
       <c r="P197" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q197" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R197" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A198" s="18">
         <v>1090</v>
       </c>
@@ -12761,8 +13946,8 @@
       <c r="G198" s="20">
         <v>5</v>
       </c>
-      <c r="H198" s="19">
-        <v>1000</v>
+      <c r="H198" s="4">
+        <v>2001</v>
       </c>
       <c r="I198" s="18"/>
       <c r="J198" s="19">
@@ -12786,8 +13971,14 @@
       <c r="P198" s="19">
         <v>56</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q198" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R198" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A199" s="18">
         <v>1091</v>
       </c>
@@ -12809,8 +14000,8 @@
       <c r="G199" s="18">
         <v>7</v>
       </c>
-      <c r="H199" s="19">
-        <v>1000</v>
+      <c r="H199" s="4">
+        <v>3001</v>
       </c>
       <c r="I199" s="18"/>
       <c r="J199" s="19">
@@ -12834,8 +14025,14 @@
       <c r="P199" s="19">
         <v>57</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q199" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R199" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A200" s="18">
         <v>1092</v>
       </c>
@@ -12857,8 +14054,8 @@
       <c r="G200" s="18">
         <v>8</v>
       </c>
-      <c r="H200" s="19">
-        <v>1000</v>
+      <c r="H200" s="4">
+        <v>4001</v>
       </c>
       <c r="I200" s="18"/>
       <c r="J200" s="19">
@@ -12882,8 +14079,14 @@
       <c r="P200" s="19">
         <v>58</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q200" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R200" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A201" s="18">
         <v>1093</v>
       </c>
@@ -12905,8 +14108,8 @@
       <c r="G201" s="20">
         <v>4</v>
       </c>
-      <c r="H201" s="19">
-        <v>1000</v>
+      <c r="H201" s="4">
+        <v>1001</v>
       </c>
       <c r="I201" s="18"/>
       <c r="J201" s="19">
@@ -12930,8 +14133,14 @@
       <c r="P201" s="19">
         <v>59</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q201" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R201" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A202" s="18">
         <v>1094</v>
       </c>
@@ -12953,8 +14162,8 @@
       <c r="G202" s="20">
         <v>5</v>
       </c>
-      <c r="H202" s="19">
-        <v>1000</v>
+      <c r="H202" s="4">
+        <v>1002</v>
       </c>
       <c r="I202" s="18"/>
       <c r="J202" s="19">
@@ -12978,8 +14187,14 @@
       <c r="P202" s="19">
         <v>60</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q202" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R202" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A203" s="18">
         <v>1095</v>
       </c>
@@ -13001,8 +14216,8 @@
       <c r="G203" s="20">
         <v>6</v>
       </c>
-      <c r="H203" s="19">
-        <v>1000</v>
+      <c r="H203" s="4">
+        <v>2001</v>
       </c>
       <c r="I203" s="18"/>
       <c r="J203" s="19">
@@ -13026,8 +14241,14 @@
       <c r="P203" s="19">
         <v>61</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q203" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R203" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A204" s="18">
         <v>1096</v>
       </c>
@@ -13049,8 +14270,8 @@
       <c r="G204" s="20">
         <v>7</v>
       </c>
-      <c r="H204" s="19">
-        <v>1000</v>
+      <c r="H204" s="4">
+        <v>3001</v>
       </c>
       <c r="I204" s="18"/>
       <c r="J204" s="19">
@@ -13074,8 +14295,14 @@
       <c r="P204" s="19">
         <v>62</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q204" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R204" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A205" s="18">
         <v>1097</v>
       </c>
@@ -13097,8 +14324,8 @@
       <c r="G205" s="18">
         <v>5</v>
       </c>
-      <c r="H205" s="19">
-        <v>1000</v>
+      <c r="H205" s="4">
+        <v>4001</v>
       </c>
       <c r="I205" s="18"/>
       <c r="J205" s="19">
@@ -13122,8 +14349,14 @@
       <c r="P205" s="19">
         <v>63</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q205" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R205" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A206" s="18">
         <v>1098</v>
       </c>
@@ -13145,8 +14378,8 @@
       <c r="G206" s="18">
         <v>6</v>
       </c>
-      <c r="H206" s="19">
-        <v>1000</v>
+      <c r="H206" s="4">
+        <v>1001</v>
       </c>
       <c r="I206" s="18"/>
       <c r="J206" s="19">
@@ -13170,8 +14403,14 @@
       <c r="P206" s="19">
         <v>64</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q206" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R206" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A207" s="18">
         <v>1099</v>
       </c>
@@ -13193,8 +14432,8 @@
       <c r="G207" s="18">
         <v>7</v>
       </c>
-      <c r="H207" s="19">
-        <v>1000</v>
+      <c r="H207" s="4">
+        <v>1002</v>
       </c>
       <c r="I207" s="18"/>
       <c r="J207" s="19">
@@ -13218,8 +14457,14 @@
       <c r="P207" s="19">
         <v>65</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q207" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R207" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A208" s="18">
         <v>1100</v>
       </c>
@@ -13241,8 +14486,8 @@
       <c r="G208" s="18">
         <v>2</v>
       </c>
-      <c r="H208" s="19">
-        <v>1000</v>
+      <c r="H208" s="4">
+        <v>2001</v>
       </c>
       <c r="I208" s="18"/>
       <c r="J208" s="19">
@@ -13266,8 +14511,14 @@
       <c r="P208" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q208" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R208" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A209" s="18">
         <v>1101</v>
       </c>
@@ -13289,8 +14540,8 @@
       <c r="G209" s="18">
         <v>3</v>
       </c>
-      <c r="H209" s="19">
-        <v>1000</v>
+      <c r="H209" s="4">
+        <v>3001</v>
       </c>
       <c r="I209" s="18"/>
       <c r="J209" s="19">
@@ -13314,8 +14565,14 @@
       <c r="P209" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q209" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R209" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A210" s="18">
         <v>1102</v>
       </c>
@@ -13337,8 +14594,8 @@
       <c r="G210" s="18">
         <v>4</v>
       </c>
-      <c r="H210" s="19">
-        <v>1000</v>
+      <c r="H210" s="4">
+        <v>4001</v>
       </c>
       <c r="I210" s="18"/>
       <c r="J210" s="19">
@@ -13362,8 +14619,14 @@
       <c r="P210" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q210" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R210" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A211" s="18">
         <v>1103</v>
       </c>
@@ -13385,8 +14648,8 @@
       <c r="G211" s="18">
         <v>5</v>
       </c>
-      <c r="H211" s="19">
-        <v>1000</v>
+      <c r="H211" s="4">
+        <v>1001</v>
       </c>
       <c r="I211" s="18"/>
       <c r="J211" s="19">
@@ -13410,8 +14673,14 @@
       <c r="P211" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q211" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R211" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A212" s="18">
         <v>1104</v>
       </c>
@@ -13433,8 +14702,8 @@
       <c r="G212" s="18">
         <v>3</v>
       </c>
-      <c r="H212" s="19">
-        <v>1000</v>
+      <c r="H212" s="4">
+        <v>4001</v>
       </c>
       <c r="I212" s="18"/>
       <c r="J212" s="19">
@@ -13458,8 +14727,14 @@
       <c r="P212" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q212" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R212" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A213" s="18">
         <v>1105</v>
       </c>
@@ -13481,8 +14756,8 @@
       <c r="G213" s="18">
         <v>4</v>
       </c>
-      <c r="H213" s="19">
-        <v>1000</v>
+      <c r="H213" s="4">
+        <v>1001</v>
       </c>
       <c r="I213" s="18"/>
       <c r="J213" s="19">
@@ -13505,6 +14780,12 @@
       </c>
       <c r="P213" s="19">
         <v>90</v>
+      </c>
+      <c r="Q213" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="R213" s="4" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675E46B-F9B2-490E-B40C-F1C592FC26EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D80822-AED1-4F38-BD9B-3F432FBA3080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="2025" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="705">
   <si>
     <t>索引</t>
   </si>
@@ -2600,6 +2600,10 @@
   </si>
   <si>
     <t>Point1</t>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2699,7 +2703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2765,6 +2769,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3070,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
-  <dimension ref="A1:R213"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3081,7 +3088,7 @@
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="15" customWidth="1"/>
     <col min="9" max="9" width="34.125" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="13" width="12.375" customWidth="1"/>
@@ -3112,7 +3119,7 @@
       <c r="G1" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -3168,7 +3175,7 @@
       <c r="G2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -3224,7 +3231,7 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -3280,7 +3287,7 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="14">
         <v>1001</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -3336,7 +3343,7 @@
       <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="22">
         <v>1002</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -3392,7 +3399,7 @@
       <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="22">
         <v>2001</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -3448,8 +3455,8 @@
       <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
-        <v>3001</v>
+      <c r="H7" s="22">
+        <v>2002</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>35</v>
@@ -3504,8 +3511,8 @@
       <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
-        <v>4001</v>
+      <c r="H8" s="22">
+        <v>2003</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>38</v>
@@ -3560,7 +3567,7 @@
       <c r="G9" s="9">
         <v>6</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="9" t="s">
         <v>47</v>
       </c>
@@ -3614,8 +3621,8 @@
       <c r="G10" s="9">
         <v>7</v>
       </c>
-      <c r="H10" s="4">
-        <v>1002</v>
+      <c r="H10" s="14">
+        <v>1001</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>51</v>
@@ -3670,8 +3677,8 @@
       <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
-        <v>2001</v>
+      <c r="H11" s="22">
+        <v>1002</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>52</v>
@@ -3726,8 +3733,8 @@
       <c r="G12" s="9">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
-        <v>3001</v>
+      <c r="H12" s="22">
+        <v>2001</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>53</v>
@@ -3782,8 +3789,8 @@
       <c r="G13" s="9">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
-        <v>4001</v>
+      <c r="H13" s="22">
+        <v>2002</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>54</v>
@@ -3838,8 +3845,8 @@
       <c r="G14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="4">
-        <v>1001</v>
+      <c r="H14" s="22">
+        <v>2003</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>73</v>
@@ -3894,8 +3901,8 @@
       <c r="G15" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="4">
-        <v>1002</v>
+      <c r="H15" s="14">
+        <v>1001</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>74</v>
@@ -3950,8 +3957,8 @@
       <c r="G16" s="9">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
-        <v>2001</v>
+      <c r="H16" s="22">
+        <v>1002</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>75</v>
@@ -4006,8 +4013,8 @@
       <c r="G17" s="9">
         <v>5</v>
       </c>
-      <c r="H17" s="4">
-        <v>3001</v>
+      <c r="H17" s="22">
+        <v>2001</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>76</v>
@@ -4062,8 +4069,8 @@
       <c r="G18" s="9">
         <v>6</v>
       </c>
-      <c r="H18" s="4">
-        <v>4001</v>
+      <c r="H18" s="22">
+        <v>2002</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>77</v>
@@ -4118,8 +4125,8 @@
       <c r="G19" s="9">
         <v>7</v>
       </c>
-      <c r="H19" s="4">
-        <v>1001</v>
+      <c r="H19" s="22">
+        <v>2003</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>78</v>
@@ -4174,7 +4181,7 @@
       <c r="G20" s="9">
         <v>8</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="22">
         <v>1001</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -4230,7 +4237,7 @@
       <c r="G21" s="17">
         <v>4</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="22">
         <v>1002</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -4286,7 +4293,7 @@
       <c r="G22" s="17">
         <v>5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="22">
         <v>2001</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -4342,7 +4349,7 @@
       <c r="G23" s="17">
         <v>6</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="9" t="s">
         <v>82</v>
       </c>
@@ -4396,8 +4403,8 @@
       <c r="G24" s="17">
         <v>7</v>
       </c>
-      <c r="H24" s="4">
-        <v>4001</v>
+      <c r="H24" s="14">
+        <v>1001</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>83</v>
@@ -4452,8 +4459,8 @@
       <c r="G25" s="9">
         <v>5</v>
       </c>
-      <c r="H25" s="4">
-        <v>1001</v>
+      <c r="H25" s="22">
+        <v>1002</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>84</v>
@@ -4508,8 +4515,8 @@
       <c r="G26" s="9">
         <v>6</v>
       </c>
-      <c r="H26" s="4">
-        <v>1002</v>
+      <c r="H26" s="22">
+        <v>2001</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>85</v>
@@ -4564,8 +4571,8 @@
       <c r="G27" s="9">
         <v>7</v>
       </c>
-      <c r="H27" s="4">
-        <v>1001</v>
+      <c r="H27" s="22">
+        <v>2002</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>86</v>
@@ -4620,8 +4627,8 @@
       <c r="G28" s="9">
         <v>2</v>
       </c>
-      <c r="H28" s="4">
-        <v>1002</v>
+      <c r="H28" s="22">
+        <v>2003</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>87</v>
@@ -4676,8 +4683,8 @@
       <c r="G29" s="9">
         <v>3</v>
       </c>
-      <c r="H29" s="4">
-        <v>2001</v>
+      <c r="H29" s="14">
+        <v>1001</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>88</v>
@@ -4732,8 +4739,8 @@
       <c r="G30" s="9">
         <v>4</v>
       </c>
-      <c r="H30" s="4">
-        <v>3001</v>
+      <c r="H30" s="22">
+        <v>1002</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>89</v>
@@ -4788,8 +4795,8 @@
       <c r="G31" s="9">
         <v>5</v>
       </c>
-      <c r="H31" s="4">
-        <v>4001</v>
+      <c r="H31" s="22">
+        <v>2001</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>90</v>
@@ -4844,8 +4851,8 @@
       <c r="G32" s="9">
         <v>3</v>
       </c>
-      <c r="H32" s="4">
-        <v>1001</v>
+      <c r="H32" s="22">
+        <v>2002</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>91</v>
@@ -4900,8 +4907,8 @@
       <c r="G33" s="9">
         <v>4</v>
       </c>
-      <c r="H33" s="4">
-        <v>1002</v>
+      <c r="H33" s="22">
+        <v>2003</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>92</v>
@@ -4956,7 +4963,7 @@
       <c r="G34" s="9">
         <v>5</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="14">
         <v>1001</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -5012,7 +5019,7 @@
       <c r="G35" s="9">
         <v>6</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="22">
         <v>1002</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -5068,7 +5075,7 @@
       <c r="G36" s="9">
         <v>7</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="22">
         <v>2001</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -5124,8 +5131,8 @@
       <c r="G37" s="9">
         <v>8</v>
       </c>
-      <c r="H37" s="4">
-        <v>3001</v>
+      <c r="H37" s="22">
+        <v>2002</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>96</v>
@@ -5180,8 +5187,8 @@
       <c r="G38" s="17">
         <v>4</v>
       </c>
-      <c r="H38" s="4">
-        <v>4001</v>
+      <c r="H38" s="22">
+        <v>2003</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>97</v>
@@ -5236,7 +5243,7 @@
       <c r="G39" s="17">
         <v>5</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="14">
         <v>1001</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -5292,7 +5299,7 @@
       <c r="G40" s="17">
         <v>6</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="22">
         <v>1002</v>
       </c>
       <c r="I40" s="9" t="s">
@@ -5348,7 +5355,7 @@
       <c r="G41" s="17">
         <v>7</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="22">
         <v>2001</v>
       </c>
       <c r="I41" s="9" t="s">
@@ -5404,8 +5411,8 @@
       <c r="G42" s="9">
         <v>5</v>
       </c>
-      <c r="H42" s="4">
-        <v>1001</v>
+      <c r="H42" s="22">
+        <v>2002</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>101</v>
@@ -5460,8 +5467,8 @@
       <c r="G43" s="9">
         <v>6</v>
       </c>
-      <c r="H43" s="4">
-        <v>1002</v>
+      <c r="H43" s="22">
+        <v>2003</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>102</v>
@@ -5516,8 +5523,8 @@
       <c r="G44" s="9">
         <v>7</v>
       </c>
-      <c r="H44" s="4">
-        <v>2001</v>
+      <c r="H44" s="14">
+        <v>1001</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>103</v>
@@ -5572,8 +5579,8 @@
       <c r="G45" s="9">
         <v>2</v>
       </c>
-      <c r="H45" s="4">
-        <v>3001</v>
+      <c r="H45" s="22">
+        <v>1002</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>104</v>
@@ -5628,8 +5635,8 @@
       <c r="G46" s="9">
         <v>3</v>
       </c>
-      <c r="H46" s="4">
-        <v>4001</v>
+      <c r="H46" s="22">
+        <v>2001</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>105</v>
@@ -5684,8 +5691,8 @@
       <c r="G47" s="9">
         <v>4</v>
       </c>
-      <c r="H47" s="4">
-        <v>1001</v>
+      <c r="H47" s="22">
+        <v>2002</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>106</v>
@@ -5740,8 +5747,8 @@
       <c r="G48" s="9">
         <v>5</v>
       </c>
-      <c r="H48" s="4">
-        <v>1002</v>
+      <c r="H48" s="22">
+        <v>2003</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>107</v>
@@ -5796,8 +5803,8 @@
       <c r="G49" s="9">
         <v>3</v>
       </c>
-      <c r="H49" s="4">
-        <v>2001</v>
+      <c r="H49" s="14">
+        <v>1001</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>108</v>
@@ -5852,8 +5859,8 @@
       <c r="G50" s="9">
         <v>4</v>
       </c>
-      <c r="H50" s="4">
-        <v>1001</v>
+      <c r="H50" s="22">
+        <v>1002</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>109</v>
@@ -5908,8 +5915,8 @@
       <c r="G51" s="9">
         <v>5</v>
       </c>
-      <c r="H51" s="4">
-        <v>1002</v>
+      <c r="H51" s="22">
+        <v>2001</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>110</v>
@@ -5964,8 +5971,8 @@
       <c r="G52" s="9">
         <v>6</v>
       </c>
-      <c r="H52" s="4">
-        <v>2001</v>
+      <c r="H52" s="22">
+        <v>2002</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>111</v>
@@ -6020,8 +6027,8 @@
       <c r="G53" s="9">
         <v>7</v>
       </c>
-      <c r="H53" s="4">
-        <v>1001</v>
+      <c r="H53" s="22">
+        <v>2003</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>112</v>
@@ -6076,8 +6083,8 @@
       <c r="G54" s="9">
         <v>8</v>
       </c>
-      <c r="H54" s="4">
-        <v>1002</v>
+      <c r="H54" s="14">
+        <v>1001</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>113</v>
@@ -6132,8 +6139,8 @@
       <c r="G55" s="17">
         <v>4</v>
       </c>
-      <c r="H55" s="4">
-        <v>2001</v>
+      <c r="H55" s="22">
+        <v>1002</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>114</v>
@@ -6188,8 +6195,8 @@
       <c r="G56" s="17">
         <v>5</v>
       </c>
-      <c r="H56" s="4">
-        <v>3001</v>
+      <c r="H56" s="22">
+        <v>2001</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>115</v>
@@ -6244,8 +6251,8 @@
       <c r="G57" s="17">
         <v>6</v>
       </c>
-      <c r="H57" s="4">
-        <v>4001</v>
+      <c r="H57" s="22">
+        <v>2002</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>116</v>
@@ -6300,8 +6307,8 @@
       <c r="G58" s="17">
         <v>7</v>
       </c>
-      <c r="H58" s="4">
-        <v>1001</v>
+      <c r="H58" s="22">
+        <v>2003</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>117</v>
@@ -6356,7 +6363,7 @@
       <c r="G59" s="9">
         <v>5</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="22">
         <v>1002</v>
       </c>
       <c r="I59" s="9" t="s">
@@ -6412,7 +6419,7 @@
       <c r="G60" s="9">
         <v>6</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
       </c>
@@ -6466,8 +6473,8 @@
       <c r="G61" s="9">
         <v>7</v>
       </c>
-      <c r="H61" s="4">
-        <v>3001</v>
+      <c r="H61" s="14">
+        <v>1001</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>120</v>
@@ -6522,8 +6529,8 @@
       <c r="G62" s="9">
         <v>2</v>
       </c>
-      <c r="H62" s="4">
-        <v>4001</v>
+      <c r="H62" s="22">
+        <v>1002</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>121</v>
@@ -6578,8 +6585,8 @@
       <c r="G63" s="9">
         <v>3</v>
       </c>
-      <c r="H63" s="4">
-        <v>1001</v>
+      <c r="H63" s="22">
+        <v>2001</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>122</v>
@@ -6634,8 +6641,8 @@
       <c r="G64" s="9">
         <v>4</v>
       </c>
-      <c r="H64" s="4">
-        <v>1002</v>
+      <c r="H64" s="22">
+        <v>2002</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>123</v>
@@ -6690,8 +6697,8 @@
       <c r="G65" s="9">
         <v>5</v>
       </c>
-      <c r="H65" s="4">
-        <v>2001</v>
+      <c r="H65" s="22">
+        <v>2003</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>124</v>
@@ -6746,8 +6753,8 @@
       <c r="G66" s="9">
         <v>3</v>
       </c>
-      <c r="H66" s="4">
-        <v>3001</v>
+      <c r="H66" s="14" t="s">
+        <v>704</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>125</v>
@@ -6802,7 +6809,7 @@
       <c r="G67" s="9">
         <v>4</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="9" t="s">
         <v>125</v>
       </c>
@@ -6856,7 +6863,7 @@
       <c r="G68" s="9">
         <v>5</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="9" t="s">
         <v>125</v>
       </c>
@@ -6910,8 +6917,8 @@
       <c r="G69" s="9">
         <v>6</v>
       </c>
-      <c r="H69" s="4">
-        <v>1002</v>
+      <c r="H69" s="22">
+        <v>2002</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>125</v>
@@ -6966,8 +6973,8 @@
       <c r="G70" s="9">
         <v>7</v>
       </c>
-      <c r="H70" s="4">
-        <v>2001</v>
+      <c r="H70" s="22">
+        <v>2003</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>125</v>
@@ -7022,8 +7029,8 @@
       <c r="G71" s="9">
         <v>8</v>
       </c>
-      <c r="H71" s="4">
-        <v>3001</v>
+      <c r="H71" s="14">
+        <v>1001</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>125</v>
@@ -7078,8 +7085,8 @@
       <c r="G72" s="17">
         <v>4</v>
       </c>
-      <c r="H72" s="4">
-        <v>4001</v>
+      <c r="H72" s="22">
+        <v>1002</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>125</v>
@@ -7134,8 +7141,8 @@
       <c r="G73" s="17">
         <v>5</v>
       </c>
-      <c r="H73" s="4">
-        <v>1001</v>
+      <c r="H73" s="22">
+        <v>2001</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>125</v>
@@ -7190,8 +7197,8 @@
       <c r="G74" s="9">
         <v>7</v>
       </c>
-      <c r="H74" s="4">
-        <v>1002</v>
+      <c r="H74" s="22">
+        <v>2002</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>112</v>
@@ -7246,8 +7253,8 @@
       <c r="G75" s="9">
         <v>8</v>
       </c>
-      <c r="H75" s="4">
-        <v>2001</v>
+      <c r="H75" s="22">
+        <v>2003</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>113</v>
@@ -7302,8 +7309,8 @@
       <c r="G76" s="17">
         <v>4</v>
       </c>
-      <c r="H76" s="4">
-        <v>3001</v>
+      <c r="H76" s="14">
+        <v>1001</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>114</v>
@@ -7358,8 +7365,8 @@
       <c r="G77" s="17">
         <v>5</v>
       </c>
-      <c r="H77" s="4">
-        <v>4001</v>
+      <c r="H77" s="22">
+        <v>1002</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>115</v>
@@ -7414,8 +7421,8 @@
       <c r="G78" s="17">
         <v>6</v>
       </c>
-      <c r="H78" s="4">
-        <v>1001</v>
+      <c r="H78" s="22">
+        <v>2001</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>116</v>
@@ -7470,8 +7477,8 @@
       <c r="G79" s="17">
         <v>7</v>
       </c>
-      <c r="H79" s="4">
-        <v>1002</v>
+      <c r="H79" s="22">
+        <v>2002</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>117</v>
@@ -7526,8 +7533,8 @@
       <c r="G80" s="9">
         <v>5</v>
       </c>
-      <c r="H80" s="4">
-        <v>2001</v>
+      <c r="H80" s="22">
+        <v>2003</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>118</v>
@@ -7582,8 +7589,8 @@
       <c r="G81" s="9">
         <v>6</v>
       </c>
-      <c r="H81" s="4">
-        <v>3001</v>
+      <c r="H81" s="22">
+        <v>1002</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>119</v>
@@ -7638,8 +7645,8 @@
       <c r="G82" s="9">
         <v>2</v>
       </c>
-      <c r="H82" s="4">
-        <v>4001</v>
+      <c r="H82" s="22">
+        <v>2002</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>121</v>
@@ -7694,8 +7701,8 @@
       <c r="G83" s="9">
         <v>3</v>
       </c>
-      <c r="H83" s="4">
-        <v>1001</v>
+      <c r="H83" s="22">
+        <v>2003</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>122</v>
@@ -7750,8 +7757,8 @@
       <c r="G84" s="9">
         <v>4</v>
       </c>
-      <c r="H84" s="4">
-        <v>1002</v>
+      <c r="H84" s="14">
+        <v>1001</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>123</v>
@@ -7806,8 +7813,8 @@
       <c r="G85" s="9">
         <v>5</v>
       </c>
-      <c r="H85" s="4">
-        <v>2001</v>
+      <c r="H85" s="22">
+        <v>1002</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>124</v>
@@ -7862,8 +7869,8 @@
       <c r="G86" s="9">
         <v>3</v>
       </c>
-      <c r="H86" s="4">
-        <v>3001</v>
+      <c r="H86" s="22">
+        <v>2001</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>125</v>
@@ -7918,8 +7925,8 @@
       <c r="G87" s="9">
         <v>4</v>
       </c>
-      <c r="H87" s="4">
-        <v>4001</v>
+      <c r="H87" s="22">
+        <v>2002</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>125</v>
@@ -7974,8 +7981,8 @@
       <c r="G88" s="9">
         <v>5</v>
       </c>
-      <c r="H88" s="4">
-        <v>1001</v>
+      <c r="H88" s="22">
+        <v>2003</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>125</v>
@@ -8030,8 +8037,8 @@
       <c r="G89" s="9">
         <v>6</v>
       </c>
-      <c r="H89" s="4">
-        <v>1002</v>
+      <c r="H89" s="14">
+        <v>1001</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>125</v>
@@ -8086,8 +8093,8 @@
       <c r="G90" s="9">
         <v>7</v>
       </c>
-      <c r="H90" s="4">
-        <v>2001</v>
+      <c r="H90" s="22">
+        <v>1002</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>125</v>
@@ -8142,8 +8149,8 @@
       <c r="G91" s="9">
         <v>8</v>
       </c>
-      <c r="H91" s="4">
-        <v>3001</v>
+      <c r="H91" s="22">
+        <v>2001</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>125</v>
@@ -8198,8 +8205,8 @@
       <c r="G92" s="17">
         <v>4</v>
       </c>
-      <c r="H92" s="4">
-        <v>4001</v>
+      <c r="H92" s="22">
+        <v>2002</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>125</v>
@@ -8254,8 +8261,8 @@
       <c r="G93" s="17">
         <v>5</v>
       </c>
-      <c r="H93" s="4">
-        <v>1001</v>
+      <c r="H93" s="22">
+        <v>2003</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>125</v>
@@ -8310,7 +8317,7 @@
       <c r="G94" s="9">
         <v>7</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="22">
         <v>1002</v>
       </c>
       <c r="I94" s="9" t="s">
@@ -8366,8 +8373,8 @@
       <c r="G95" s="9">
         <v>8</v>
       </c>
-      <c r="H95" s="4">
-        <v>2001</v>
+      <c r="H95" s="22">
+        <v>2002</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>113</v>
@@ -8422,8 +8429,8 @@
       <c r="G96" s="17">
         <v>4</v>
       </c>
-      <c r="H96" s="4">
-        <v>3001</v>
+      <c r="H96" s="22">
+        <v>2003</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>114</v>
@@ -8478,8 +8485,8 @@
       <c r="G97" s="17">
         <v>5</v>
       </c>
-      <c r="H97" s="4">
-        <v>4001</v>
+      <c r="H97" s="14">
+        <v>1001</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>115</v>
@@ -8534,8 +8541,8 @@
       <c r="G98" s="17">
         <v>6</v>
       </c>
-      <c r="H98" s="4">
-        <v>1001</v>
+      <c r="H98" s="22">
+        <v>1002</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>116</v>
@@ -8590,8 +8597,8 @@
       <c r="G99" s="17">
         <v>7</v>
       </c>
-      <c r="H99" s="4">
-        <v>1002</v>
+      <c r="H99" s="22">
+        <v>2001</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>117</v>
@@ -8646,8 +8653,8 @@
       <c r="G100" s="9">
         <v>5</v>
       </c>
-      <c r="H100" s="4">
-        <v>2001</v>
+      <c r="H100" s="22">
+        <v>2002</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>118</v>
@@ -8702,8 +8709,8 @@
       <c r="G101" s="9">
         <v>6</v>
       </c>
-      <c r="H101" s="4">
-        <v>3001</v>
+      <c r="H101" s="22">
+        <v>2003</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>119</v>
@@ -8758,8 +8765,8 @@
       <c r="G102" s="9">
         <v>7</v>
       </c>
-      <c r="H102" s="4">
-        <v>4001</v>
+      <c r="H102" s="14">
+        <v>1001</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>120</v>
@@ -8814,8 +8821,8 @@
       <c r="G103" s="9">
         <v>2</v>
       </c>
-      <c r="H103" s="4">
-        <v>1001</v>
+      <c r="H103" s="22">
+        <v>1002</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>121</v>
@@ -8870,8 +8877,8 @@
       <c r="G104" s="9">
         <v>3</v>
       </c>
-      <c r="H104" s="4">
-        <v>1002</v>
+      <c r="H104" s="22">
+        <v>2001</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>122</v>
@@ -8926,8 +8933,8 @@
       <c r="G105" s="9">
         <v>4</v>
       </c>
-      <c r="H105" s="4">
-        <v>2001</v>
+      <c r="H105" s="22">
+        <v>2002</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>123</v>
@@ -8982,8 +8989,8 @@
       <c r="G106" s="9">
         <v>5</v>
       </c>
-      <c r="H106" s="4">
-        <v>3001</v>
+      <c r="H106" s="22">
+        <v>2003</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>124</v>
@@ -9038,8 +9045,8 @@
       <c r="G107" s="9">
         <v>3</v>
       </c>
-      <c r="H107" s="4">
-        <v>4001</v>
+      <c r="H107" s="22">
+        <v>2003</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>125</v>
@@ -9094,7 +9101,7 @@
       <c r="G108" s="9">
         <v>4</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="14">
         <v>1001</v>
       </c>
       <c r="I108" s="9" t="s">
@@ -9150,7 +9157,7 @@
       <c r="G109" s="18">
         <v>1</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="22">
         <v>1002</v>
       </c>
       <c r="I109" s="18"/>
@@ -9204,7 +9211,7 @@
       <c r="G110" s="18">
         <v>2</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="22">
         <v>2001</v>
       </c>
       <c r="I110" s="18"/>
@@ -9258,8 +9265,8 @@
       <c r="G111" s="18">
         <v>3</v>
       </c>
-      <c r="H111" s="4">
-        <v>3001</v>
+      <c r="H111" s="22">
+        <v>2002</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="19">
@@ -9312,8 +9319,8 @@
       <c r="G112" s="18">
         <v>4</v>
       </c>
-      <c r="H112" s="4">
-        <v>4001</v>
+      <c r="H112" s="22">
+        <v>2003</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="19">
@@ -9366,8 +9373,8 @@
       <c r="G113" s="18">
         <v>5</v>
       </c>
-      <c r="H113" s="4">
-        <v>4001</v>
+      <c r="H113" s="14">
+        <v>1001</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="19">
@@ -9420,7 +9427,7 @@
       <c r="G114" s="18">
         <v>6</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="22"/>
       <c r="I114" s="18"/>
       <c r="J114" s="19">
         <v>0</v>
@@ -9472,8 +9479,8 @@
       <c r="G115" s="18">
         <v>7</v>
       </c>
-      <c r="H115" s="4">
-        <v>1002</v>
+      <c r="H115" s="22">
+        <v>2003</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="19">
@@ -9526,8 +9533,8 @@
       <c r="G116" s="18">
         <v>2</v>
       </c>
-      <c r="H116" s="4">
-        <v>2001</v>
+      <c r="H116" s="14">
+        <v>1001</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="19">
@@ -9580,8 +9587,8 @@
       <c r="G117" s="18">
         <v>3</v>
       </c>
-      <c r="H117" s="4">
-        <v>3001</v>
+      <c r="H117" s="22">
+        <v>1002</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="19">
@@ -9634,8 +9641,8 @@
       <c r="G118" s="18">
         <v>4</v>
       </c>
-      <c r="H118" s="4">
-        <v>4001</v>
+      <c r="H118" s="22">
+        <v>2001</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="19">
@@ -9688,8 +9695,8 @@
       <c r="G119" s="18">
         <v>5</v>
       </c>
-      <c r="H119" s="4">
-        <v>1001</v>
+      <c r="H119" s="22">
+        <v>2002</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="19">
@@ -9742,8 +9749,8 @@
       <c r="G120" s="18">
         <v>3</v>
       </c>
-      <c r="H120" s="4">
-        <v>1002</v>
+      <c r="H120" s="22">
+        <v>2003</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="19">
@@ -9796,8 +9803,8 @@
       <c r="G121" s="18">
         <v>4</v>
       </c>
-      <c r="H121" s="4">
-        <v>2001</v>
+      <c r="H121" s="14">
+        <v>1001</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="19">
@@ -9850,8 +9857,8 @@
       <c r="G122" s="18">
         <v>5</v>
       </c>
-      <c r="H122" s="4">
-        <v>3001</v>
+      <c r="H122" s="22">
+        <v>1002</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="19">
@@ -9904,8 +9911,8 @@
       <c r="G123" s="18">
         <v>6</v>
       </c>
-      <c r="H123" s="4">
-        <v>4001</v>
+      <c r="H123" s="22">
+        <v>2001</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="19">
@@ -9958,8 +9965,8 @@
       <c r="G124" s="18">
         <v>7</v>
       </c>
-      <c r="H124" s="4">
-        <v>1001</v>
+      <c r="H124" s="22">
+        <v>2002</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="19">
@@ -10012,8 +10019,8 @@
       <c r="G125" s="18">
         <v>8</v>
       </c>
-      <c r="H125" s="4">
-        <v>1002</v>
+      <c r="H125" s="22">
+        <v>2003</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="19">
@@ -10066,8 +10073,8 @@
       <c r="G126" s="20">
         <v>4</v>
       </c>
-      <c r="H126" s="4">
-        <v>2001</v>
+      <c r="H126" s="22">
+        <v>2003</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="19">
@@ -10120,8 +10127,8 @@
       <c r="G127" s="20">
         <v>5</v>
       </c>
-      <c r="H127" s="4">
-        <v>3001</v>
+      <c r="H127" s="14">
+        <v>1001</v>
       </c>
       <c r="I127" s="18"/>
       <c r="J127" s="19">
@@ -10174,8 +10181,8 @@
       <c r="G128" s="20">
         <v>6</v>
       </c>
-      <c r="H128" s="4">
-        <v>4001</v>
+      <c r="H128" s="22">
+        <v>2001</v>
       </c>
       <c r="I128" s="18"/>
       <c r="J128" s="19">
@@ -10228,7 +10235,7 @@
       <c r="G129" s="20">
         <v>7</v>
       </c>
-      <c r="H129" s="4"/>
+      <c r="H129" s="22"/>
       <c r="I129" s="18"/>
       <c r="J129" s="19">
         <v>0</v>
@@ -10280,8 +10287,8 @@
       <c r="G130" s="18">
         <v>5</v>
       </c>
-      <c r="H130" s="4">
-        <v>1002</v>
+      <c r="H130" s="22">
+        <v>2003</v>
       </c>
       <c r="I130" s="18"/>
       <c r="J130" s="19">
@@ -10334,8 +10341,8 @@
       <c r="G131" s="18">
         <v>6</v>
       </c>
-      <c r="H131" s="4">
-        <v>2001</v>
+      <c r="H131" s="14">
+        <v>1001</v>
       </c>
       <c r="I131" s="18"/>
       <c r="J131" s="19">
@@ -10388,8 +10395,8 @@
       <c r="G132" s="18">
         <v>7</v>
       </c>
-      <c r="H132" s="4">
-        <v>3001</v>
+      <c r="H132" s="22">
+        <v>1002</v>
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="19">
@@ -10442,8 +10449,8 @@
       <c r="G133" s="18">
         <v>2</v>
       </c>
-      <c r="H133" s="4">
-        <v>4001</v>
+      <c r="H133" s="22">
+        <v>2001</v>
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="19">
@@ -10496,8 +10503,8 @@
       <c r="G134" s="18">
         <v>3</v>
       </c>
-      <c r="H134" s="4">
-        <v>1001</v>
+      <c r="H134" s="22">
+        <v>2002</v>
       </c>
       <c r="I134" s="18"/>
       <c r="J134" s="19">
@@ -10550,8 +10557,8 @@
       <c r="G135" s="18">
         <v>4</v>
       </c>
-      <c r="H135" s="4">
-        <v>1002</v>
+      <c r="H135" s="22">
+        <v>2003</v>
       </c>
       <c r="I135" s="18"/>
       <c r="J135" s="19">
@@ -10604,8 +10611,8 @@
       <c r="G136" s="18">
         <v>5</v>
       </c>
-      <c r="H136" s="4">
-        <v>2001</v>
+      <c r="H136" s="14">
+        <v>1001</v>
       </c>
       <c r="I136" s="18"/>
       <c r="J136" s="19">
@@ -10658,8 +10665,8 @@
       <c r="G137" s="18">
         <v>3</v>
       </c>
-      <c r="H137" s="4">
-        <v>3001</v>
+      <c r="H137" s="22">
+        <v>1002</v>
       </c>
       <c r="I137" s="18"/>
       <c r="J137" s="19">
@@ -10712,8 +10719,8 @@
       <c r="G138" s="18">
         <v>4</v>
       </c>
-      <c r="H138" s="4">
-        <v>4001</v>
+      <c r="H138" s="22">
+        <v>2001</v>
       </c>
       <c r="I138" s="18"/>
       <c r="J138" s="19">
@@ -10766,8 +10773,8 @@
       <c r="G139" s="18">
         <v>5</v>
       </c>
-      <c r="H139" s="4">
-        <v>4001</v>
+      <c r="H139" s="22">
+        <v>2002</v>
       </c>
       <c r="I139" s="18"/>
       <c r="J139" s="19">
@@ -10820,8 +10827,8 @@
       <c r="G140" s="18">
         <v>6</v>
       </c>
-      <c r="H140" s="4">
-        <v>1001</v>
+      <c r="H140" s="22">
+        <v>2003</v>
       </c>
       <c r="I140" s="18"/>
       <c r="J140" s="19">
@@ -10874,8 +10881,8 @@
       <c r="G141" s="18">
         <v>7</v>
       </c>
-      <c r="H141" s="4">
-        <v>1002</v>
+      <c r="H141" s="22">
+        <v>2003</v>
       </c>
       <c r="I141" s="18"/>
       <c r="J141" s="19">
@@ -10928,8 +10935,8 @@
       <c r="G142" s="18">
         <v>8</v>
       </c>
-      <c r="H142" s="4">
-        <v>2001</v>
+      <c r="H142" s="14">
+        <v>1001</v>
       </c>
       <c r="I142" s="18"/>
       <c r="J142" s="19">
@@ -10982,8 +10989,8 @@
       <c r="G143" s="20">
         <v>4</v>
       </c>
-      <c r="H143" s="4">
-        <v>3001</v>
+      <c r="H143" s="22">
+        <v>2001</v>
       </c>
       <c r="I143" s="18"/>
       <c r="J143" s="19">
@@ -11036,8 +11043,8 @@
       <c r="G144" s="20">
         <v>5</v>
       </c>
-      <c r="H144" s="4">
-        <v>4001</v>
+      <c r="H144" s="22">
+        <v>2003</v>
       </c>
       <c r="I144" s="18"/>
       <c r="J144" s="19">
@@ -11090,7 +11097,7 @@
       <c r="G145" s="20">
         <v>6</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="14">
         <v>1001</v>
       </c>
       <c r="I145" s="18"/>
@@ -11144,7 +11151,7 @@
       <c r="G146" s="20">
         <v>7</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="22">
         <v>1002</v>
       </c>
       <c r="I146" s="18"/>
@@ -11198,7 +11205,7 @@
       <c r="G147" s="18">
         <v>5</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="22">
         <v>2001</v>
       </c>
       <c r="I147" s="18"/>
@@ -11252,8 +11259,8 @@
       <c r="G148" s="18">
         <v>6</v>
       </c>
-      <c r="H148" s="4">
-        <v>3001</v>
+      <c r="H148" s="22">
+        <v>2002</v>
       </c>
       <c r="I148" s="18"/>
       <c r="J148" s="19">
@@ -11306,8 +11313,8 @@
       <c r="G149" s="18">
         <v>7</v>
       </c>
-      <c r="H149" s="4">
-        <v>4001</v>
+      <c r="H149" s="22">
+        <v>2003</v>
       </c>
       <c r="I149" s="18"/>
       <c r="J149" s="19">
@@ -11360,7 +11367,7 @@
       <c r="G150" s="18">
         <v>2</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="14">
         <v>1001</v>
       </c>
       <c r="I150" s="18"/>
@@ -11414,7 +11421,7 @@
       <c r="G151" s="18">
         <v>3</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="22">
         <v>1002</v>
       </c>
       <c r="I151" s="18"/>
@@ -11468,7 +11475,7 @@
       <c r="G152" s="18">
         <v>4</v>
       </c>
-      <c r="H152" s="4">
+      <c r="H152" s="22">
         <v>2001</v>
       </c>
       <c r="I152" s="18"/>
@@ -11522,8 +11529,8 @@
       <c r="G153" s="18">
         <v>5</v>
       </c>
-      <c r="H153" s="4">
-        <v>3001</v>
+      <c r="H153" s="22">
+        <v>2002</v>
       </c>
       <c r="I153" s="18"/>
       <c r="J153" s="19">
@@ -11576,8 +11583,8 @@
       <c r="G154" s="18">
         <v>3</v>
       </c>
-      <c r="H154" s="4">
-        <v>4001</v>
+      <c r="H154" s="22">
+        <v>2003</v>
       </c>
       <c r="I154" s="18"/>
       <c r="J154" s="19">
@@ -11630,8 +11637,8 @@
       <c r="G155" s="18">
         <v>4</v>
       </c>
-      <c r="H155" s="4">
-        <v>1001</v>
+      <c r="H155" s="22">
+        <v>2003</v>
       </c>
       <c r="I155" s="18"/>
       <c r="J155" s="19">
@@ -11684,8 +11691,8 @@
       <c r="G156" s="18">
         <v>5</v>
       </c>
-      <c r="H156" s="4">
-        <v>1002</v>
+      <c r="H156" s="14">
+        <v>1001</v>
       </c>
       <c r="I156" s="18"/>
       <c r="J156" s="19">
@@ -11738,7 +11745,7 @@
       <c r="G157" s="18">
         <v>6</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="22">
         <v>2001</v>
       </c>
       <c r="I157" s="18"/>
@@ -11792,8 +11799,8 @@
       <c r="G158" s="18">
         <v>7</v>
       </c>
-      <c r="H158" s="4">
-        <v>3001</v>
+      <c r="H158" s="22">
+        <v>2003</v>
       </c>
       <c r="I158" s="18"/>
       <c r="J158" s="19">
@@ -11846,8 +11853,8 @@
       <c r="G159" s="18">
         <v>8</v>
       </c>
-      <c r="H159" s="4">
-        <v>4001</v>
+      <c r="H159" s="14">
+        <v>1001</v>
       </c>
       <c r="I159" s="18"/>
       <c r="J159" s="19">
@@ -11900,8 +11907,8 @@
       <c r="G160" s="20">
         <v>4</v>
       </c>
-      <c r="H160" s="4">
-        <v>1001</v>
+      <c r="H160" s="22">
+        <v>1002</v>
       </c>
       <c r="I160" s="18"/>
       <c r="J160" s="19">
@@ -11954,8 +11961,8 @@
       <c r="G161" s="20">
         <v>5</v>
       </c>
-      <c r="H161" s="4">
-        <v>1002</v>
+      <c r="H161" s="22">
+        <v>2001</v>
       </c>
       <c r="I161" s="18"/>
       <c r="J161" s="19">
@@ -12008,8 +12015,8 @@
       <c r="G162" s="20">
         <v>6</v>
       </c>
-      <c r="H162" s="4">
-        <v>2001</v>
+      <c r="H162" s="22">
+        <v>2002</v>
       </c>
       <c r="I162" s="18"/>
       <c r="J162" s="19">
@@ -12062,8 +12069,8 @@
       <c r="G163" s="20">
         <v>7</v>
       </c>
-      <c r="H163" s="4">
-        <v>3001</v>
+      <c r="H163" s="22">
+        <v>2003</v>
       </c>
       <c r="I163" s="18"/>
       <c r="J163" s="19">
@@ -12116,8 +12123,8 @@
       <c r="G164" s="18">
         <v>5</v>
       </c>
-      <c r="H164" s="4">
-        <v>4001</v>
+      <c r="H164" s="22">
+        <v>2003</v>
       </c>
       <c r="I164" s="18"/>
       <c r="J164" s="19">
@@ -12170,7 +12177,7 @@
       <c r="G165" s="18">
         <v>6</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="22">
         <v>1001</v>
       </c>
       <c r="I165" s="18"/>
@@ -12224,7 +12231,7 @@
       <c r="G166" s="18">
         <v>7</v>
       </c>
-      <c r="H166" s="4"/>
+      <c r="H166" s="22"/>
       <c r="I166" s="18"/>
       <c r="J166" s="19">
         <v>0</v>
@@ -12276,8 +12283,8 @@
       <c r="G167" s="18">
         <v>2</v>
       </c>
-      <c r="H167" s="4">
-        <v>2001</v>
+      <c r="H167" s="14">
+        <v>1001</v>
       </c>
       <c r="I167" s="18"/>
       <c r="J167" s="19">
@@ -12330,8 +12337,8 @@
       <c r="G168" s="18">
         <v>3</v>
       </c>
-      <c r="H168" s="4">
-        <v>3001</v>
+      <c r="H168" s="22">
+        <v>1002</v>
       </c>
       <c r="I168" s="18"/>
       <c r="J168" s="19">
@@ -12384,8 +12391,8 @@
       <c r="G169" s="18">
         <v>4</v>
       </c>
-      <c r="H169" s="4">
-        <v>4001</v>
+      <c r="H169" s="22">
+        <v>2001</v>
       </c>
       <c r="I169" s="18"/>
       <c r="J169" s="19">
@@ -12438,8 +12445,8 @@
       <c r="G170" s="18">
         <v>5</v>
       </c>
-      <c r="H170" s="4">
-        <v>4001</v>
+      <c r="H170" s="22">
+        <v>2002</v>
       </c>
       <c r="I170" s="18"/>
       <c r="J170" s="19">
@@ -12492,8 +12499,8 @@
       <c r="G171" s="18">
         <v>3</v>
       </c>
-      <c r="H171" s="4">
-        <v>1001</v>
+      <c r="H171" s="22">
+        <v>2003</v>
       </c>
       <c r="I171" s="18"/>
       <c r="J171" s="19">
@@ -12546,7 +12553,7 @@
       <c r="G172" s="18">
         <v>4</v>
       </c>
-      <c r="H172" s="4"/>
+      <c r="H172" s="22"/>
       <c r="I172" s="18"/>
       <c r="J172" s="19">
         <v>0</v>
@@ -12598,7 +12605,7 @@
       <c r="G173" s="18">
         <v>5</v>
       </c>
-      <c r="H173" s="4"/>
+      <c r="H173" s="22"/>
       <c r="I173" s="18"/>
       <c r="J173" s="19">
         <v>0</v>
@@ -12650,8 +12657,8 @@
       <c r="G174" s="18">
         <v>6</v>
       </c>
-      <c r="H174" s="4">
-        <v>3001</v>
+      <c r="H174" s="22">
+        <v>2003</v>
       </c>
       <c r="I174" s="18"/>
       <c r="J174" s="19">
@@ -12704,8 +12711,8 @@
       <c r="G175" s="18">
         <v>7</v>
       </c>
-      <c r="H175" s="4">
-        <v>4001</v>
+      <c r="H175" s="14">
+        <v>1001</v>
       </c>
       <c r="I175" s="18"/>
       <c r="J175" s="19">
@@ -12758,8 +12765,8 @@
       <c r="G176" s="18">
         <v>8</v>
       </c>
-      <c r="H176" s="4">
-        <v>1001</v>
+      <c r="H176" s="22">
+        <v>1002</v>
       </c>
       <c r="I176" s="18"/>
       <c r="J176" s="19">
@@ -12812,8 +12819,8 @@
       <c r="G177" s="20">
         <v>4</v>
       </c>
-      <c r="H177" s="4">
-        <v>1002</v>
+      <c r="H177" s="22">
+        <v>2001</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="19">
@@ -12866,8 +12873,8 @@
       <c r="G178" s="20">
         <v>5</v>
       </c>
-      <c r="H178" s="4">
-        <v>2001</v>
+      <c r="H178" s="22">
+        <v>2002</v>
       </c>
       <c r="I178" s="18"/>
       <c r="J178" s="19">
@@ -12920,8 +12927,8 @@
       <c r="G179" s="18">
         <v>7</v>
       </c>
-      <c r="H179" s="4">
-        <v>3001</v>
+      <c r="H179" s="22">
+        <v>2003</v>
       </c>
       <c r="I179" s="18"/>
       <c r="J179" s="19">
@@ -12974,8 +12981,8 @@
       <c r="G180" s="18">
         <v>8</v>
       </c>
-      <c r="H180" s="4">
-        <v>4001</v>
+      <c r="H180" s="14">
+        <v>1001</v>
       </c>
       <c r="I180" s="18"/>
       <c r="J180" s="19">
@@ -13028,8 +13035,8 @@
       <c r="G181" s="20">
         <v>4</v>
       </c>
-      <c r="H181" s="4">
-        <v>1001</v>
+      <c r="H181" s="22">
+        <v>1002</v>
       </c>
       <c r="I181" s="18"/>
       <c r="J181" s="19">
@@ -13082,8 +13089,8 @@
       <c r="G182" s="20">
         <v>5</v>
       </c>
-      <c r="H182" s="4">
-        <v>1002</v>
+      <c r="H182" s="22">
+        <v>2001</v>
       </c>
       <c r="I182" s="18"/>
       <c r="J182" s="19">
@@ -13136,8 +13143,8 @@
       <c r="G183" s="20">
         <v>6</v>
       </c>
-      <c r="H183" s="4">
-        <v>2001</v>
+      <c r="H183" s="22">
+        <v>2002</v>
       </c>
       <c r="I183" s="18"/>
       <c r="J183" s="19">
@@ -13190,8 +13197,8 @@
       <c r="G184" s="20">
         <v>7</v>
       </c>
-      <c r="H184" s="4">
-        <v>3001</v>
+      <c r="H184" s="22">
+        <v>2003</v>
       </c>
       <c r="I184" s="18"/>
       <c r="J184" s="19">
@@ -13244,8 +13251,8 @@
       <c r="G185" s="18">
         <v>5</v>
       </c>
-      <c r="H185" s="4">
-        <v>4001</v>
+      <c r="H185" s="22">
+        <v>2003</v>
       </c>
       <c r="I185" s="18"/>
       <c r="J185" s="19">
@@ -13298,7 +13305,7 @@
       <c r="G186" s="18">
         <v>6</v>
       </c>
-      <c r="H186" s="4">
+      <c r="H186" s="14">
         <v>1001</v>
       </c>
       <c r="I186" s="18"/>
@@ -13352,8 +13359,8 @@
       <c r="G187" s="18">
         <v>2</v>
       </c>
-      <c r="H187" s="4">
-        <v>1002</v>
+      <c r="H187" s="22">
+        <v>2001</v>
       </c>
       <c r="I187" s="18"/>
       <c r="J187" s="19">
@@ -13406,8 +13413,8 @@
       <c r="G188" s="18">
         <v>3</v>
       </c>
-      <c r="H188" s="4">
-        <v>2001</v>
+      <c r="H188" s="22">
+        <v>2003</v>
       </c>
       <c r="I188" s="18"/>
       <c r="J188" s="19">
@@ -13460,8 +13467,8 @@
       <c r="G189" s="18">
         <v>4</v>
       </c>
-      <c r="H189" s="4">
-        <v>3001</v>
+      <c r="H189" s="14">
+        <v>1001</v>
       </c>
       <c r="I189" s="18"/>
       <c r="J189" s="19">
@@ -13514,8 +13521,8 @@
       <c r="G190" s="18">
         <v>5</v>
       </c>
-      <c r="H190" s="4">
-        <v>4001</v>
+      <c r="H190" s="22">
+        <v>1002</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="19">
@@ -13568,8 +13575,8 @@
       <c r="G191" s="18">
         <v>3</v>
       </c>
-      <c r="H191" s="4">
-        <v>1001</v>
+      <c r="H191" s="22">
+        <v>2001</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="19">
@@ -13622,8 +13629,8 @@
       <c r="G192" s="18">
         <v>4</v>
       </c>
-      <c r="H192" s="4">
-        <v>1002</v>
+      <c r="H192" s="22">
+        <v>2002</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="19">
@@ -13676,8 +13683,8 @@
       <c r="G193" s="18">
         <v>5</v>
       </c>
-      <c r="H193" s="4">
-        <v>2001</v>
+      <c r="H193" s="22">
+        <v>2003</v>
       </c>
       <c r="I193" s="18"/>
       <c r="J193" s="19">
@@ -13730,8 +13737,8 @@
       <c r="G194" s="18">
         <v>6</v>
       </c>
-      <c r="H194" s="4">
-        <v>3001</v>
+      <c r="H194" s="22">
+        <v>2003</v>
       </c>
       <c r="I194" s="18"/>
       <c r="J194" s="19">
@@ -13784,8 +13791,8 @@
       <c r="G195" s="18">
         <v>7</v>
       </c>
-      <c r="H195" s="4">
-        <v>4001</v>
+      <c r="H195" s="22">
+        <v>1001</v>
       </c>
       <c r="I195" s="18"/>
       <c r="J195" s="19">
@@ -13838,8 +13845,8 @@
       <c r="G196" s="18">
         <v>8</v>
       </c>
-      <c r="H196" s="4">
-        <v>1001</v>
+      <c r="H196" s="22">
+        <v>2003</v>
       </c>
       <c r="I196" s="18"/>
       <c r="J196" s="19">
@@ -13892,8 +13899,8 @@
       <c r="G197" s="20">
         <v>4</v>
       </c>
-      <c r="H197" s="4">
-        <v>1002</v>
+      <c r="H197" s="14">
+        <v>1001</v>
       </c>
       <c r="I197" s="18"/>
       <c r="J197" s="19">
@@ -13946,8 +13953,8 @@
       <c r="G198" s="20">
         <v>5</v>
       </c>
-      <c r="H198" s="4">
-        <v>2001</v>
+      <c r="H198" s="22">
+        <v>1002</v>
       </c>
       <c r="I198" s="18"/>
       <c r="J198" s="19">
@@ -14000,8 +14007,8 @@
       <c r="G199" s="18">
         <v>7</v>
       </c>
-      <c r="H199" s="4">
-        <v>3001</v>
+      <c r="H199" s="22">
+        <v>2001</v>
       </c>
       <c r="I199" s="18"/>
       <c r="J199" s="19">
@@ -14054,8 +14061,8 @@
       <c r="G200" s="18">
         <v>8</v>
       </c>
-      <c r="H200" s="4">
-        <v>4001</v>
+      <c r="H200" s="22">
+        <v>2002</v>
       </c>
       <c r="I200" s="18"/>
       <c r="J200" s="19">
@@ -14108,8 +14115,8 @@
       <c r="G201" s="20">
         <v>4</v>
       </c>
-      <c r="H201" s="4">
-        <v>1001</v>
+      <c r="H201" s="22">
+        <v>2003</v>
       </c>
       <c r="I201" s="18"/>
       <c r="J201" s="19">
@@ -14162,8 +14169,8 @@
       <c r="G202" s="20">
         <v>5</v>
       </c>
-      <c r="H202" s="4">
-        <v>1002</v>
+      <c r="H202" s="14">
+        <v>1001</v>
       </c>
       <c r="I202" s="18"/>
       <c r="J202" s="19">
@@ -14216,8 +14223,8 @@
       <c r="G203" s="20">
         <v>6</v>
       </c>
-      <c r="H203" s="4">
-        <v>2001</v>
+      <c r="H203" s="22">
+        <v>1002</v>
       </c>
       <c r="I203" s="18"/>
       <c r="J203" s="19">
@@ -14270,8 +14277,8 @@
       <c r="G204" s="20">
         <v>7</v>
       </c>
-      <c r="H204" s="4">
-        <v>3001</v>
+      <c r="H204" s="22">
+        <v>2001</v>
       </c>
       <c r="I204" s="18"/>
       <c r="J204" s="19">
@@ -14324,8 +14331,8 @@
       <c r="G205" s="18">
         <v>5</v>
       </c>
-      <c r="H205" s="4">
-        <v>4001</v>
+      <c r="H205" s="22">
+        <v>2002</v>
       </c>
       <c r="I205" s="18"/>
       <c r="J205" s="19">
@@ -14378,8 +14385,8 @@
       <c r="G206" s="18">
         <v>6</v>
       </c>
-      <c r="H206" s="4">
-        <v>1001</v>
+      <c r="H206" s="22">
+        <v>2003</v>
       </c>
       <c r="I206" s="18"/>
       <c r="J206" s="19">
@@ -14432,8 +14439,8 @@
       <c r="G207" s="18">
         <v>7</v>
       </c>
-      <c r="H207" s="4">
-        <v>1002</v>
+      <c r="H207" s="22">
+        <v>2003</v>
       </c>
       <c r="I207" s="18"/>
       <c r="J207" s="19">
@@ -14486,8 +14493,8 @@
       <c r="G208" s="18">
         <v>2</v>
       </c>
-      <c r="H208" s="4">
-        <v>2001</v>
+      <c r="H208" s="14">
+        <v>1001</v>
       </c>
       <c r="I208" s="18"/>
       <c r="J208" s="19">
@@ -14540,8 +14547,8 @@
       <c r="G209" s="18">
         <v>3</v>
       </c>
-      <c r="H209" s="4">
-        <v>3001</v>
+      <c r="H209" s="22">
+        <v>2001</v>
       </c>
       <c r="I209" s="18"/>
       <c r="J209" s="19">
@@ -14594,8 +14601,8 @@
       <c r="G210" s="18">
         <v>4</v>
       </c>
-      <c r="H210" s="4">
-        <v>4001</v>
+      <c r="H210" s="22">
+        <v>2003</v>
       </c>
       <c r="I210" s="18"/>
       <c r="J210" s="19">
@@ -14648,7 +14655,7 @@
       <c r="G211" s="18">
         <v>5</v>
       </c>
-      <c r="H211" s="4">
+      <c r="H211" s="14">
         <v>1001</v>
       </c>
       <c r="I211" s="18"/>
@@ -14702,8 +14709,8 @@
       <c r="G212" s="18">
         <v>3</v>
       </c>
-      <c r="H212" s="4">
-        <v>4001</v>
+      <c r="H212" s="22">
+        <v>1002</v>
       </c>
       <c r="I212" s="18"/>
       <c r="J212" s="19">
@@ -14756,8 +14763,8 @@
       <c r="G213" s="18">
         <v>4</v>
       </c>
-      <c r="H213" s="4">
-        <v>1001</v>
+      <c r="H213" s="22">
+        <v>2001</v>
       </c>
       <c r="I213" s="18"/>
       <c r="J213" s="19">
@@ -14787,6 +14794,18 @@
       <c r="R213" s="4" t="s">
         <v>703</v>
       </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H214" s="22"/>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H215" s="22"/>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H216" s="22"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H217" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D80822-AED1-4F38-BD9B-3F432FBA3080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D5DC9-4E56-4870-A8F7-081F93D591F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,26 +2540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack:2,Defense:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:3,Defense:1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:5,Defense:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:8,Defense:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:10,Defense:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2604,6 +2584,26 @@
   <si>
     <t>1001</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:0.1,Defense:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:0.2,Defense:0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:0.3,Defense:0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:0.4,Defense:0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:0.5,Defense:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+      <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3138,7 +3138,7 @@
         <v>680</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>469</v>
@@ -3147,10 +3147,10 @@
         <v>362</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -3203,10 +3203,10 @@
         <v>361</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3315,10 +3315,10 @@
         <v>20</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3371,10 +3371,10 @@
         <v>21</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3427,10 +3427,10 @@
         <v>22</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3483,10 +3483,10 @@
         <v>23</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3539,10 +3539,10 @@
         <v>24</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3593,10 +3593,10 @@
         <v>25</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -3649,10 +3649,10 @@
         <v>26</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3705,10 +3705,10 @@
         <v>27</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3761,10 +3761,10 @@
         <v>28</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -3817,10 +3817,10 @@
         <v>29</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -3873,10 +3873,10 @@
         <v>30</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -3929,10 +3929,10 @@
         <v>31</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -3985,10 +3985,10 @@
         <v>32</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -4041,10 +4041,10 @@
         <v>33</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
@@ -4097,10 +4097,10 @@
         <v>34</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -4153,10 +4153,10 @@
         <v>35</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
@@ -4209,10 +4209,10 @@
         <v>36</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
@@ -4265,10 +4265,10 @@
         <v>37</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
@@ -4321,10 +4321,10 @@
         <v>38</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
@@ -4375,10 +4375,10 @@
         <v>39</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -4431,10 +4431,10 @@
         <v>40</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -4487,10 +4487,10 @@
         <v>41</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
@@ -4543,10 +4543,10 @@
         <v>42</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -4599,10 +4599,10 @@
         <v>43</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
@@ -4655,10 +4655,10 @@
         <v>44</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
@@ -4711,10 +4711,10 @@
         <v>45</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -4767,10 +4767,10 @@
         <v>46</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -4823,10 +4823,10 @@
         <v>47</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
@@ -4879,10 +4879,10 @@
         <v>48</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
@@ -4935,10 +4935,10 @@
         <v>49</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
@@ -4991,10 +4991,10 @@
         <v>50</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
@@ -5047,10 +5047,10 @@
         <v>51</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
@@ -5103,10 +5103,10 @@
         <v>52</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
@@ -5159,10 +5159,10 @@
         <v>53</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
@@ -5215,10 +5215,10 @@
         <v>54</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
@@ -5271,10 +5271,10 @@
         <v>55</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
@@ -5327,10 +5327,10 @@
         <v>56</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
@@ -5383,10 +5383,10 @@
         <v>57</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
@@ -5439,10 +5439,10 @@
         <v>58</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
@@ -5495,10 +5495,10 @@
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
@@ -5551,10 +5551,10 @@
         <v>60</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
@@ -5607,10 +5607,10 @@
         <v>61</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
@@ -5663,10 +5663,10 @@
         <v>62</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -5719,10 +5719,10 @@
         <v>63</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -5775,10 +5775,10 @@
         <v>64</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
@@ -5831,10 +5831,10 @@
         <v>65</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
@@ -5887,10 +5887,10 @@
         <v>22</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
@@ -5943,10 +5943,10 @@
         <v>23</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -5999,10 +5999,10 @@
         <v>24</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -6055,10 +6055,10 @@
         <v>25</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -6111,10 +6111,10 @@
         <v>26</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
@@ -6167,10 +6167,10 @@
         <v>27</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
@@ -6223,10 +6223,10 @@
         <v>28</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
@@ -6279,10 +6279,10 @@
         <v>29</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -6335,10 +6335,10 @@
         <v>30</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
@@ -6391,10 +6391,10 @@
         <v>31</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
@@ -6445,10 +6445,10 @@
         <v>32</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
@@ -6501,10 +6501,10 @@
         <v>33</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -6557,10 +6557,10 @@
         <v>78</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
@@ -6613,10 +6613,10 @@
         <v>79</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
@@ -6669,10 +6669,10 @@
         <v>80</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
@@ -6725,10 +6725,10 @@
         <v>81</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
@@ -6754,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>125</v>
@@ -6781,10 +6781,10 @@
         <v>82</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
@@ -6835,10 +6835,10 @@
         <v>83</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.15">
@@ -6889,10 +6889,10 @@
         <v>84</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.15">
@@ -6945,10 +6945,10 @@
         <v>85</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
@@ -7001,10 +7001,10 @@
         <v>86</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
@@ -7057,10 +7057,10 @@
         <v>87</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
@@ -7113,10 +7113,10 @@
         <v>22</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
@@ -7169,10 +7169,10 @@
         <v>23</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
@@ -7225,10 +7225,10 @@
         <v>24</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
@@ -7281,10 +7281,10 @@
         <v>25</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.15">
@@ -7337,10 +7337,10 @@
         <v>26</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
@@ -7393,10 +7393,10 @@
         <v>27</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
@@ -7449,10 +7449,10 @@
         <v>28</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
@@ -7505,10 +7505,10 @@
         <v>29</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.15">
@@ -7561,10 +7561,10 @@
         <v>30</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.15">
@@ -7617,10 +7617,10 @@
         <v>31</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
@@ -7673,10 +7673,10 @@
         <v>32</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
@@ -7729,10 +7729,10 @@
         <v>33</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
@@ -7785,10 +7785,10 @@
         <v>100</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.15">
@@ -7841,10 +7841,10 @@
         <v>22</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.15">
@@ -7897,10 +7897,10 @@
         <v>23</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
@@ -7953,10 +7953,10 @@
         <v>24</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
@@ -8009,10 +8009,10 @@
         <v>25</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.15">
@@ -8065,10 +8065,10 @@
         <v>26</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.15">
@@ -8121,10 +8121,10 @@
         <v>27</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
@@ -8177,10 +8177,10 @@
         <v>28</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
@@ -8233,10 +8233,10 @@
         <v>29</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
@@ -8289,10 +8289,10 @@
         <v>56</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.15">
@@ -8345,10 +8345,10 @@
         <v>57</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
@@ -8401,10 +8401,10 @@
         <v>58</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.15">
@@ -8457,10 +8457,10 @@
         <v>59</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.15">
@@ -8513,10 +8513,10 @@
         <v>60</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
@@ -8569,10 +8569,10 @@
         <v>61</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
@@ -8625,10 +8625,10 @@
         <v>62</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
@@ -8681,10 +8681,10 @@
         <v>63</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.15">
@@ -8737,10 +8737,10 @@
         <v>64</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
@@ -8793,10 +8793,10 @@
         <v>65</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
@@ -8849,10 +8849,10 @@
         <v>22</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
@@ -8905,10 +8905,10 @@
         <v>23</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
@@ -8961,10 +8961,10 @@
         <v>24</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.15">
@@ -9017,10 +9017,10 @@
         <v>25</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.15">
@@ -9073,10 +9073,10 @@
         <v>26</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.15">
@@ -9129,10 +9129,10 @@
         <v>100</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.15">
@@ -9183,10 +9183,10 @@
         <v>20</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
@@ -9237,10 +9237,10 @@
         <v>21</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
@@ -9291,10 +9291,10 @@
         <v>22</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
@@ -9345,10 +9345,10 @@
         <v>23</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.15">
@@ -9399,10 +9399,10 @@
         <v>24</v>
       </c>
       <c r="Q113" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.15">
@@ -9451,10 +9451,10 @@
         <v>25</v>
       </c>
       <c r="Q114" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.15">
@@ -9505,10 +9505,10 @@
         <v>26</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.15">
@@ -9559,10 +9559,10 @@
         <v>27</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.15">
@@ -9613,10 +9613,10 @@
         <v>28</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.15">
@@ -9667,10 +9667,10 @@
         <v>29</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R118" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.15">
@@ -9721,10 +9721,10 @@
         <v>30</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.15">
@@ -9775,10 +9775,10 @@
         <v>31</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.15">
@@ -9829,10 +9829,10 @@
         <v>32</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.15">
@@ -9883,10 +9883,10 @@
         <v>33</v>
       </c>
       <c r="Q122" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.15">
@@ -9937,10 +9937,10 @@
         <v>34</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R123" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.15">
@@ -9991,10 +9991,10 @@
         <v>35</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R124" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.15">
@@ -10045,10 +10045,10 @@
         <v>36</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R125" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.15">
@@ -10099,10 +10099,10 @@
         <v>37</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R126" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.15">
@@ -10153,10 +10153,10 @@
         <v>38</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R127" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.15">
@@ -10207,10 +10207,10 @@
         <v>39</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R128" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
@@ -10259,10 +10259,10 @@
         <v>40</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R129" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
@@ -10313,10 +10313,10 @@
         <v>41</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R130" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
@@ -10367,10 +10367,10 @@
         <v>42</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R131" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
@@ -10421,10 +10421,10 @@
         <v>43</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R132" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
@@ -10475,10 +10475,10 @@
         <v>44</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R133" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
@@ -10529,10 +10529,10 @@
         <v>45</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R134" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
@@ -10583,10 +10583,10 @@
         <v>46</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R135" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
@@ -10637,10 +10637,10 @@
         <v>47</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R136" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
@@ -10691,10 +10691,10 @@
         <v>48</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R137" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
@@ -10745,10 +10745,10 @@
         <v>49</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R138" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
@@ -10799,10 +10799,10 @@
         <v>50</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R139" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
@@ -10853,10 +10853,10 @@
         <v>51</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R140" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
@@ -10907,10 +10907,10 @@
         <v>52</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R141" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.15">
@@ -10961,10 +10961,10 @@
         <v>53</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R142" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.15">
@@ -11015,10 +11015,10 @@
         <v>54</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R143" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.15">
@@ -11069,10 +11069,10 @@
         <v>55</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.15">
@@ -11123,10 +11123,10 @@
         <v>56</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R145" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.15">
@@ -11177,10 +11177,10 @@
         <v>57</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.15">
@@ -11231,10 +11231,10 @@
         <v>58</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R147" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.15">
@@ -11285,10 +11285,10 @@
         <v>59</v>
       </c>
       <c r="Q148" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R148" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.15">
@@ -11339,10 +11339,10 @@
         <v>60</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R149" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.15">
@@ -11393,10 +11393,10 @@
         <v>61</v>
       </c>
       <c r="Q150" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R150" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.15">
@@ -11447,10 +11447,10 @@
         <v>62</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R151" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.15">
@@ -11501,10 +11501,10 @@
         <v>63</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
@@ -11555,10 +11555,10 @@
         <v>64</v>
       </c>
       <c r="Q153" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R153" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.15">
@@ -11609,10 +11609,10 @@
         <v>65</v>
       </c>
       <c r="Q154" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R154" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
@@ -11663,10 +11663,10 @@
         <v>22</v>
       </c>
       <c r="Q155" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R155" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.15">
@@ -11717,10 +11717,10 @@
         <v>23</v>
       </c>
       <c r="Q156" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R156" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.15">
@@ -11771,10 +11771,10 @@
         <v>24</v>
       </c>
       <c r="Q157" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R157" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.15">
@@ -11825,10 +11825,10 @@
         <v>25</v>
       </c>
       <c r="Q158" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R158" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.15">
@@ -11879,10 +11879,10 @@
         <v>26</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R159" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
@@ -11933,10 +11933,10 @@
         <v>27</v>
       </c>
       <c r="Q160" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R160" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.15">
@@ -11987,10 +11987,10 @@
         <v>28</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.15">
@@ -12041,10 +12041,10 @@
         <v>29</v>
       </c>
       <c r="Q162" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R162" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.15">
@@ -12095,10 +12095,10 @@
         <v>30</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.15">
@@ -12149,10 +12149,10 @@
         <v>31</v>
       </c>
       <c r="Q164" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.15">
@@ -12203,10 +12203,10 @@
         <v>32</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R165" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.15">
@@ -12255,10 +12255,10 @@
         <v>33</v>
       </c>
       <c r="Q166" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R166" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.15">
@@ -12309,10 +12309,10 @@
         <v>78</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R167" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.15">
@@ -12363,10 +12363,10 @@
         <v>79</v>
       </c>
       <c r="Q168" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R168" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.15">
@@ -12417,10 +12417,10 @@
         <v>80</v>
       </c>
       <c r="Q169" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R169" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.15">
@@ -12471,10 +12471,10 @@
         <v>81</v>
       </c>
       <c r="Q170" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.15">
@@ -12525,10 +12525,10 @@
         <v>82</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R171" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.15">
@@ -12577,10 +12577,10 @@
         <v>83</v>
       </c>
       <c r="Q172" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R172" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.15">
@@ -12629,10 +12629,10 @@
         <v>84</v>
       </c>
       <c r="Q173" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R173" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
@@ -12683,10 +12683,10 @@
         <v>85</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R174" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
@@ -12737,10 +12737,10 @@
         <v>86</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
@@ -12791,10 +12791,10 @@
         <v>87</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R176" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.15">
@@ -12845,10 +12845,10 @@
         <v>22</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.15">
@@ -12899,10 +12899,10 @@
         <v>23</v>
       </c>
       <c r="Q178" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R178" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.15">
@@ -12953,10 +12953,10 @@
         <v>24</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R179" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.15">
@@ -13007,10 +13007,10 @@
         <v>25</v>
       </c>
       <c r="Q180" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R180" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.15">
@@ -13061,10 +13061,10 @@
         <v>26</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.15">
@@ -13115,10 +13115,10 @@
         <v>27</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R182" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.15">
@@ -13169,10 +13169,10 @@
         <v>28</v>
       </c>
       <c r="Q183" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R183" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.15">
@@ -13223,10 +13223,10 @@
         <v>29</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R184" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.15">
@@ -13277,10 +13277,10 @@
         <v>30</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R185" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.15">
@@ -13331,10 +13331,10 @@
         <v>31</v>
       </c>
       <c r="Q186" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R186" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.15">
@@ -13385,10 +13385,10 @@
         <v>32</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R187" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.15">
@@ -13439,10 +13439,10 @@
         <v>33</v>
       </c>
       <c r="Q188" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R188" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.15">
@@ -13493,10 +13493,10 @@
         <v>100</v>
       </c>
       <c r="Q189" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R189" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.15">
@@ -13547,10 +13547,10 @@
         <v>22</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R190" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.15">
@@ -13601,10 +13601,10 @@
         <v>23</v>
       </c>
       <c r="Q191" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R191" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.15">
@@ -13655,10 +13655,10 @@
         <v>24</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R192" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.15">
@@ -13709,10 +13709,10 @@
         <v>25</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R193" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.15">
@@ -13763,10 +13763,10 @@
         <v>26</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R194" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.15">
@@ -13817,10 +13817,10 @@
         <v>27</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R195" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.15">
@@ -13871,10 +13871,10 @@
         <v>28</v>
       </c>
       <c r="Q196" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R196" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.15">
@@ -13925,10 +13925,10 @@
         <v>29</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R197" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.15">
@@ -13979,10 +13979,10 @@
         <v>56</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R198" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.15">
@@ -14033,10 +14033,10 @@
         <v>57</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R199" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.15">
@@ -14087,10 +14087,10 @@
         <v>58</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R200" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.15">
@@ -14141,10 +14141,10 @@
         <v>59</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R201" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.15">
@@ -14195,10 +14195,10 @@
         <v>60</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R202" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.15">
@@ -14249,10 +14249,10 @@
         <v>61</v>
       </c>
       <c r="Q203" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R203" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.15">
@@ -14303,10 +14303,10 @@
         <v>62</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R204" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.15">
@@ -14357,10 +14357,10 @@
         <v>63</v>
       </c>
       <c r="Q205" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R205" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.15">
@@ -14411,10 +14411,10 @@
         <v>64</v>
       </c>
       <c r="Q206" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R206" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.15">
@@ -14465,10 +14465,10 @@
         <v>65</v>
       </c>
       <c r="Q207" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R207" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.15">
@@ -14519,10 +14519,10 @@
         <v>22</v>
       </c>
       <c r="Q208" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R208" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.15">
@@ -14573,10 +14573,10 @@
         <v>23</v>
       </c>
       <c r="Q209" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R209" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.15">
@@ -14627,10 +14627,10 @@
         <v>24</v>
       </c>
       <c r="Q210" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R210" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.15">
@@ -14681,10 +14681,10 @@
         <v>25</v>
       </c>
       <c r="Q211" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R211" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.15">
@@ -14735,10 +14735,10 @@
         <v>26</v>
       </c>
       <c r="Q212" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R212" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.15">
@@ -14789,10 +14789,10 @@
         <v>90</v>
       </c>
       <c r="Q213" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R213" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.15">
@@ -14840,7 +14840,7 @@
         <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15633,7 +15633,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15658,7 +15658,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15703,7 +15703,7 @@
         <v>684</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>157</v>
@@ -15720,7 +15720,7 @@
         <v>685</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>158</v>
@@ -15737,7 +15737,7 @@
         <v>686</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>159</v>
@@ -15754,7 +15754,7 @@
         <v>687</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>160</v>
@@ -15771,7 +15771,7 @@
         <v>688</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>161</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="21" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D5DC9-4E56-4870-A8F7-081F93D591F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E9D9A-6297-4BDE-92B7-37D3D53E1EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="38640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="HeroStar" sheetId="3" r:id="rId3"/>
     <sheet name="HeroPool" sheetId="4" r:id="rId4"/>
     <sheet name="FavorLevel" sheetId="5" r:id="rId5"/>
+    <sheet name="Question" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="802">
   <si>
     <t>索引</t>
   </si>
@@ -2603,6 +2604,446 @@
   </si>
   <si>
     <t>Attack:0.5,Defense:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谜语：凿壁偷光、嘴里进蚊子、相貌堂堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐朝诗人杜牧诗“东风不与周郎便，铜雀春深锁二乔”，写的是哪一场战役？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、巨鹿之战 B、官渡之战
+C、赤壁之战 D、潼关之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁遗雄烈，青年有俊声。弦歌知雅意，杯酒谢良朋。曾渴三千斛，常驱十万兵，巴丘终命处，凭吊欲伤情。”这首诗写的是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大丈夫死于乱世，当带三尺剑立于不世之功，与所世未遂夸何死乎，言讫而之！”请问这句话是谁说的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允利用貂禅除掉董卓的过程中用了下列选项中的哪些计策？
+①美人计②连环计③反间计④苦肉计⑤声东击西计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、①②③④⑤ B、②③⑤
+C、①②③ D、②④⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">关于《三国演义》，正确的一项是 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备身边的五虎上将都是谁？
+①魏延 ②关羽 ③马超 ④黄忠 ⑤张飞 ⑥赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪父子三人被诸葛亮困于上方谷?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“千里草，何青青！十日卜，不得生！”指何人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、皇甫嵩 B、董卓 C、王允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长坂坡一战中，被魏将程昱称为“万人敌”的是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、关羽 B、张飞 C、赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、刘备字玄德，曹操字孟德，张飞字翼德。
+B、“三英战吕布”，“三英”指的是关羽、张飞、赵云。
+C、“桃园三结义”指的是关羽、张飞、赵云。
+D、杨修是孙权手下的谋士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮初出茅庐第一次“运筹帷幄之中，决胜千里之外”的战役是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备除了糜、孙两位夫人，还有一位是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽在离开曹操时唯一带走的曹操的赠物是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“垂手过膝，目能顾其耳。”描写的是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚葬于何处？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操为何放弃了第一次攻打徐州？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策过世的年龄？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮酒论英雄后，刘备以截击谁为借口逃离？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“水镜先生”是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、徐庶 B、庞德公 C、诸葛亮 D、司马徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“方颐大口，碧眼紫鬓”描写的是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、由于孔融、刘备相继救援
+B、东阿青州军叛乱
+C、吕布袭破衮州，使曹操腹背受敌
+D、袁术攻破濮阳，威胁曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、火烧新野 B、火烧博望坡
+C、安居平五路 D、火烧赤壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、①②③④⑤ B、①②③⑤⑥
+C、②③④⑤⑥ D、①②④⑤⑥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、虞翻 B、鲁肃 
+C、张昭 D、孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、刘表 B、袁绍 
+C、王允 D、袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、16 B、21
+C、26 D、41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、江都 B、曲阿 
+C、丹阳 D、松江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、庞统 B、刘备
+C、伊籍 D、诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、美女 B、金银 
+C、奴役 D、赤兔马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、钱 B、阚 
+C、韩 D、甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、司马懿 B、司马师 
+C、司马昭 D、司马炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、周瑜 B、诸葛亮 
+C、曹操 D、刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、周瑜 B、曹真 
+C、典韦 D、太史慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、孔明、张飞、颜良
+B、赵云、颜良、孔明
+C、孔明、文丑、张飞
+D、关羽、颜良、黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓废帝的理由是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.刘辩之bai母何du后乃乱党的妹zhi妹 B.刘辩懦弱，刘协聪明dao
+C.刘辩重用宦官败坏朝政 D.刘协乃长子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.汗献帝 B.汗文帝 
+C.汉武帝 D.汗灵帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.侯成 B.魏绪
+C.陈登 D.陈宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操为什么要诛杀献帝的董妃?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于谁的里应外合曹操袭取了徐州?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓所立的刘协史称?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.董妃鼓惑献帝降诏罢除曹操 B.董妃为董卓之女
+C.董妃为董承之女 D.曹操要在献帝面前树立形象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.于禁 B.刘辟 
+C.孙乾 D.陈震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽是从谁的口中得知刘备的下落?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中是三国“三杰”之一的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.刘备 B.关羽 
+C.曹操 D.诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥之战中，谁放箭射中乐进面门而救了凌统?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.黄盖 B.丁奉 
+C.甘宁 D.吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东吴的谁率军智取荆州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.周瑜 B.鲁肃 
+C.陆逊 D.吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮初出茅庐第一次“运筹帷幄之中，决胜千里之外”的战役是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.火烧新野
+B.火烧博望坡
+C.安居平五路
+D.火烧赤壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱时由谁发起?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 张梁 B 张飞 
+C 张角 D 张无忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列人物中是讨伐黄巾军的主要统帅的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 何进 B 刘备 
+C 曹操 D 皇甫嵩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操在讨伐黄巾之乱时的官位?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 太尉 B 大司马 
+C 黄门侍郎 D 骑都尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是谁在曹操被徐荣埋伏时保护曹操渡过大河?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 曹休 B 夏侯惇 
+C 曹洪 D 曹丕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇祖上是哪一位汉代名将?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 夏侯楙 B 段煨 
+C 陈平 D 夏侯婴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备自称为谁的后人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 中山靖王 B 山东齐王 
+C 汉武刘彻 D 河北赵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“捉放曹”情节中是谁放了曹操并随曹操一并离去?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 陈登 B 陈宫 
+C 吕虔 D 曹仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽的武器除了称为“万人敌”、“青龙偃月刀”还被称为什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 方天画戟 B 冷艳锯 
+C 丈八蛇矛 D 双股剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从刘备起兵时就跟随刘备一直到打下西蜀的是哪位同乡?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 糜竺 B 孙乾 
+C 简雍 D 马良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列人物哪位是孙坚骑兵时的四大将之一?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 程咨 B 孙策 
+C 韩逞 D 祖茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒手下有支名震天下的骑兵，这支骑兵的名称?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 并州铁骑 B 西凉铁骑 
+C 白马义从 D 先登死士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布手下有八健将，其中是谁在白门楼一声不吭而被斩杀?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 张辽 B 魏续 
+C 高顺 D 宋宪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍手下有河北四庭柱，其中哪位被赵云刺死?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 文丑 B 淳于琼 
+C 张颌 D 高览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术帐下有一猛将，能与关羽大战三十回合不败，他是谁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 张勋 B 袁耀 
+C 陈兰 D 纪灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五子良将中谁善使大斧?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 张辽 B 乐进 
+C 李典 D 徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治世之能臣，乱世之奸雄是谁评价曹操的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 许昭 B 许劭 
+C 许攸 D 许靖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2703,7 +3144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2772,6 +3213,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3079,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8421E4DA-E67E-4C26-A941-E66E0F592D10}">
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I167" sqref="I167"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15796,7 +16264,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15871,7 +16339,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16025,4 +16493,695 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FA3FFF-C5AB-426A-9F07-847B9103B023}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="71.375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>14</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>15</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>16</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>17</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>18</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>19</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>20</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>21</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>22</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="29">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
+        <v>24</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>25</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="29">
+        <v>27</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="29">
+        <v>28</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="29">
+        <v>29</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="29">
+        <v>30</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="29">
+        <v>31</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="29">
+        <v>32</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="29">
+        <v>33</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="29">
+        <v>34</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="29">
+        <v>35</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
+        <v>36</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="29">
+        <v>37</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="29">
+        <v>38</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="29">
+        <v>39</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="29">
+        <v>40</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="29">
+        <v>41</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="29">
+        <v>42</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="29">
+        <v>43</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="29">
+        <v>44</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="29">
+        <v>45</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>